--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C176137D-4C91-4F51-9F8C-495CCC95D42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F03C208-879F-4E6B-BF39-1672A128E39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H255"/>
+  <dimension ref="A1:H322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D253" sqref="D253"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C299" sqref="C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7082,6 +7082,1748 @@
         <v>0</v>
       </c>
     </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>402000</v>
+      </c>
+      <c r="C256">
+        <v>35</v>
+      </c>
+      <c r="D256">
+        <v>1140</v>
+      </c>
+      <c r="E256">
+        <v>36</v>
+      </c>
+      <c r="F256">
+        <v>1032</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>403500</v>
+      </c>
+      <c r="C257">
+        <v>35</v>
+      </c>
+      <c r="D257">
+        <v>1144</v>
+      </c>
+      <c r="E257">
+        <v>36</v>
+      </c>
+      <c r="F257">
+        <v>1036</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>405000</v>
+      </c>
+      <c r="C258">
+        <v>35</v>
+      </c>
+      <c r="D258">
+        <v>1148</v>
+      </c>
+      <c r="E258">
+        <v>36</v>
+      </c>
+      <c r="F258">
+        <v>1040</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>406500</v>
+      </c>
+      <c r="C259">
+        <v>35</v>
+      </c>
+      <c r="D259">
+        <v>1152</v>
+      </c>
+      <c r="E259">
+        <v>36</v>
+      </c>
+      <c r="F259">
+        <v>1044</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>408000</v>
+      </c>
+      <c r="C260">
+        <v>35</v>
+      </c>
+      <c r="D260">
+        <v>1156</v>
+      </c>
+      <c r="E260">
+        <v>36</v>
+      </c>
+      <c r="F260">
+        <v>1048</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>409500</v>
+      </c>
+      <c r="C261">
+        <v>35</v>
+      </c>
+      <c r="D261">
+        <v>1160</v>
+      </c>
+      <c r="E261">
+        <v>36</v>
+      </c>
+      <c r="F261">
+        <v>1052</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>411000</v>
+      </c>
+      <c r="C262">
+        <v>35</v>
+      </c>
+      <c r="D262">
+        <v>1164</v>
+      </c>
+      <c r="E262">
+        <v>36</v>
+      </c>
+      <c r="F262">
+        <v>1056</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>412500</v>
+      </c>
+      <c r="C263">
+        <v>35</v>
+      </c>
+      <c r="D263">
+        <v>1168</v>
+      </c>
+      <c r="E263">
+        <v>36</v>
+      </c>
+      <c r="F263">
+        <v>1060</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>414000</v>
+      </c>
+      <c r="C264">
+        <v>35</v>
+      </c>
+      <c r="D264">
+        <v>1172</v>
+      </c>
+      <c r="E264">
+        <v>36</v>
+      </c>
+      <c r="F264">
+        <v>1064</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>415500</v>
+      </c>
+      <c r="C265">
+        <v>35</v>
+      </c>
+      <c r="D265">
+        <v>1176</v>
+      </c>
+      <c r="E265">
+        <v>36</v>
+      </c>
+      <c r="F265">
+        <v>1068</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>417000</v>
+      </c>
+      <c r="C266">
+        <v>35</v>
+      </c>
+      <c r="D266">
+        <v>1180</v>
+      </c>
+      <c r="E266">
+        <v>36</v>
+      </c>
+      <c r="F266">
+        <v>1072</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>418500</v>
+      </c>
+      <c r="C267">
+        <v>35</v>
+      </c>
+      <c r="D267">
+        <v>1184</v>
+      </c>
+      <c r="E267">
+        <v>36</v>
+      </c>
+      <c r="F267">
+        <v>1076</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>420000</v>
+      </c>
+      <c r="C268">
+        <v>35</v>
+      </c>
+      <c r="D268">
+        <v>1188</v>
+      </c>
+      <c r="E268">
+        <v>36</v>
+      </c>
+      <c r="F268">
+        <v>1080</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>421500</v>
+      </c>
+      <c r="C269">
+        <v>35</v>
+      </c>
+      <c r="D269">
+        <v>1192</v>
+      </c>
+      <c r="E269">
+        <v>36</v>
+      </c>
+      <c r="F269">
+        <v>1084</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>423000</v>
+      </c>
+      <c r="C270">
+        <v>35</v>
+      </c>
+      <c r="D270">
+        <v>1196</v>
+      </c>
+      <c r="E270">
+        <v>36</v>
+      </c>
+      <c r="F270">
+        <v>1088</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>424500</v>
+      </c>
+      <c r="C271">
+        <v>35</v>
+      </c>
+      <c r="D271">
+        <v>1200</v>
+      </c>
+      <c r="E271">
+        <v>36</v>
+      </c>
+      <c r="F271">
+        <v>1092</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>426000</v>
+      </c>
+      <c r="C272">
+        <v>35</v>
+      </c>
+      <c r="D272">
+        <v>1204</v>
+      </c>
+      <c r="E272">
+        <v>36</v>
+      </c>
+      <c r="F272">
+        <v>1096</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>427500</v>
+      </c>
+      <c r="C273">
+        <v>35</v>
+      </c>
+      <c r="D273">
+        <v>1208</v>
+      </c>
+      <c r="E273">
+        <v>36</v>
+      </c>
+      <c r="F273">
+        <v>1100</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>429000</v>
+      </c>
+      <c r="C274">
+        <v>35</v>
+      </c>
+      <c r="D274">
+        <v>1212</v>
+      </c>
+      <c r="E274">
+        <v>36</v>
+      </c>
+      <c r="F274">
+        <v>1104</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>430500</v>
+      </c>
+      <c r="C275">
+        <v>35</v>
+      </c>
+      <c r="D275">
+        <v>1216</v>
+      </c>
+      <c r="E275">
+        <v>36</v>
+      </c>
+      <c r="F275">
+        <v>1108</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>432000</v>
+      </c>
+      <c r="C276">
+        <v>35</v>
+      </c>
+      <c r="D276">
+        <v>1220</v>
+      </c>
+      <c r="E276">
+        <v>36</v>
+      </c>
+      <c r="F276">
+        <v>1112</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>433500</v>
+      </c>
+      <c r="C277">
+        <v>35</v>
+      </c>
+      <c r="D277">
+        <v>1224</v>
+      </c>
+      <c r="E277">
+        <v>36</v>
+      </c>
+      <c r="F277">
+        <v>1116</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>435000</v>
+      </c>
+      <c r="C278">
+        <v>35</v>
+      </c>
+      <c r="D278">
+        <v>1228</v>
+      </c>
+      <c r="E278">
+        <v>36</v>
+      </c>
+      <c r="F278">
+        <v>1120</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>436500</v>
+      </c>
+      <c r="C279">
+        <v>35</v>
+      </c>
+      <c r="D279">
+        <v>1232</v>
+      </c>
+      <c r="E279">
+        <v>36</v>
+      </c>
+      <c r="F279">
+        <v>1124</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>438000</v>
+      </c>
+      <c r="C280">
+        <v>35</v>
+      </c>
+      <c r="D280">
+        <v>1236</v>
+      </c>
+      <c r="E280">
+        <v>36</v>
+      </c>
+      <c r="F280">
+        <v>1128</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>439500</v>
+      </c>
+      <c r="C281">
+        <v>35</v>
+      </c>
+      <c r="D281">
+        <v>1240</v>
+      </c>
+      <c r="E281">
+        <v>36</v>
+      </c>
+      <c r="F281">
+        <v>1132</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>441000</v>
+      </c>
+      <c r="C282">
+        <v>35</v>
+      </c>
+      <c r="D282">
+        <v>1244</v>
+      </c>
+      <c r="E282">
+        <v>36</v>
+      </c>
+      <c r="F282">
+        <v>1136</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>442500</v>
+      </c>
+      <c r="C283">
+        <v>35</v>
+      </c>
+      <c r="D283">
+        <v>1248</v>
+      </c>
+      <c r="E283">
+        <v>36</v>
+      </c>
+      <c r="F283">
+        <v>1140</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>444000</v>
+      </c>
+      <c r="C284">
+        <v>35</v>
+      </c>
+      <c r="D284">
+        <v>1252</v>
+      </c>
+      <c r="E284">
+        <v>36</v>
+      </c>
+      <c r="F284">
+        <v>1144</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>445500</v>
+      </c>
+      <c r="C285">
+        <v>35</v>
+      </c>
+      <c r="D285">
+        <v>1256</v>
+      </c>
+      <c r="E285">
+        <v>36</v>
+      </c>
+      <c r="F285">
+        <v>1148</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>447000</v>
+      </c>
+      <c r="C286">
+        <v>35</v>
+      </c>
+      <c r="D286">
+        <v>1260</v>
+      </c>
+      <c r="E286">
+        <v>36</v>
+      </c>
+      <c r="F286">
+        <v>1152</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>448500</v>
+      </c>
+      <c r="C287">
+        <v>35</v>
+      </c>
+      <c r="D287">
+        <v>1264</v>
+      </c>
+      <c r="E287">
+        <v>36</v>
+      </c>
+      <c r="F287">
+        <v>1156</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>450000</v>
+      </c>
+      <c r="C288">
+        <v>35</v>
+      </c>
+      <c r="D288">
+        <v>1268</v>
+      </c>
+      <c r="E288">
+        <v>36</v>
+      </c>
+      <c r="F288">
+        <v>1160</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>451500</v>
+      </c>
+      <c r="C289">
+        <v>35</v>
+      </c>
+      <c r="D289">
+        <v>1272</v>
+      </c>
+      <c r="E289">
+        <v>36</v>
+      </c>
+      <c r="F289">
+        <v>1164</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>453000</v>
+      </c>
+      <c r="C290">
+        <v>35</v>
+      </c>
+      <c r="D290">
+        <v>1276</v>
+      </c>
+      <c r="E290">
+        <v>36</v>
+      </c>
+      <c r="F290">
+        <v>1168</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>454500</v>
+      </c>
+      <c r="C291">
+        <v>35</v>
+      </c>
+      <c r="D291">
+        <v>1280</v>
+      </c>
+      <c r="E291">
+        <v>36</v>
+      </c>
+      <c r="F291">
+        <v>1172</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>456000</v>
+      </c>
+      <c r="C292">
+        <v>35</v>
+      </c>
+      <c r="D292">
+        <v>1284</v>
+      </c>
+      <c r="E292">
+        <v>36</v>
+      </c>
+      <c r="F292">
+        <v>1176</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>457500</v>
+      </c>
+      <c r="C293">
+        <v>35</v>
+      </c>
+      <c r="D293">
+        <v>1288</v>
+      </c>
+      <c r="E293">
+        <v>36</v>
+      </c>
+      <c r="F293">
+        <v>1180</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>459000</v>
+      </c>
+      <c r="C294">
+        <v>35</v>
+      </c>
+      <c r="D294">
+        <v>1292</v>
+      </c>
+      <c r="E294">
+        <v>36</v>
+      </c>
+      <c r="F294">
+        <v>1184</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>460500</v>
+      </c>
+      <c r="C295">
+        <v>35</v>
+      </c>
+      <c r="D295">
+        <v>1296</v>
+      </c>
+      <c r="E295">
+        <v>36</v>
+      </c>
+      <c r="F295">
+        <v>1188</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>462000</v>
+      </c>
+      <c r="C296">
+        <v>35</v>
+      </c>
+      <c r="D296">
+        <v>1300</v>
+      </c>
+      <c r="E296">
+        <v>36</v>
+      </c>
+      <c r="F296">
+        <v>1192</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>463500</v>
+      </c>
+      <c r="C297">
+        <v>35</v>
+      </c>
+      <c r="D297">
+        <v>1304</v>
+      </c>
+      <c r="E297">
+        <v>36</v>
+      </c>
+      <c r="F297">
+        <v>1196</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>465000</v>
+      </c>
+      <c r="C298">
+        <v>35</v>
+      </c>
+      <c r="D298">
+        <v>1308</v>
+      </c>
+      <c r="E298">
+        <v>36</v>
+      </c>
+      <c r="F298">
+        <v>1200</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>466500</v>
+      </c>
+      <c r="C299">
+        <v>35</v>
+      </c>
+      <c r="D299">
+        <v>1312</v>
+      </c>
+      <c r="E299">
+        <v>36</v>
+      </c>
+      <c r="F299">
+        <v>1204</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>468000</v>
+      </c>
+      <c r="C300">
+        <v>35</v>
+      </c>
+      <c r="D300">
+        <v>1316</v>
+      </c>
+      <c r="E300">
+        <v>36</v>
+      </c>
+      <c r="F300">
+        <v>1208</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>469500</v>
+      </c>
+      <c r="C301">
+        <v>35</v>
+      </c>
+      <c r="D301">
+        <v>1320</v>
+      </c>
+      <c r="E301">
+        <v>36</v>
+      </c>
+      <c r="F301">
+        <v>1212</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>471000</v>
+      </c>
+      <c r="C302">
+        <v>35</v>
+      </c>
+      <c r="D302">
+        <v>1324</v>
+      </c>
+      <c r="E302">
+        <v>36</v>
+      </c>
+      <c r="F302">
+        <v>1216</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>472500</v>
+      </c>
+      <c r="C303">
+        <v>35</v>
+      </c>
+      <c r="D303">
+        <v>1328</v>
+      </c>
+      <c r="E303">
+        <v>36</v>
+      </c>
+      <c r="F303">
+        <v>1220</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>474000</v>
+      </c>
+      <c r="C304">
+        <v>35</v>
+      </c>
+      <c r="D304">
+        <v>1332</v>
+      </c>
+      <c r="E304">
+        <v>36</v>
+      </c>
+      <c r="F304">
+        <v>1224</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>475500</v>
+      </c>
+      <c r="C305">
+        <v>35</v>
+      </c>
+      <c r="D305">
+        <v>1336</v>
+      </c>
+      <c r="E305">
+        <v>36</v>
+      </c>
+      <c r="F305">
+        <v>1228</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>477000</v>
+      </c>
+      <c r="C306">
+        <v>35</v>
+      </c>
+      <c r="D306">
+        <v>1340</v>
+      </c>
+      <c r="E306">
+        <v>36</v>
+      </c>
+      <c r="F306">
+        <v>1232</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>478500</v>
+      </c>
+      <c r="C307">
+        <v>35</v>
+      </c>
+      <c r="D307">
+        <v>1344</v>
+      </c>
+      <c r="E307">
+        <v>36</v>
+      </c>
+      <c r="F307">
+        <v>1236</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>480000</v>
+      </c>
+      <c r="C308">
+        <v>35</v>
+      </c>
+      <c r="D308">
+        <v>1348</v>
+      </c>
+      <c r="E308">
+        <v>36</v>
+      </c>
+      <c r="F308">
+        <v>1240</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>481500</v>
+      </c>
+      <c r="C309">
+        <v>35</v>
+      </c>
+      <c r="D309">
+        <v>1352</v>
+      </c>
+      <c r="E309">
+        <v>36</v>
+      </c>
+      <c r="F309">
+        <v>1244</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>483000</v>
+      </c>
+      <c r="C310">
+        <v>35</v>
+      </c>
+      <c r="D310">
+        <v>1356</v>
+      </c>
+      <c r="E310">
+        <v>36</v>
+      </c>
+      <c r="F310">
+        <v>1248</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>484500</v>
+      </c>
+      <c r="C311">
+        <v>35</v>
+      </c>
+      <c r="D311">
+        <v>1360</v>
+      </c>
+      <c r="E311">
+        <v>36</v>
+      </c>
+      <c r="F311">
+        <v>1252</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>486000</v>
+      </c>
+      <c r="C312">
+        <v>35</v>
+      </c>
+      <c r="D312">
+        <v>1364</v>
+      </c>
+      <c r="E312">
+        <v>36</v>
+      </c>
+      <c r="F312">
+        <v>1256</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>487500</v>
+      </c>
+      <c r="C313">
+        <v>35</v>
+      </c>
+      <c r="D313">
+        <v>1368</v>
+      </c>
+      <c r="E313">
+        <v>36</v>
+      </c>
+      <c r="F313">
+        <v>1260</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>489000</v>
+      </c>
+      <c r="C314">
+        <v>35</v>
+      </c>
+      <c r="D314">
+        <v>1372</v>
+      </c>
+      <c r="E314">
+        <v>36</v>
+      </c>
+      <c r="F314">
+        <v>1264</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>490500</v>
+      </c>
+      <c r="C315">
+        <v>35</v>
+      </c>
+      <c r="D315">
+        <v>1376</v>
+      </c>
+      <c r="E315">
+        <v>36</v>
+      </c>
+      <c r="F315">
+        <v>1268</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>492000</v>
+      </c>
+      <c r="C316">
+        <v>35</v>
+      </c>
+      <c r="D316">
+        <v>1380</v>
+      </c>
+      <c r="E316">
+        <v>36</v>
+      </c>
+      <c r="F316">
+        <v>1272</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>493500</v>
+      </c>
+      <c r="C317">
+        <v>35</v>
+      </c>
+      <c r="D317">
+        <v>1384</v>
+      </c>
+      <c r="E317">
+        <v>36</v>
+      </c>
+      <c r="F317">
+        <v>1276</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>495000</v>
+      </c>
+      <c r="C318">
+        <v>35</v>
+      </c>
+      <c r="D318">
+        <v>1388</v>
+      </c>
+      <c r="E318">
+        <v>36</v>
+      </c>
+      <c r="F318">
+        <v>1280</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>496500</v>
+      </c>
+      <c r="C319">
+        <v>35</v>
+      </c>
+      <c r="D319">
+        <v>1392</v>
+      </c>
+      <c r="E319">
+        <v>36</v>
+      </c>
+      <c r="F319">
+        <v>1284</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>498000</v>
+      </c>
+      <c r="C320">
+        <v>35</v>
+      </c>
+      <c r="D320">
+        <v>1396</v>
+      </c>
+      <c r="E320">
+        <v>36</v>
+      </c>
+      <c r="F320">
+        <v>1288</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>499500</v>
+      </c>
+      <c r="C321">
+        <v>35</v>
+      </c>
+      <c r="D321">
+        <v>1400</v>
+      </c>
+      <c r="E321">
+        <v>36</v>
+      </c>
+      <c r="F321">
+        <v>1292</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>501000</v>
+      </c>
+      <c r="C322">
+        <v>35</v>
+      </c>
+      <c r="D322">
+        <v>1404</v>
+      </c>
+      <c r="E322">
+        <v>36</v>
+      </c>
+      <c r="F322">
+        <v>1296</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F03C208-879F-4E6B-BF39-1672A128E39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03792397-FEA6-45D8-8008-0018B86FF04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H322"/>
+  <dimension ref="A1:H355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C299" sqref="C299"/>
+      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8824,6 +8824,864 @@
         <v>0</v>
       </c>
     </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>502500</v>
+      </c>
+      <c r="C323">
+        <v>35</v>
+      </c>
+      <c r="D323">
+        <v>1408</v>
+      </c>
+      <c r="E323">
+        <v>36</v>
+      </c>
+      <c r="F323">
+        <v>1300</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>504000</v>
+      </c>
+      <c r="C324">
+        <v>35</v>
+      </c>
+      <c r="D324">
+        <v>1412</v>
+      </c>
+      <c r="E324">
+        <v>36</v>
+      </c>
+      <c r="F324">
+        <v>1304</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>505500</v>
+      </c>
+      <c r="C325">
+        <v>35</v>
+      </c>
+      <c r="D325">
+        <v>1416</v>
+      </c>
+      <c r="E325">
+        <v>36</v>
+      </c>
+      <c r="F325">
+        <v>1308</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>507000</v>
+      </c>
+      <c r="C326">
+        <v>35</v>
+      </c>
+      <c r="D326">
+        <v>1420</v>
+      </c>
+      <c r="E326">
+        <v>36</v>
+      </c>
+      <c r="F326">
+        <v>1312</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>508500</v>
+      </c>
+      <c r="C327">
+        <v>35</v>
+      </c>
+      <c r="D327">
+        <v>1424</v>
+      </c>
+      <c r="E327">
+        <v>36</v>
+      </c>
+      <c r="F327">
+        <v>1316</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>510000</v>
+      </c>
+      <c r="C328">
+        <v>35</v>
+      </c>
+      <c r="D328">
+        <v>1428</v>
+      </c>
+      <c r="E328">
+        <v>36</v>
+      </c>
+      <c r="F328">
+        <v>1320</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>511500</v>
+      </c>
+      <c r="C329">
+        <v>35</v>
+      </c>
+      <c r="D329">
+        <v>1432</v>
+      </c>
+      <c r="E329">
+        <v>36</v>
+      </c>
+      <c r="F329">
+        <v>1324</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>513000</v>
+      </c>
+      <c r="C330">
+        <v>35</v>
+      </c>
+      <c r="D330">
+        <v>1436</v>
+      </c>
+      <c r="E330">
+        <v>36</v>
+      </c>
+      <c r="F330">
+        <v>1328</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>514500</v>
+      </c>
+      <c r="C331">
+        <v>35</v>
+      </c>
+      <c r="D331">
+        <v>1440</v>
+      </c>
+      <c r="E331">
+        <v>36</v>
+      </c>
+      <c r="F331">
+        <v>1332</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>516000</v>
+      </c>
+      <c r="C332">
+        <v>35</v>
+      </c>
+      <c r="D332">
+        <v>1444</v>
+      </c>
+      <c r="E332">
+        <v>36</v>
+      </c>
+      <c r="F332">
+        <v>1336</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>517500</v>
+      </c>
+      <c r="C333">
+        <v>35</v>
+      </c>
+      <c r="D333">
+        <v>1448</v>
+      </c>
+      <c r="E333">
+        <v>36</v>
+      </c>
+      <c r="F333">
+        <v>1340</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>519000</v>
+      </c>
+      <c r="C334">
+        <v>35</v>
+      </c>
+      <c r="D334">
+        <v>1452</v>
+      </c>
+      <c r="E334">
+        <v>36</v>
+      </c>
+      <c r="F334">
+        <v>1344</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>520500</v>
+      </c>
+      <c r="C335">
+        <v>35</v>
+      </c>
+      <c r="D335">
+        <v>1456</v>
+      </c>
+      <c r="E335">
+        <v>36</v>
+      </c>
+      <c r="F335">
+        <v>1348</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>522000</v>
+      </c>
+      <c r="C336">
+        <v>35</v>
+      </c>
+      <c r="D336">
+        <v>1460</v>
+      </c>
+      <c r="E336">
+        <v>36</v>
+      </c>
+      <c r="F336">
+        <v>1352</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>523500</v>
+      </c>
+      <c r="C337">
+        <v>35</v>
+      </c>
+      <c r="D337">
+        <v>1464</v>
+      </c>
+      <c r="E337">
+        <v>36</v>
+      </c>
+      <c r="F337">
+        <v>1356</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>525000</v>
+      </c>
+      <c r="C338">
+        <v>35</v>
+      </c>
+      <c r="D338">
+        <v>1468</v>
+      </c>
+      <c r="E338">
+        <v>36</v>
+      </c>
+      <c r="F338">
+        <v>1360</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>526500</v>
+      </c>
+      <c r="C339">
+        <v>35</v>
+      </c>
+      <c r="D339">
+        <v>1472</v>
+      </c>
+      <c r="E339">
+        <v>36</v>
+      </c>
+      <c r="F339">
+        <v>1364</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>528000</v>
+      </c>
+      <c r="C340">
+        <v>35</v>
+      </c>
+      <c r="D340">
+        <v>1476</v>
+      </c>
+      <c r="E340">
+        <v>36</v>
+      </c>
+      <c r="F340">
+        <v>1368</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>529500</v>
+      </c>
+      <c r="C341">
+        <v>35</v>
+      </c>
+      <c r="D341">
+        <v>1480</v>
+      </c>
+      <c r="E341">
+        <v>36</v>
+      </c>
+      <c r="F341">
+        <v>1372</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>531000</v>
+      </c>
+      <c r="C342">
+        <v>35</v>
+      </c>
+      <c r="D342">
+        <v>1484</v>
+      </c>
+      <c r="E342">
+        <v>36</v>
+      </c>
+      <c r="F342">
+        <v>1376</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>532500</v>
+      </c>
+      <c r="C343">
+        <v>35</v>
+      </c>
+      <c r="D343">
+        <v>1488</v>
+      </c>
+      <c r="E343">
+        <v>36</v>
+      </c>
+      <c r="F343">
+        <v>1380</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>534000</v>
+      </c>
+      <c r="C344">
+        <v>35</v>
+      </c>
+      <c r="D344">
+        <v>1492</v>
+      </c>
+      <c r="E344">
+        <v>36</v>
+      </c>
+      <c r="F344">
+        <v>1384</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>535500</v>
+      </c>
+      <c r="C345">
+        <v>35</v>
+      </c>
+      <c r="D345">
+        <v>1496</v>
+      </c>
+      <c r="E345">
+        <v>36</v>
+      </c>
+      <c r="F345">
+        <v>1388</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>537000</v>
+      </c>
+      <c r="C346">
+        <v>35</v>
+      </c>
+      <c r="D346">
+        <v>1500</v>
+      </c>
+      <c r="E346">
+        <v>36</v>
+      </c>
+      <c r="F346">
+        <v>1392</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>538500</v>
+      </c>
+      <c r="C347">
+        <v>35</v>
+      </c>
+      <c r="D347">
+        <v>1504</v>
+      </c>
+      <c r="E347">
+        <v>36</v>
+      </c>
+      <c r="F347">
+        <v>1396</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>540000</v>
+      </c>
+      <c r="C348">
+        <v>35</v>
+      </c>
+      <c r="D348">
+        <v>1508</v>
+      </c>
+      <c r="E348">
+        <v>36</v>
+      </c>
+      <c r="F348">
+        <v>1400</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>541500</v>
+      </c>
+      <c r="C349">
+        <v>35</v>
+      </c>
+      <c r="D349">
+        <v>1512</v>
+      </c>
+      <c r="E349">
+        <v>36</v>
+      </c>
+      <c r="F349">
+        <v>1404</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>543000</v>
+      </c>
+      <c r="C350">
+        <v>35</v>
+      </c>
+      <c r="D350">
+        <v>1516</v>
+      </c>
+      <c r="E350">
+        <v>36</v>
+      </c>
+      <c r="F350">
+        <v>1408</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>544500</v>
+      </c>
+      <c r="C351">
+        <v>35</v>
+      </c>
+      <c r="D351">
+        <v>1520</v>
+      </c>
+      <c r="E351">
+        <v>36</v>
+      </c>
+      <c r="F351">
+        <v>1412</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>546000</v>
+      </c>
+      <c r="C352">
+        <v>35</v>
+      </c>
+      <c r="D352">
+        <v>1524</v>
+      </c>
+      <c r="E352">
+        <v>36</v>
+      </c>
+      <c r="F352">
+        <v>1416</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>547500</v>
+      </c>
+      <c r="C353">
+        <v>35</v>
+      </c>
+      <c r="D353">
+        <v>1528</v>
+      </c>
+      <c r="E353">
+        <v>36</v>
+      </c>
+      <c r="F353">
+        <v>1420</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>549000</v>
+      </c>
+      <c r="C354">
+        <v>35</v>
+      </c>
+      <c r="D354">
+        <v>1532</v>
+      </c>
+      <c r="E354">
+        <v>36</v>
+      </c>
+      <c r="F354">
+        <v>1424</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>550500</v>
+      </c>
+      <c r="C355">
+        <v>35</v>
+      </c>
+      <c r="D355">
+        <v>1536</v>
+      </c>
+      <c r="E355">
+        <v>36</v>
+      </c>
+      <c r="F355">
+        <v>1428</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03792397-FEA6-45D8-8008-0018B86FF04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3273820F-EA3D-41BE-9F61-348E9EAA592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H355"/>
+  <dimension ref="A1:H388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B345" sqref="B345"/>
+      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D385" sqref="D385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9682,6 +9682,864 @@
         <v>0</v>
       </c>
     </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>552000</v>
+      </c>
+      <c r="C356">
+        <v>35</v>
+      </c>
+      <c r="D356">
+        <v>1540</v>
+      </c>
+      <c r="E356">
+        <v>36</v>
+      </c>
+      <c r="F356">
+        <v>1432</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>553500</v>
+      </c>
+      <c r="C357">
+        <v>35</v>
+      </c>
+      <c r="D357">
+        <v>1544</v>
+      </c>
+      <c r="E357">
+        <v>36</v>
+      </c>
+      <c r="F357">
+        <v>1436</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>555000</v>
+      </c>
+      <c r="C358">
+        <v>35</v>
+      </c>
+      <c r="D358">
+        <v>1548</v>
+      </c>
+      <c r="E358">
+        <v>36</v>
+      </c>
+      <c r="F358">
+        <v>1440</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>556500</v>
+      </c>
+      <c r="C359">
+        <v>35</v>
+      </c>
+      <c r="D359">
+        <v>1552</v>
+      </c>
+      <c r="E359">
+        <v>36</v>
+      </c>
+      <c r="F359">
+        <v>1444</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>558000</v>
+      </c>
+      <c r="C360">
+        <v>35</v>
+      </c>
+      <c r="D360">
+        <v>1556</v>
+      </c>
+      <c r="E360">
+        <v>36</v>
+      </c>
+      <c r="F360">
+        <v>1448</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>559500</v>
+      </c>
+      <c r="C361">
+        <v>35</v>
+      </c>
+      <c r="D361">
+        <v>1560</v>
+      </c>
+      <c r="E361">
+        <v>36</v>
+      </c>
+      <c r="F361">
+        <v>1452</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>561000</v>
+      </c>
+      <c r="C362">
+        <v>35</v>
+      </c>
+      <c r="D362">
+        <v>1564</v>
+      </c>
+      <c r="E362">
+        <v>36</v>
+      </c>
+      <c r="F362">
+        <v>1456</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>562500</v>
+      </c>
+      <c r="C363">
+        <v>35</v>
+      </c>
+      <c r="D363">
+        <v>1568</v>
+      </c>
+      <c r="E363">
+        <v>36</v>
+      </c>
+      <c r="F363">
+        <v>1460</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>564000</v>
+      </c>
+      <c r="C364">
+        <v>35</v>
+      </c>
+      <c r="D364">
+        <v>1572</v>
+      </c>
+      <c r="E364">
+        <v>36</v>
+      </c>
+      <c r="F364">
+        <v>1464</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>565500</v>
+      </c>
+      <c r="C365">
+        <v>35</v>
+      </c>
+      <c r="D365">
+        <v>1576</v>
+      </c>
+      <c r="E365">
+        <v>36</v>
+      </c>
+      <c r="F365">
+        <v>1468</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>567000</v>
+      </c>
+      <c r="C366">
+        <v>35</v>
+      </c>
+      <c r="D366">
+        <v>1580</v>
+      </c>
+      <c r="E366">
+        <v>36</v>
+      </c>
+      <c r="F366">
+        <v>1472</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>568500</v>
+      </c>
+      <c r="C367">
+        <v>35</v>
+      </c>
+      <c r="D367">
+        <v>1584</v>
+      </c>
+      <c r="E367">
+        <v>36</v>
+      </c>
+      <c r="F367">
+        <v>1476</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>570000</v>
+      </c>
+      <c r="C368">
+        <v>35</v>
+      </c>
+      <c r="D368">
+        <v>1588</v>
+      </c>
+      <c r="E368">
+        <v>36</v>
+      </c>
+      <c r="F368">
+        <v>1480</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>571500</v>
+      </c>
+      <c r="C369">
+        <v>35</v>
+      </c>
+      <c r="D369">
+        <v>1592</v>
+      </c>
+      <c r="E369">
+        <v>36</v>
+      </c>
+      <c r="F369">
+        <v>1484</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>573000</v>
+      </c>
+      <c r="C370">
+        <v>35</v>
+      </c>
+      <c r="D370">
+        <v>1596</v>
+      </c>
+      <c r="E370">
+        <v>36</v>
+      </c>
+      <c r="F370">
+        <v>1488</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>574500</v>
+      </c>
+      <c r="C371">
+        <v>35</v>
+      </c>
+      <c r="D371">
+        <v>1600</v>
+      </c>
+      <c r="E371">
+        <v>36</v>
+      </c>
+      <c r="F371">
+        <v>1492</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>576000</v>
+      </c>
+      <c r="C372">
+        <v>35</v>
+      </c>
+      <c r="D372">
+        <v>1604</v>
+      </c>
+      <c r="E372">
+        <v>36</v>
+      </c>
+      <c r="F372">
+        <v>1496</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>577500</v>
+      </c>
+      <c r="C373">
+        <v>35</v>
+      </c>
+      <c r="D373">
+        <v>1608</v>
+      </c>
+      <c r="E373">
+        <v>36</v>
+      </c>
+      <c r="F373">
+        <v>1500</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>579000</v>
+      </c>
+      <c r="C374">
+        <v>35</v>
+      </c>
+      <c r="D374">
+        <v>1612</v>
+      </c>
+      <c r="E374">
+        <v>36</v>
+      </c>
+      <c r="F374">
+        <v>1504</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>580500</v>
+      </c>
+      <c r="C375">
+        <v>35</v>
+      </c>
+      <c r="D375">
+        <v>1616</v>
+      </c>
+      <c r="E375">
+        <v>36</v>
+      </c>
+      <c r="F375">
+        <v>1508</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>582000</v>
+      </c>
+      <c r="C376">
+        <v>35</v>
+      </c>
+      <c r="D376">
+        <v>1620</v>
+      </c>
+      <c r="E376">
+        <v>36</v>
+      </c>
+      <c r="F376">
+        <v>1512</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>583500</v>
+      </c>
+      <c r="C377">
+        <v>35</v>
+      </c>
+      <c r="D377">
+        <v>1624</v>
+      </c>
+      <c r="E377">
+        <v>36</v>
+      </c>
+      <c r="F377">
+        <v>1516</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>585000</v>
+      </c>
+      <c r="C378">
+        <v>35</v>
+      </c>
+      <c r="D378">
+        <v>1628</v>
+      </c>
+      <c r="E378">
+        <v>36</v>
+      </c>
+      <c r="F378">
+        <v>1520</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>586500</v>
+      </c>
+      <c r="C379">
+        <v>35</v>
+      </c>
+      <c r="D379">
+        <v>1632</v>
+      </c>
+      <c r="E379">
+        <v>36</v>
+      </c>
+      <c r="F379">
+        <v>1524</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>588000</v>
+      </c>
+      <c r="C380">
+        <v>35</v>
+      </c>
+      <c r="D380">
+        <v>1636</v>
+      </c>
+      <c r="E380">
+        <v>36</v>
+      </c>
+      <c r="F380">
+        <v>1528</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>589500</v>
+      </c>
+      <c r="C381">
+        <v>35</v>
+      </c>
+      <c r="D381">
+        <v>1640</v>
+      </c>
+      <c r="E381">
+        <v>36</v>
+      </c>
+      <c r="F381">
+        <v>1532</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>591000</v>
+      </c>
+      <c r="C382">
+        <v>35</v>
+      </c>
+      <c r="D382">
+        <v>1644</v>
+      </c>
+      <c r="E382">
+        <v>36</v>
+      </c>
+      <c r="F382">
+        <v>1536</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>592500</v>
+      </c>
+      <c r="C383">
+        <v>35</v>
+      </c>
+      <c r="D383">
+        <v>1648</v>
+      </c>
+      <c r="E383">
+        <v>36</v>
+      </c>
+      <c r="F383">
+        <v>1540</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+      <c r="H383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>594000</v>
+      </c>
+      <c r="C384">
+        <v>35</v>
+      </c>
+      <c r="D384">
+        <v>1652</v>
+      </c>
+      <c r="E384">
+        <v>36</v>
+      </c>
+      <c r="F384">
+        <v>1544</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>595500</v>
+      </c>
+      <c r="C385">
+        <v>35</v>
+      </c>
+      <c r="D385">
+        <v>1656</v>
+      </c>
+      <c r="E385">
+        <v>36</v>
+      </c>
+      <c r="F385">
+        <v>1548</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>597000</v>
+      </c>
+      <c r="C386">
+        <v>35</v>
+      </c>
+      <c r="D386">
+        <v>1660</v>
+      </c>
+      <c r="E386">
+        <v>36</v>
+      </c>
+      <c r="F386">
+        <v>1552</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>598500</v>
+      </c>
+      <c r="C387">
+        <v>35</v>
+      </c>
+      <c r="D387">
+        <v>1664</v>
+      </c>
+      <c r="E387">
+        <v>36</v>
+      </c>
+      <c r="F387">
+        <v>1556</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>600000</v>
+      </c>
+      <c r="C388">
+        <v>35</v>
+      </c>
+      <c r="D388">
+        <v>1668</v>
+      </c>
+      <c r="E388">
+        <v>36</v>
+      </c>
+      <c r="F388">
+        <v>1560</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+      <c r="H388">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3273820F-EA3D-41BE-9F61-348E9EAA592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0F089A-3E20-4AF8-B8CE-D1123E71BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H388"/>
+  <dimension ref="A1:H455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D385" sqref="D385"/>
+      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D448" sqref="D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10540,6 +10540,1748 @@
         <v>0</v>
       </c>
     </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>601500</v>
+      </c>
+      <c r="C389">
+        <v>35</v>
+      </c>
+      <c r="D389">
+        <v>1672</v>
+      </c>
+      <c r="E389">
+        <v>36</v>
+      </c>
+      <c r="F389">
+        <v>1564</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>603000</v>
+      </c>
+      <c r="C390">
+        <v>35</v>
+      </c>
+      <c r="D390">
+        <v>1676</v>
+      </c>
+      <c r="E390">
+        <v>36</v>
+      </c>
+      <c r="F390">
+        <v>1568</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>604500</v>
+      </c>
+      <c r="C391">
+        <v>35</v>
+      </c>
+      <c r="D391">
+        <v>1680</v>
+      </c>
+      <c r="E391">
+        <v>36</v>
+      </c>
+      <c r="F391">
+        <v>1572</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>606000</v>
+      </c>
+      <c r="C392">
+        <v>35</v>
+      </c>
+      <c r="D392">
+        <v>1684</v>
+      </c>
+      <c r="E392">
+        <v>36</v>
+      </c>
+      <c r="F392">
+        <v>1576</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>607500</v>
+      </c>
+      <c r="C393">
+        <v>35</v>
+      </c>
+      <c r="D393">
+        <v>1688</v>
+      </c>
+      <c r="E393">
+        <v>36</v>
+      </c>
+      <c r="F393">
+        <v>1580</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>609000</v>
+      </c>
+      <c r="C394">
+        <v>35</v>
+      </c>
+      <c r="D394">
+        <v>1692</v>
+      </c>
+      <c r="E394">
+        <v>36</v>
+      </c>
+      <c r="F394">
+        <v>1584</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+      <c r="H394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>610500</v>
+      </c>
+      <c r="C395">
+        <v>35</v>
+      </c>
+      <c r="D395">
+        <v>1696</v>
+      </c>
+      <c r="E395">
+        <v>36</v>
+      </c>
+      <c r="F395">
+        <v>1588</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+      <c r="H395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>612000</v>
+      </c>
+      <c r="C396">
+        <v>35</v>
+      </c>
+      <c r="D396">
+        <v>1700</v>
+      </c>
+      <c r="E396">
+        <v>36</v>
+      </c>
+      <c r="F396">
+        <v>1592</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+      <c r="H396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>613500</v>
+      </c>
+      <c r="C397">
+        <v>35</v>
+      </c>
+      <c r="D397">
+        <v>1704</v>
+      </c>
+      <c r="E397">
+        <v>36</v>
+      </c>
+      <c r="F397">
+        <v>1596</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
+      <c r="H397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>615000</v>
+      </c>
+      <c r="C398">
+        <v>35</v>
+      </c>
+      <c r="D398">
+        <v>1708</v>
+      </c>
+      <c r="E398">
+        <v>36</v>
+      </c>
+      <c r="F398">
+        <v>1600</v>
+      </c>
+      <c r="G398">
+        <v>0</v>
+      </c>
+      <c r="H398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>616500</v>
+      </c>
+      <c r="C399">
+        <v>35</v>
+      </c>
+      <c r="D399">
+        <v>1712</v>
+      </c>
+      <c r="E399">
+        <v>36</v>
+      </c>
+      <c r="F399">
+        <v>1604</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+      <c r="H399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>618000</v>
+      </c>
+      <c r="C400">
+        <v>35</v>
+      </c>
+      <c r="D400">
+        <v>1716</v>
+      </c>
+      <c r="E400">
+        <v>36</v>
+      </c>
+      <c r="F400">
+        <v>1608</v>
+      </c>
+      <c r="G400">
+        <v>0</v>
+      </c>
+      <c r="H400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>619500</v>
+      </c>
+      <c r="C401">
+        <v>35</v>
+      </c>
+      <c r="D401">
+        <v>1720</v>
+      </c>
+      <c r="E401">
+        <v>36</v>
+      </c>
+      <c r="F401">
+        <v>1612</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+      <c r="H401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>621000</v>
+      </c>
+      <c r="C402">
+        <v>35</v>
+      </c>
+      <c r="D402">
+        <v>1724</v>
+      </c>
+      <c r="E402">
+        <v>36</v>
+      </c>
+      <c r="F402">
+        <v>1616</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+      <c r="H402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>622500</v>
+      </c>
+      <c r="C403">
+        <v>35</v>
+      </c>
+      <c r="D403">
+        <v>1728</v>
+      </c>
+      <c r="E403">
+        <v>36</v>
+      </c>
+      <c r="F403">
+        <v>1620</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+      <c r="H403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>624000</v>
+      </c>
+      <c r="C404">
+        <v>35</v>
+      </c>
+      <c r="D404">
+        <v>1732</v>
+      </c>
+      <c r="E404">
+        <v>36</v>
+      </c>
+      <c r="F404">
+        <v>1624</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>625500</v>
+      </c>
+      <c r="C405">
+        <v>35</v>
+      </c>
+      <c r="D405">
+        <v>1736</v>
+      </c>
+      <c r="E405">
+        <v>36</v>
+      </c>
+      <c r="F405">
+        <v>1628</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
+      </c>
+      <c r="H405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>627000</v>
+      </c>
+      <c r="C406">
+        <v>35</v>
+      </c>
+      <c r="D406">
+        <v>1740</v>
+      </c>
+      <c r="E406">
+        <v>36</v>
+      </c>
+      <c r="F406">
+        <v>1632</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+      <c r="H406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>628500</v>
+      </c>
+      <c r="C407">
+        <v>35</v>
+      </c>
+      <c r="D407">
+        <v>1744</v>
+      </c>
+      <c r="E407">
+        <v>36</v>
+      </c>
+      <c r="F407">
+        <v>1636</v>
+      </c>
+      <c r="G407">
+        <v>0</v>
+      </c>
+      <c r="H407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>630000</v>
+      </c>
+      <c r="C408">
+        <v>35</v>
+      </c>
+      <c r="D408">
+        <v>1748</v>
+      </c>
+      <c r="E408">
+        <v>36</v>
+      </c>
+      <c r="F408">
+        <v>1640</v>
+      </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
+      <c r="H408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>631500</v>
+      </c>
+      <c r="C409">
+        <v>35</v>
+      </c>
+      <c r="D409">
+        <v>1752</v>
+      </c>
+      <c r="E409">
+        <v>36</v>
+      </c>
+      <c r="F409">
+        <v>1644</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+      <c r="H409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>633000</v>
+      </c>
+      <c r="C410">
+        <v>35</v>
+      </c>
+      <c r="D410">
+        <v>1756</v>
+      </c>
+      <c r="E410">
+        <v>36</v>
+      </c>
+      <c r="F410">
+        <v>1648</v>
+      </c>
+      <c r="G410">
+        <v>0</v>
+      </c>
+      <c r="H410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>634500</v>
+      </c>
+      <c r="C411">
+        <v>35</v>
+      </c>
+      <c r="D411">
+        <v>1760</v>
+      </c>
+      <c r="E411">
+        <v>36</v>
+      </c>
+      <c r="F411">
+        <v>1652</v>
+      </c>
+      <c r="G411">
+        <v>0</v>
+      </c>
+      <c r="H411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>636000</v>
+      </c>
+      <c r="C412">
+        <v>35</v>
+      </c>
+      <c r="D412">
+        <v>1764</v>
+      </c>
+      <c r="E412">
+        <v>36</v>
+      </c>
+      <c r="F412">
+        <v>1656</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+      <c r="H412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>637500</v>
+      </c>
+      <c r="C413">
+        <v>35</v>
+      </c>
+      <c r="D413">
+        <v>1768</v>
+      </c>
+      <c r="E413">
+        <v>36</v>
+      </c>
+      <c r="F413">
+        <v>1660</v>
+      </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
+      <c r="H413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>639000</v>
+      </c>
+      <c r="C414">
+        <v>35</v>
+      </c>
+      <c r="D414">
+        <v>1772</v>
+      </c>
+      <c r="E414">
+        <v>36</v>
+      </c>
+      <c r="F414">
+        <v>1664</v>
+      </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
+      <c r="H414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>640500</v>
+      </c>
+      <c r="C415">
+        <v>35</v>
+      </c>
+      <c r="D415">
+        <v>1776</v>
+      </c>
+      <c r="E415">
+        <v>36</v>
+      </c>
+      <c r="F415">
+        <v>1668</v>
+      </c>
+      <c r="G415">
+        <v>0</v>
+      </c>
+      <c r="H415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>642000</v>
+      </c>
+      <c r="C416">
+        <v>35</v>
+      </c>
+      <c r="D416">
+        <v>1780</v>
+      </c>
+      <c r="E416">
+        <v>36</v>
+      </c>
+      <c r="F416">
+        <v>1672</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+      <c r="H416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>643500</v>
+      </c>
+      <c r="C417">
+        <v>35</v>
+      </c>
+      <c r="D417">
+        <v>1784</v>
+      </c>
+      <c r="E417">
+        <v>36</v>
+      </c>
+      <c r="F417">
+        <v>1676</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+      <c r="H417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>645000</v>
+      </c>
+      <c r="C418">
+        <v>35</v>
+      </c>
+      <c r="D418">
+        <v>1788</v>
+      </c>
+      <c r="E418">
+        <v>36</v>
+      </c>
+      <c r="F418">
+        <v>1680</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>646500</v>
+      </c>
+      <c r="C419">
+        <v>35</v>
+      </c>
+      <c r="D419">
+        <v>1792</v>
+      </c>
+      <c r="E419">
+        <v>36</v>
+      </c>
+      <c r="F419">
+        <v>1684</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>648000</v>
+      </c>
+      <c r="C420">
+        <v>35</v>
+      </c>
+      <c r="D420">
+        <v>1796</v>
+      </c>
+      <c r="E420">
+        <v>36</v>
+      </c>
+      <c r="F420">
+        <v>1688</v>
+      </c>
+      <c r="G420">
+        <v>0</v>
+      </c>
+      <c r="H420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>649500</v>
+      </c>
+      <c r="C421">
+        <v>35</v>
+      </c>
+      <c r="D421">
+        <v>1800</v>
+      </c>
+      <c r="E421">
+        <v>36</v>
+      </c>
+      <c r="F421">
+        <v>1692</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
+      <c r="H421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>651000</v>
+      </c>
+      <c r="C422">
+        <v>35</v>
+      </c>
+      <c r="D422">
+        <v>1804</v>
+      </c>
+      <c r="E422">
+        <v>36</v>
+      </c>
+      <c r="F422">
+        <v>1696</v>
+      </c>
+      <c r="G422">
+        <v>0</v>
+      </c>
+      <c r="H422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>652500</v>
+      </c>
+      <c r="C423">
+        <v>35</v>
+      </c>
+      <c r="D423">
+        <v>1808</v>
+      </c>
+      <c r="E423">
+        <v>36</v>
+      </c>
+      <c r="F423">
+        <v>1700</v>
+      </c>
+      <c r="G423">
+        <v>0</v>
+      </c>
+      <c r="H423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>654000</v>
+      </c>
+      <c r="C424">
+        <v>35</v>
+      </c>
+      <c r="D424">
+        <v>1812</v>
+      </c>
+      <c r="E424">
+        <v>36</v>
+      </c>
+      <c r="F424">
+        <v>1704</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+      <c r="H424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>655500</v>
+      </c>
+      <c r="C425">
+        <v>35</v>
+      </c>
+      <c r="D425">
+        <v>1816</v>
+      </c>
+      <c r="E425">
+        <v>36</v>
+      </c>
+      <c r="F425">
+        <v>1708</v>
+      </c>
+      <c r="G425">
+        <v>0</v>
+      </c>
+      <c r="H425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>657000</v>
+      </c>
+      <c r="C426">
+        <v>35</v>
+      </c>
+      <c r="D426">
+        <v>1820</v>
+      </c>
+      <c r="E426">
+        <v>36</v>
+      </c>
+      <c r="F426">
+        <v>1712</v>
+      </c>
+      <c r="G426">
+        <v>0</v>
+      </c>
+      <c r="H426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>658500</v>
+      </c>
+      <c r="C427">
+        <v>35</v>
+      </c>
+      <c r="D427">
+        <v>1824</v>
+      </c>
+      <c r="E427">
+        <v>36</v>
+      </c>
+      <c r="F427">
+        <v>1716</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+      <c r="H427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>660000</v>
+      </c>
+      <c r="C428">
+        <v>35</v>
+      </c>
+      <c r="D428">
+        <v>1828</v>
+      </c>
+      <c r="E428">
+        <v>36</v>
+      </c>
+      <c r="F428">
+        <v>1720</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>661500</v>
+      </c>
+      <c r="C429">
+        <v>35</v>
+      </c>
+      <c r="D429">
+        <v>1832</v>
+      </c>
+      <c r="E429">
+        <v>36</v>
+      </c>
+      <c r="F429">
+        <v>1724</v>
+      </c>
+      <c r="G429">
+        <v>0</v>
+      </c>
+      <c r="H429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>663000</v>
+      </c>
+      <c r="C430">
+        <v>35</v>
+      </c>
+      <c r="D430">
+        <v>1836</v>
+      </c>
+      <c r="E430">
+        <v>36</v>
+      </c>
+      <c r="F430">
+        <v>1728</v>
+      </c>
+      <c r="G430">
+        <v>0</v>
+      </c>
+      <c r="H430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>664500</v>
+      </c>
+      <c r="C431">
+        <v>35</v>
+      </c>
+      <c r="D431">
+        <v>1840</v>
+      </c>
+      <c r="E431">
+        <v>36</v>
+      </c>
+      <c r="F431">
+        <v>1732</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+      <c r="H431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>666000</v>
+      </c>
+      <c r="C432">
+        <v>35</v>
+      </c>
+      <c r="D432">
+        <v>1844</v>
+      </c>
+      <c r="E432">
+        <v>36</v>
+      </c>
+      <c r="F432">
+        <v>1736</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+      <c r="H432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>667500</v>
+      </c>
+      <c r="C433">
+        <v>35</v>
+      </c>
+      <c r="D433">
+        <v>1848</v>
+      </c>
+      <c r="E433">
+        <v>36</v>
+      </c>
+      <c r="F433">
+        <v>1740</v>
+      </c>
+      <c r="G433">
+        <v>0</v>
+      </c>
+      <c r="H433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>669000</v>
+      </c>
+      <c r="C434">
+        <v>35</v>
+      </c>
+      <c r="D434">
+        <v>1852</v>
+      </c>
+      <c r="E434">
+        <v>36</v>
+      </c>
+      <c r="F434">
+        <v>1744</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+      <c r="H434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>670500</v>
+      </c>
+      <c r="C435">
+        <v>35</v>
+      </c>
+      <c r="D435">
+        <v>1856</v>
+      </c>
+      <c r="E435">
+        <v>36</v>
+      </c>
+      <c r="F435">
+        <v>1748</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+      <c r="H435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>672000</v>
+      </c>
+      <c r="C436">
+        <v>35</v>
+      </c>
+      <c r="D436">
+        <v>1860</v>
+      </c>
+      <c r="E436">
+        <v>36</v>
+      </c>
+      <c r="F436">
+        <v>1752</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+      <c r="H436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>673500</v>
+      </c>
+      <c r="C437">
+        <v>35</v>
+      </c>
+      <c r="D437">
+        <v>1864</v>
+      </c>
+      <c r="E437">
+        <v>36</v>
+      </c>
+      <c r="F437">
+        <v>1756</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
+      </c>
+      <c r="H437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>675000</v>
+      </c>
+      <c r="C438">
+        <v>35</v>
+      </c>
+      <c r="D438">
+        <v>1868</v>
+      </c>
+      <c r="E438">
+        <v>36</v>
+      </c>
+      <c r="F438">
+        <v>1760</v>
+      </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+      <c r="H438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>676500</v>
+      </c>
+      <c r="C439">
+        <v>35</v>
+      </c>
+      <c r="D439">
+        <v>1872</v>
+      </c>
+      <c r="E439">
+        <v>36</v>
+      </c>
+      <c r="F439">
+        <v>1764</v>
+      </c>
+      <c r="G439">
+        <v>0</v>
+      </c>
+      <c r="H439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>678000</v>
+      </c>
+      <c r="C440">
+        <v>35</v>
+      </c>
+      <c r="D440">
+        <v>1876</v>
+      </c>
+      <c r="E440">
+        <v>36</v>
+      </c>
+      <c r="F440">
+        <v>1768</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+      <c r="H440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>679500</v>
+      </c>
+      <c r="C441">
+        <v>35</v>
+      </c>
+      <c r="D441">
+        <v>1880</v>
+      </c>
+      <c r="E441">
+        <v>36</v>
+      </c>
+      <c r="F441">
+        <v>1772</v>
+      </c>
+      <c r="G441">
+        <v>0</v>
+      </c>
+      <c r="H441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>681000</v>
+      </c>
+      <c r="C442">
+        <v>35</v>
+      </c>
+      <c r="D442">
+        <v>1884</v>
+      </c>
+      <c r="E442">
+        <v>36</v>
+      </c>
+      <c r="F442">
+        <v>1776</v>
+      </c>
+      <c r="G442">
+        <v>0</v>
+      </c>
+      <c r="H442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>682500</v>
+      </c>
+      <c r="C443">
+        <v>35</v>
+      </c>
+      <c r="D443">
+        <v>1888</v>
+      </c>
+      <c r="E443">
+        <v>36</v>
+      </c>
+      <c r="F443">
+        <v>1780</v>
+      </c>
+      <c r="G443">
+        <v>0</v>
+      </c>
+      <c r="H443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>684000</v>
+      </c>
+      <c r="C444">
+        <v>35</v>
+      </c>
+      <c r="D444">
+        <v>1892</v>
+      </c>
+      <c r="E444">
+        <v>36</v>
+      </c>
+      <c r="F444">
+        <v>1784</v>
+      </c>
+      <c r="G444">
+        <v>0</v>
+      </c>
+      <c r="H444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>685500</v>
+      </c>
+      <c r="C445">
+        <v>35</v>
+      </c>
+      <c r="D445">
+        <v>1896</v>
+      </c>
+      <c r="E445">
+        <v>36</v>
+      </c>
+      <c r="F445">
+        <v>1788</v>
+      </c>
+      <c r="G445">
+        <v>0</v>
+      </c>
+      <c r="H445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>687000</v>
+      </c>
+      <c r="C446">
+        <v>35</v>
+      </c>
+      <c r="D446">
+        <v>1900</v>
+      </c>
+      <c r="E446">
+        <v>36</v>
+      </c>
+      <c r="F446">
+        <v>1792</v>
+      </c>
+      <c r="G446">
+        <v>0</v>
+      </c>
+      <c r="H446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>688500</v>
+      </c>
+      <c r="C447">
+        <v>35</v>
+      </c>
+      <c r="D447">
+        <v>1904</v>
+      </c>
+      <c r="E447">
+        <v>36</v>
+      </c>
+      <c r="F447">
+        <v>1796</v>
+      </c>
+      <c r="G447">
+        <v>0</v>
+      </c>
+      <c r="H447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>690000</v>
+      </c>
+      <c r="C448">
+        <v>35</v>
+      </c>
+      <c r="D448">
+        <v>1908</v>
+      </c>
+      <c r="E448">
+        <v>36</v>
+      </c>
+      <c r="F448">
+        <v>1800</v>
+      </c>
+      <c r="G448">
+        <v>0</v>
+      </c>
+      <c r="H448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>691500</v>
+      </c>
+      <c r="C449">
+        <v>35</v>
+      </c>
+      <c r="D449">
+        <v>1912</v>
+      </c>
+      <c r="E449">
+        <v>36</v>
+      </c>
+      <c r="F449">
+        <v>1804</v>
+      </c>
+      <c r="G449">
+        <v>0</v>
+      </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>693000</v>
+      </c>
+      <c r="C450">
+        <v>35</v>
+      </c>
+      <c r="D450">
+        <v>1916</v>
+      </c>
+      <c r="E450">
+        <v>36</v>
+      </c>
+      <c r="F450">
+        <v>1808</v>
+      </c>
+      <c r="G450">
+        <v>0</v>
+      </c>
+      <c r="H450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>694500</v>
+      </c>
+      <c r="C451">
+        <v>35</v>
+      </c>
+      <c r="D451">
+        <v>1920</v>
+      </c>
+      <c r="E451">
+        <v>36</v>
+      </c>
+      <c r="F451">
+        <v>1812</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+      <c r="H451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>696000</v>
+      </c>
+      <c r="C452">
+        <v>35</v>
+      </c>
+      <c r="D452">
+        <v>1924</v>
+      </c>
+      <c r="E452">
+        <v>36</v>
+      </c>
+      <c r="F452">
+        <v>1816</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>697500</v>
+      </c>
+      <c r="C453">
+        <v>35</v>
+      </c>
+      <c r="D453">
+        <v>1928</v>
+      </c>
+      <c r="E453">
+        <v>36</v>
+      </c>
+      <c r="F453">
+        <v>1820</v>
+      </c>
+      <c r="G453">
+        <v>0</v>
+      </c>
+      <c r="H453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>699000</v>
+      </c>
+      <c r="C454">
+        <v>35</v>
+      </c>
+      <c r="D454">
+        <v>1932</v>
+      </c>
+      <c r="E454">
+        <v>36</v>
+      </c>
+      <c r="F454">
+        <v>1824</v>
+      </c>
+      <c r="G454">
+        <v>0</v>
+      </c>
+      <c r="H454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>700500</v>
+      </c>
+      <c r="C455">
+        <v>35</v>
+      </c>
+      <c r="D455">
+        <v>1936</v>
+      </c>
+      <c r="E455">
+        <v>36</v>
+      </c>
+      <c r="F455">
+        <v>1828</v>
+      </c>
+      <c r="G455">
+        <v>0</v>
+      </c>
+      <c r="H455">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0F089A-3E20-4AF8-B8CE-D1123E71BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813079C1-0445-4A37-8FA6-810B68EB20A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H455"/>
+  <dimension ref="A1:H522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D448" sqref="D448"/>
+      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B513" sqref="B513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12282,6 +12282,1748 @@
         <v>0</v>
       </c>
     </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>702000</v>
+      </c>
+      <c r="C456">
+        <v>35</v>
+      </c>
+      <c r="D456">
+        <v>1940</v>
+      </c>
+      <c r="E456">
+        <v>36</v>
+      </c>
+      <c r="F456">
+        <v>1832</v>
+      </c>
+      <c r="G456">
+        <v>0</v>
+      </c>
+      <c r="H456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>703500</v>
+      </c>
+      <c r="C457">
+        <v>35</v>
+      </c>
+      <c r="D457">
+        <v>1944</v>
+      </c>
+      <c r="E457">
+        <v>36</v>
+      </c>
+      <c r="F457">
+        <v>1836</v>
+      </c>
+      <c r="G457">
+        <v>0</v>
+      </c>
+      <c r="H457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>705000</v>
+      </c>
+      <c r="C458">
+        <v>35</v>
+      </c>
+      <c r="D458">
+        <v>1948</v>
+      </c>
+      <c r="E458">
+        <v>36</v>
+      </c>
+      <c r="F458">
+        <v>1840</v>
+      </c>
+      <c r="G458">
+        <v>0</v>
+      </c>
+      <c r="H458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>706500</v>
+      </c>
+      <c r="C459">
+        <v>35</v>
+      </c>
+      <c r="D459">
+        <v>1952</v>
+      </c>
+      <c r="E459">
+        <v>36</v>
+      </c>
+      <c r="F459">
+        <v>1844</v>
+      </c>
+      <c r="G459">
+        <v>0</v>
+      </c>
+      <c r="H459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>708000</v>
+      </c>
+      <c r="C460">
+        <v>35</v>
+      </c>
+      <c r="D460">
+        <v>1956</v>
+      </c>
+      <c r="E460">
+        <v>36</v>
+      </c>
+      <c r="F460">
+        <v>1848</v>
+      </c>
+      <c r="G460">
+        <v>0</v>
+      </c>
+      <c r="H460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>709500</v>
+      </c>
+      <c r="C461">
+        <v>35</v>
+      </c>
+      <c r="D461">
+        <v>1960</v>
+      </c>
+      <c r="E461">
+        <v>36</v>
+      </c>
+      <c r="F461">
+        <v>1852</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+      <c r="H461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>711000</v>
+      </c>
+      <c r="C462">
+        <v>35</v>
+      </c>
+      <c r="D462">
+        <v>1964</v>
+      </c>
+      <c r="E462">
+        <v>36</v>
+      </c>
+      <c r="F462">
+        <v>1856</v>
+      </c>
+      <c r="G462">
+        <v>0</v>
+      </c>
+      <c r="H462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>712500</v>
+      </c>
+      <c r="C463">
+        <v>35</v>
+      </c>
+      <c r="D463">
+        <v>1968</v>
+      </c>
+      <c r="E463">
+        <v>36</v>
+      </c>
+      <c r="F463">
+        <v>1860</v>
+      </c>
+      <c r="G463">
+        <v>0</v>
+      </c>
+      <c r="H463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>714000</v>
+      </c>
+      <c r="C464">
+        <v>35</v>
+      </c>
+      <c r="D464">
+        <v>1972</v>
+      </c>
+      <c r="E464">
+        <v>36</v>
+      </c>
+      <c r="F464">
+        <v>1864</v>
+      </c>
+      <c r="G464">
+        <v>0</v>
+      </c>
+      <c r="H464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>715500</v>
+      </c>
+      <c r="C465">
+        <v>35</v>
+      </c>
+      <c r="D465">
+        <v>1976</v>
+      </c>
+      <c r="E465">
+        <v>36</v>
+      </c>
+      <c r="F465">
+        <v>1868</v>
+      </c>
+      <c r="G465">
+        <v>0</v>
+      </c>
+      <c r="H465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>717000</v>
+      </c>
+      <c r="C466">
+        <v>35</v>
+      </c>
+      <c r="D466">
+        <v>1980</v>
+      </c>
+      <c r="E466">
+        <v>36</v>
+      </c>
+      <c r="F466">
+        <v>1872</v>
+      </c>
+      <c r="G466">
+        <v>0</v>
+      </c>
+      <c r="H466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>718500</v>
+      </c>
+      <c r="C467">
+        <v>35</v>
+      </c>
+      <c r="D467">
+        <v>1984</v>
+      </c>
+      <c r="E467">
+        <v>36</v>
+      </c>
+      <c r="F467">
+        <v>1876</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+      <c r="H467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>720000</v>
+      </c>
+      <c r="C468">
+        <v>35</v>
+      </c>
+      <c r="D468">
+        <v>1988</v>
+      </c>
+      <c r="E468">
+        <v>36</v>
+      </c>
+      <c r="F468">
+        <v>1880</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+      <c r="H468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>721500</v>
+      </c>
+      <c r="C469">
+        <v>35</v>
+      </c>
+      <c r="D469">
+        <v>1992</v>
+      </c>
+      <c r="E469">
+        <v>36</v>
+      </c>
+      <c r="F469">
+        <v>1884</v>
+      </c>
+      <c r="G469">
+        <v>0</v>
+      </c>
+      <c r="H469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>723000</v>
+      </c>
+      <c r="C470">
+        <v>35</v>
+      </c>
+      <c r="D470">
+        <v>1996</v>
+      </c>
+      <c r="E470">
+        <v>36</v>
+      </c>
+      <c r="F470">
+        <v>1888</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+      <c r="H470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>724500</v>
+      </c>
+      <c r="C471">
+        <v>35</v>
+      </c>
+      <c r="D471">
+        <v>2000</v>
+      </c>
+      <c r="E471">
+        <v>36</v>
+      </c>
+      <c r="F471">
+        <v>1892</v>
+      </c>
+      <c r="G471">
+        <v>0</v>
+      </c>
+      <c r="H471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>726000</v>
+      </c>
+      <c r="C472">
+        <v>35</v>
+      </c>
+      <c r="D472">
+        <v>2004</v>
+      </c>
+      <c r="E472">
+        <v>36</v>
+      </c>
+      <c r="F472">
+        <v>1896</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
+      <c r="H472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>727500</v>
+      </c>
+      <c r="C473">
+        <v>35</v>
+      </c>
+      <c r="D473">
+        <v>2008</v>
+      </c>
+      <c r="E473">
+        <v>36</v>
+      </c>
+      <c r="F473">
+        <v>1900</v>
+      </c>
+      <c r="G473">
+        <v>0</v>
+      </c>
+      <c r="H473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>729000</v>
+      </c>
+      <c r="C474">
+        <v>35</v>
+      </c>
+      <c r="D474">
+        <v>2012</v>
+      </c>
+      <c r="E474">
+        <v>36</v>
+      </c>
+      <c r="F474">
+        <v>1904</v>
+      </c>
+      <c r="G474">
+        <v>0</v>
+      </c>
+      <c r="H474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>730500</v>
+      </c>
+      <c r="C475">
+        <v>35</v>
+      </c>
+      <c r="D475">
+        <v>2016</v>
+      </c>
+      <c r="E475">
+        <v>36</v>
+      </c>
+      <c r="F475">
+        <v>1908</v>
+      </c>
+      <c r="G475">
+        <v>0</v>
+      </c>
+      <c r="H475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>732000</v>
+      </c>
+      <c r="C476">
+        <v>35</v>
+      </c>
+      <c r="D476">
+        <v>2020</v>
+      </c>
+      <c r="E476">
+        <v>36</v>
+      </c>
+      <c r="F476">
+        <v>1912</v>
+      </c>
+      <c r="G476">
+        <v>0</v>
+      </c>
+      <c r="H476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>733500</v>
+      </c>
+      <c r="C477">
+        <v>35</v>
+      </c>
+      <c r="D477">
+        <v>2024</v>
+      </c>
+      <c r="E477">
+        <v>36</v>
+      </c>
+      <c r="F477">
+        <v>1916</v>
+      </c>
+      <c r="G477">
+        <v>0</v>
+      </c>
+      <c r="H477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>735000</v>
+      </c>
+      <c r="C478">
+        <v>35</v>
+      </c>
+      <c r="D478">
+        <v>2028</v>
+      </c>
+      <c r="E478">
+        <v>36</v>
+      </c>
+      <c r="F478">
+        <v>1920</v>
+      </c>
+      <c r="G478">
+        <v>0</v>
+      </c>
+      <c r="H478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>736500</v>
+      </c>
+      <c r="C479">
+        <v>35</v>
+      </c>
+      <c r="D479">
+        <v>2032</v>
+      </c>
+      <c r="E479">
+        <v>36</v>
+      </c>
+      <c r="F479">
+        <v>1924</v>
+      </c>
+      <c r="G479">
+        <v>0</v>
+      </c>
+      <c r="H479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>738000</v>
+      </c>
+      <c r="C480">
+        <v>35</v>
+      </c>
+      <c r="D480">
+        <v>2036</v>
+      </c>
+      <c r="E480">
+        <v>36</v>
+      </c>
+      <c r="F480">
+        <v>1928</v>
+      </c>
+      <c r="G480">
+        <v>0</v>
+      </c>
+      <c r="H480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>739500</v>
+      </c>
+      <c r="C481">
+        <v>35</v>
+      </c>
+      <c r="D481">
+        <v>2040</v>
+      </c>
+      <c r="E481">
+        <v>36</v>
+      </c>
+      <c r="F481">
+        <v>1932</v>
+      </c>
+      <c r="G481">
+        <v>0</v>
+      </c>
+      <c r="H481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>741000</v>
+      </c>
+      <c r="C482">
+        <v>35</v>
+      </c>
+      <c r="D482">
+        <v>2044</v>
+      </c>
+      <c r="E482">
+        <v>36</v>
+      </c>
+      <c r="F482">
+        <v>1936</v>
+      </c>
+      <c r="G482">
+        <v>0</v>
+      </c>
+      <c r="H482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>742500</v>
+      </c>
+      <c r="C483">
+        <v>35</v>
+      </c>
+      <c r="D483">
+        <v>2048</v>
+      </c>
+      <c r="E483">
+        <v>36</v>
+      </c>
+      <c r="F483">
+        <v>1940</v>
+      </c>
+      <c r="G483">
+        <v>0</v>
+      </c>
+      <c r="H483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>744000</v>
+      </c>
+      <c r="C484">
+        <v>35</v>
+      </c>
+      <c r="D484">
+        <v>2052</v>
+      </c>
+      <c r="E484">
+        <v>36</v>
+      </c>
+      <c r="F484">
+        <v>1944</v>
+      </c>
+      <c r="G484">
+        <v>0</v>
+      </c>
+      <c r="H484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>745500</v>
+      </c>
+      <c r="C485">
+        <v>35</v>
+      </c>
+      <c r="D485">
+        <v>2056</v>
+      </c>
+      <c r="E485">
+        <v>36</v>
+      </c>
+      <c r="F485">
+        <v>1948</v>
+      </c>
+      <c r="G485">
+        <v>0</v>
+      </c>
+      <c r="H485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>747000</v>
+      </c>
+      <c r="C486">
+        <v>35</v>
+      </c>
+      <c r="D486">
+        <v>2060</v>
+      </c>
+      <c r="E486">
+        <v>36</v>
+      </c>
+      <c r="F486">
+        <v>1952</v>
+      </c>
+      <c r="G486">
+        <v>0</v>
+      </c>
+      <c r="H486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>748500</v>
+      </c>
+      <c r="C487">
+        <v>35</v>
+      </c>
+      <c r="D487">
+        <v>2064</v>
+      </c>
+      <c r="E487">
+        <v>36</v>
+      </c>
+      <c r="F487">
+        <v>1956</v>
+      </c>
+      <c r="G487">
+        <v>0</v>
+      </c>
+      <c r="H487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>750000</v>
+      </c>
+      <c r="C488">
+        <v>35</v>
+      </c>
+      <c r="D488">
+        <v>2068</v>
+      </c>
+      <c r="E488">
+        <v>36</v>
+      </c>
+      <c r="F488">
+        <v>1960</v>
+      </c>
+      <c r="G488">
+        <v>0</v>
+      </c>
+      <c r="H488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>751500</v>
+      </c>
+      <c r="C489">
+        <v>35</v>
+      </c>
+      <c r="D489">
+        <v>2072</v>
+      </c>
+      <c r="E489">
+        <v>36</v>
+      </c>
+      <c r="F489">
+        <v>1964</v>
+      </c>
+      <c r="G489">
+        <v>0</v>
+      </c>
+      <c r="H489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>753000</v>
+      </c>
+      <c r="C490">
+        <v>35</v>
+      </c>
+      <c r="D490">
+        <v>2076</v>
+      </c>
+      <c r="E490">
+        <v>36</v>
+      </c>
+      <c r="F490">
+        <v>1968</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+      <c r="H490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>754500</v>
+      </c>
+      <c r="C491">
+        <v>35</v>
+      </c>
+      <c r="D491">
+        <v>2080</v>
+      </c>
+      <c r="E491">
+        <v>36</v>
+      </c>
+      <c r="F491">
+        <v>1972</v>
+      </c>
+      <c r="G491">
+        <v>0</v>
+      </c>
+      <c r="H491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>756000</v>
+      </c>
+      <c r="C492">
+        <v>35</v>
+      </c>
+      <c r="D492">
+        <v>2084</v>
+      </c>
+      <c r="E492">
+        <v>36</v>
+      </c>
+      <c r="F492">
+        <v>1976</v>
+      </c>
+      <c r="G492">
+        <v>0</v>
+      </c>
+      <c r="H492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>757500</v>
+      </c>
+      <c r="C493">
+        <v>35</v>
+      </c>
+      <c r="D493">
+        <v>2088</v>
+      </c>
+      <c r="E493">
+        <v>36</v>
+      </c>
+      <c r="F493">
+        <v>1980</v>
+      </c>
+      <c r="G493">
+        <v>0</v>
+      </c>
+      <c r="H493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>759000</v>
+      </c>
+      <c r="C494">
+        <v>35</v>
+      </c>
+      <c r="D494">
+        <v>2092</v>
+      </c>
+      <c r="E494">
+        <v>36</v>
+      </c>
+      <c r="F494">
+        <v>1984</v>
+      </c>
+      <c r="G494">
+        <v>0</v>
+      </c>
+      <c r="H494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>760500</v>
+      </c>
+      <c r="C495">
+        <v>35</v>
+      </c>
+      <c r="D495">
+        <v>2096</v>
+      </c>
+      <c r="E495">
+        <v>36</v>
+      </c>
+      <c r="F495">
+        <v>1988</v>
+      </c>
+      <c r="G495">
+        <v>0</v>
+      </c>
+      <c r="H495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>762000</v>
+      </c>
+      <c r="C496">
+        <v>35</v>
+      </c>
+      <c r="D496">
+        <v>2100</v>
+      </c>
+      <c r="E496">
+        <v>36</v>
+      </c>
+      <c r="F496">
+        <v>1992</v>
+      </c>
+      <c r="G496">
+        <v>0</v>
+      </c>
+      <c r="H496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>763500</v>
+      </c>
+      <c r="C497">
+        <v>35</v>
+      </c>
+      <c r="D497">
+        <v>2104</v>
+      </c>
+      <c r="E497">
+        <v>36</v>
+      </c>
+      <c r="F497">
+        <v>1996</v>
+      </c>
+      <c r="G497">
+        <v>0</v>
+      </c>
+      <c r="H497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>765000</v>
+      </c>
+      <c r="C498">
+        <v>35</v>
+      </c>
+      <c r="D498">
+        <v>2108</v>
+      </c>
+      <c r="E498">
+        <v>36</v>
+      </c>
+      <c r="F498">
+        <v>2000</v>
+      </c>
+      <c r="G498">
+        <v>0</v>
+      </c>
+      <c r="H498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>766500</v>
+      </c>
+      <c r="C499">
+        <v>35</v>
+      </c>
+      <c r="D499">
+        <v>2112</v>
+      </c>
+      <c r="E499">
+        <v>36</v>
+      </c>
+      <c r="F499">
+        <v>2004</v>
+      </c>
+      <c r="G499">
+        <v>0</v>
+      </c>
+      <c r="H499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>768000</v>
+      </c>
+      <c r="C500">
+        <v>35</v>
+      </c>
+      <c r="D500">
+        <v>2116</v>
+      </c>
+      <c r="E500">
+        <v>36</v>
+      </c>
+      <c r="F500">
+        <v>2008</v>
+      </c>
+      <c r="G500">
+        <v>0</v>
+      </c>
+      <c r="H500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>769500</v>
+      </c>
+      <c r="C501">
+        <v>35</v>
+      </c>
+      <c r="D501">
+        <v>2120</v>
+      </c>
+      <c r="E501">
+        <v>36</v>
+      </c>
+      <c r="F501">
+        <v>2012</v>
+      </c>
+      <c r="G501">
+        <v>0</v>
+      </c>
+      <c r="H501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>771000</v>
+      </c>
+      <c r="C502">
+        <v>35</v>
+      </c>
+      <c r="D502">
+        <v>2124</v>
+      </c>
+      <c r="E502">
+        <v>36</v>
+      </c>
+      <c r="F502">
+        <v>2016</v>
+      </c>
+      <c r="G502">
+        <v>0</v>
+      </c>
+      <c r="H502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>772500</v>
+      </c>
+      <c r="C503">
+        <v>35</v>
+      </c>
+      <c r="D503">
+        <v>2128</v>
+      </c>
+      <c r="E503">
+        <v>36</v>
+      </c>
+      <c r="F503">
+        <v>2020</v>
+      </c>
+      <c r="G503">
+        <v>0</v>
+      </c>
+      <c r="H503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>774000</v>
+      </c>
+      <c r="C504">
+        <v>35</v>
+      </c>
+      <c r="D504">
+        <v>2132</v>
+      </c>
+      <c r="E504">
+        <v>36</v>
+      </c>
+      <c r="F504">
+        <v>2024</v>
+      </c>
+      <c r="G504">
+        <v>0</v>
+      </c>
+      <c r="H504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>775500</v>
+      </c>
+      <c r="C505">
+        <v>35</v>
+      </c>
+      <c r="D505">
+        <v>2136</v>
+      </c>
+      <c r="E505">
+        <v>36</v>
+      </c>
+      <c r="F505">
+        <v>2028</v>
+      </c>
+      <c r="G505">
+        <v>0</v>
+      </c>
+      <c r="H505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>777000</v>
+      </c>
+      <c r="C506">
+        <v>35</v>
+      </c>
+      <c r="D506">
+        <v>2140</v>
+      </c>
+      <c r="E506">
+        <v>36</v>
+      </c>
+      <c r="F506">
+        <v>2032</v>
+      </c>
+      <c r="G506">
+        <v>0</v>
+      </c>
+      <c r="H506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>778500</v>
+      </c>
+      <c r="C507">
+        <v>35</v>
+      </c>
+      <c r="D507">
+        <v>2144</v>
+      </c>
+      <c r="E507">
+        <v>36</v>
+      </c>
+      <c r="F507">
+        <v>2036</v>
+      </c>
+      <c r="G507">
+        <v>0</v>
+      </c>
+      <c r="H507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>780000</v>
+      </c>
+      <c r="C508">
+        <v>35</v>
+      </c>
+      <c r="D508">
+        <v>2148</v>
+      </c>
+      <c r="E508">
+        <v>36</v>
+      </c>
+      <c r="F508">
+        <v>2040</v>
+      </c>
+      <c r="G508">
+        <v>0</v>
+      </c>
+      <c r="H508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>781500</v>
+      </c>
+      <c r="C509">
+        <v>35</v>
+      </c>
+      <c r="D509">
+        <v>2152</v>
+      </c>
+      <c r="E509">
+        <v>36</v>
+      </c>
+      <c r="F509">
+        <v>2044</v>
+      </c>
+      <c r="G509">
+        <v>0</v>
+      </c>
+      <c r="H509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>783000</v>
+      </c>
+      <c r="C510">
+        <v>35</v>
+      </c>
+      <c r="D510">
+        <v>2156</v>
+      </c>
+      <c r="E510">
+        <v>36</v>
+      </c>
+      <c r="F510">
+        <v>2048</v>
+      </c>
+      <c r="G510">
+        <v>0</v>
+      </c>
+      <c r="H510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>784500</v>
+      </c>
+      <c r="C511">
+        <v>35</v>
+      </c>
+      <c r="D511">
+        <v>2160</v>
+      </c>
+      <c r="E511">
+        <v>36</v>
+      </c>
+      <c r="F511">
+        <v>2052</v>
+      </c>
+      <c r="G511">
+        <v>0</v>
+      </c>
+      <c r="H511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>786000</v>
+      </c>
+      <c r="C512">
+        <v>35</v>
+      </c>
+      <c r="D512">
+        <v>2164</v>
+      </c>
+      <c r="E512">
+        <v>36</v>
+      </c>
+      <c r="F512">
+        <v>2056</v>
+      </c>
+      <c r="G512">
+        <v>0</v>
+      </c>
+      <c r="H512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>787500</v>
+      </c>
+      <c r="C513">
+        <v>35</v>
+      </c>
+      <c r="D513">
+        <v>2168</v>
+      </c>
+      <c r="E513">
+        <v>36</v>
+      </c>
+      <c r="F513">
+        <v>2060</v>
+      </c>
+      <c r="G513">
+        <v>0</v>
+      </c>
+      <c r="H513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>789000</v>
+      </c>
+      <c r="C514">
+        <v>35</v>
+      </c>
+      <c r="D514">
+        <v>2172</v>
+      </c>
+      <c r="E514">
+        <v>36</v>
+      </c>
+      <c r="F514">
+        <v>2064</v>
+      </c>
+      <c r="G514">
+        <v>0</v>
+      </c>
+      <c r="H514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>790500</v>
+      </c>
+      <c r="C515">
+        <v>35</v>
+      </c>
+      <c r="D515">
+        <v>2176</v>
+      </c>
+      <c r="E515">
+        <v>36</v>
+      </c>
+      <c r="F515">
+        <v>2068</v>
+      </c>
+      <c r="G515">
+        <v>0</v>
+      </c>
+      <c r="H515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>792000</v>
+      </c>
+      <c r="C516">
+        <v>35</v>
+      </c>
+      <c r="D516">
+        <v>2180</v>
+      </c>
+      <c r="E516">
+        <v>36</v>
+      </c>
+      <c r="F516">
+        <v>2072</v>
+      </c>
+      <c r="G516">
+        <v>0</v>
+      </c>
+      <c r="H516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>793500</v>
+      </c>
+      <c r="C517">
+        <v>35</v>
+      </c>
+      <c r="D517">
+        <v>2184</v>
+      </c>
+      <c r="E517">
+        <v>36</v>
+      </c>
+      <c r="F517">
+        <v>2076</v>
+      </c>
+      <c r="G517">
+        <v>0</v>
+      </c>
+      <c r="H517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>795000</v>
+      </c>
+      <c r="C518">
+        <v>35</v>
+      </c>
+      <c r="D518">
+        <v>2188</v>
+      </c>
+      <c r="E518">
+        <v>36</v>
+      </c>
+      <c r="F518">
+        <v>2080</v>
+      </c>
+      <c r="G518">
+        <v>0</v>
+      </c>
+      <c r="H518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>796500</v>
+      </c>
+      <c r="C519">
+        <v>35</v>
+      </c>
+      <c r="D519">
+        <v>2192</v>
+      </c>
+      <c r="E519">
+        <v>36</v>
+      </c>
+      <c r="F519">
+        <v>2084</v>
+      </c>
+      <c r="G519">
+        <v>0</v>
+      </c>
+      <c r="H519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>798000</v>
+      </c>
+      <c r="C520">
+        <v>35</v>
+      </c>
+      <c r="D520">
+        <v>2196</v>
+      </c>
+      <c r="E520">
+        <v>36</v>
+      </c>
+      <c r="F520">
+        <v>2088</v>
+      </c>
+      <c r="G520">
+        <v>0</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>799500</v>
+      </c>
+      <c r="C521">
+        <v>35</v>
+      </c>
+      <c r="D521">
+        <v>2200</v>
+      </c>
+      <c r="E521">
+        <v>36</v>
+      </c>
+      <c r="F521">
+        <v>2092</v>
+      </c>
+      <c r="G521">
+        <v>0</v>
+      </c>
+      <c r="H521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>801000</v>
+      </c>
+      <c r="C522">
+        <v>35</v>
+      </c>
+      <c r="D522">
+        <v>2204</v>
+      </c>
+      <c r="E522">
+        <v>36</v>
+      </c>
+      <c r="F522">
+        <v>2096</v>
+      </c>
+      <c r="G522">
+        <v>0</v>
+      </c>
+      <c r="H522">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813079C1-0445-4A37-8FA6-810B68EB20A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD6DC0D-767A-422B-A403-902A4D6B5B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H522"/>
+  <dimension ref="A1:H655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B513" sqref="B513"/>
+      <pane ySplit="1" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B651" sqref="B651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14024,6 +14024,3464 @@
         <v>0</v>
       </c>
     </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>802500</v>
+      </c>
+      <c r="C523">
+        <v>35</v>
+      </c>
+      <c r="D523">
+        <v>2208</v>
+      </c>
+      <c r="E523">
+        <v>36</v>
+      </c>
+      <c r="F523">
+        <v>2100</v>
+      </c>
+      <c r="G523">
+        <v>0</v>
+      </c>
+      <c r="H523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>804000</v>
+      </c>
+      <c r="C524">
+        <v>35</v>
+      </c>
+      <c r="D524">
+        <v>2212</v>
+      </c>
+      <c r="E524">
+        <v>36</v>
+      </c>
+      <c r="F524">
+        <v>2104</v>
+      </c>
+      <c r="G524">
+        <v>0</v>
+      </c>
+      <c r="H524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>805500</v>
+      </c>
+      <c r="C525">
+        <v>35</v>
+      </c>
+      <c r="D525">
+        <v>2216</v>
+      </c>
+      <c r="E525">
+        <v>36</v>
+      </c>
+      <c r="F525">
+        <v>2108</v>
+      </c>
+      <c r="G525">
+        <v>0</v>
+      </c>
+      <c r="H525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>807000</v>
+      </c>
+      <c r="C526">
+        <v>35</v>
+      </c>
+      <c r="D526">
+        <v>2220</v>
+      </c>
+      <c r="E526">
+        <v>36</v>
+      </c>
+      <c r="F526">
+        <v>2112</v>
+      </c>
+      <c r="G526">
+        <v>0</v>
+      </c>
+      <c r="H526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>808500</v>
+      </c>
+      <c r="C527">
+        <v>35</v>
+      </c>
+      <c r="D527">
+        <v>2224</v>
+      </c>
+      <c r="E527">
+        <v>36</v>
+      </c>
+      <c r="F527">
+        <v>2116</v>
+      </c>
+      <c r="G527">
+        <v>0</v>
+      </c>
+      <c r="H527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>810000</v>
+      </c>
+      <c r="C528">
+        <v>35</v>
+      </c>
+      <c r="D528">
+        <v>2228</v>
+      </c>
+      <c r="E528">
+        <v>36</v>
+      </c>
+      <c r="F528">
+        <v>2120</v>
+      </c>
+      <c r="G528">
+        <v>0</v>
+      </c>
+      <c r="H528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>811500</v>
+      </c>
+      <c r="C529">
+        <v>35</v>
+      </c>
+      <c r="D529">
+        <v>2232</v>
+      </c>
+      <c r="E529">
+        <v>36</v>
+      </c>
+      <c r="F529">
+        <v>2124</v>
+      </c>
+      <c r="G529">
+        <v>0</v>
+      </c>
+      <c r="H529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>813000</v>
+      </c>
+      <c r="C530">
+        <v>35</v>
+      </c>
+      <c r="D530">
+        <v>2236</v>
+      </c>
+      <c r="E530">
+        <v>36</v>
+      </c>
+      <c r="F530">
+        <v>2128</v>
+      </c>
+      <c r="G530">
+        <v>0</v>
+      </c>
+      <c r="H530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>814500</v>
+      </c>
+      <c r="C531">
+        <v>35</v>
+      </c>
+      <c r="D531">
+        <v>2240</v>
+      </c>
+      <c r="E531">
+        <v>36</v>
+      </c>
+      <c r="F531">
+        <v>2132</v>
+      </c>
+      <c r="G531">
+        <v>0</v>
+      </c>
+      <c r="H531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>816000</v>
+      </c>
+      <c r="C532">
+        <v>35</v>
+      </c>
+      <c r="D532">
+        <v>2244</v>
+      </c>
+      <c r="E532">
+        <v>36</v>
+      </c>
+      <c r="F532">
+        <v>2136</v>
+      </c>
+      <c r="G532">
+        <v>0</v>
+      </c>
+      <c r="H532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>817500</v>
+      </c>
+      <c r="C533">
+        <v>35</v>
+      </c>
+      <c r="D533">
+        <v>2248</v>
+      </c>
+      <c r="E533">
+        <v>36</v>
+      </c>
+      <c r="F533">
+        <v>2140</v>
+      </c>
+      <c r="G533">
+        <v>0</v>
+      </c>
+      <c r="H533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>819000</v>
+      </c>
+      <c r="C534">
+        <v>35</v>
+      </c>
+      <c r="D534">
+        <v>2252</v>
+      </c>
+      <c r="E534">
+        <v>36</v>
+      </c>
+      <c r="F534">
+        <v>2144</v>
+      </c>
+      <c r="G534">
+        <v>0</v>
+      </c>
+      <c r="H534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>820500</v>
+      </c>
+      <c r="C535">
+        <v>35</v>
+      </c>
+      <c r="D535">
+        <v>2256</v>
+      </c>
+      <c r="E535">
+        <v>36</v>
+      </c>
+      <c r="F535">
+        <v>2148</v>
+      </c>
+      <c r="G535">
+        <v>0</v>
+      </c>
+      <c r="H535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>822000</v>
+      </c>
+      <c r="C536">
+        <v>35</v>
+      </c>
+      <c r="D536">
+        <v>2260</v>
+      </c>
+      <c r="E536">
+        <v>36</v>
+      </c>
+      <c r="F536">
+        <v>2152</v>
+      </c>
+      <c r="G536">
+        <v>0</v>
+      </c>
+      <c r="H536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>823500</v>
+      </c>
+      <c r="C537">
+        <v>35</v>
+      </c>
+      <c r="D537">
+        <v>2264</v>
+      </c>
+      <c r="E537">
+        <v>36</v>
+      </c>
+      <c r="F537">
+        <v>2156</v>
+      </c>
+      <c r="G537">
+        <v>0</v>
+      </c>
+      <c r="H537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>825000</v>
+      </c>
+      <c r="C538">
+        <v>35</v>
+      </c>
+      <c r="D538">
+        <v>2268</v>
+      </c>
+      <c r="E538">
+        <v>36</v>
+      </c>
+      <c r="F538">
+        <v>2160</v>
+      </c>
+      <c r="G538">
+        <v>0</v>
+      </c>
+      <c r="H538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>826500</v>
+      </c>
+      <c r="C539">
+        <v>35</v>
+      </c>
+      <c r="D539">
+        <v>2272</v>
+      </c>
+      <c r="E539">
+        <v>36</v>
+      </c>
+      <c r="F539">
+        <v>2164</v>
+      </c>
+      <c r="G539">
+        <v>0</v>
+      </c>
+      <c r="H539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>828000</v>
+      </c>
+      <c r="C540">
+        <v>35</v>
+      </c>
+      <c r="D540">
+        <v>2276</v>
+      </c>
+      <c r="E540">
+        <v>36</v>
+      </c>
+      <c r="F540">
+        <v>2168</v>
+      </c>
+      <c r="G540">
+        <v>0</v>
+      </c>
+      <c r="H540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>829500</v>
+      </c>
+      <c r="C541">
+        <v>35</v>
+      </c>
+      <c r="D541">
+        <v>2280</v>
+      </c>
+      <c r="E541">
+        <v>36</v>
+      </c>
+      <c r="F541">
+        <v>2172</v>
+      </c>
+      <c r="G541">
+        <v>0</v>
+      </c>
+      <c r="H541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>831000</v>
+      </c>
+      <c r="C542">
+        <v>35</v>
+      </c>
+      <c r="D542">
+        <v>2284</v>
+      </c>
+      <c r="E542">
+        <v>36</v>
+      </c>
+      <c r="F542">
+        <v>2176</v>
+      </c>
+      <c r="G542">
+        <v>0</v>
+      </c>
+      <c r="H542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>832500</v>
+      </c>
+      <c r="C543">
+        <v>35</v>
+      </c>
+      <c r="D543">
+        <v>2288</v>
+      </c>
+      <c r="E543">
+        <v>36</v>
+      </c>
+      <c r="F543">
+        <v>2180</v>
+      </c>
+      <c r="G543">
+        <v>0</v>
+      </c>
+      <c r="H543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>834000</v>
+      </c>
+      <c r="C544">
+        <v>35</v>
+      </c>
+      <c r="D544">
+        <v>2292</v>
+      </c>
+      <c r="E544">
+        <v>36</v>
+      </c>
+      <c r="F544">
+        <v>2184</v>
+      </c>
+      <c r="G544">
+        <v>0</v>
+      </c>
+      <c r="H544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>835500</v>
+      </c>
+      <c r="C545">
+        <v>35</v>
+      </c>
+      <c r="D545">
+        <v>2296</v>
+      </c>
+      <c r="E545">
+        <v>36</v>
+      </c>
+      <c r="F545">
+        <v>2188</v>
+      </c>
+      <c r="G545">
+        <v>0</v>
+      </c>
+      <c r="H545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>837000</v>
+      </c>
+      <c r="C546">
+        <v>35</v>
+      </c>
+      <c r="D546">
+        <v>2300</v>
+      </c>
+      <c r="E546">
+        <v>36</v>
+      </c>
+      <c r="F546">
+        <v>2192</v>
+      </c>
+      <c r="G546">
+        <v>0</v>
+      </c>
+      <c r="H546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>838500</v>
+      </c>
+      <c r="C547">
+        <v>35</v>
+      </c>
+      <c r="D547">
+        <v>2304</v>
+      </c>
+      <c r="E547">
+        <v>36</v>
+      </c>
+      <c r="F547">
+        <v>2196</v>
+      </c>
+      <c r="G547">
+        <v>0</v>
+      </c>
+      <c r="H547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>840000</v>
+      </c>
+      <c r="C548">
+        <v>35</v>
+      </c>
+      <c r="D548">
+        <v>2308</v>
+      </c>
+      <c r="E548">
+        <v>36</v>
+      </c>
+      <c r="F548">
+        <v>2200</v>
+      </c>
+      <c r="G548">
+        <v>0</v>
+      </c>
+      <c r="H548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>841500</v>
+      </c>
+      <c r="C549">
+        <v>35</v>
+      </c>
+      <c r="D549">
+        <v>2312</v>
+      </c>
+      <c r="E549">
+        <v>36</v>
+      </c>
+      <c r="F549">
+        <v>2204</v>
+      </c>
+      <c r="G549">
+        <v>0</v>
+      </c>
+      <c r="H549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>843000</v>
+      </c>
+      <c r="C550">
+        <v>35</v>
+      </c>
+      <c r="D550">
+        <v>2316</v>
+      </c>
+      <c r="E550">
+        <v>36</v>
+      </c>
+      <c r="F550">
+        <v>2208</v>
+      </c>
+      <c r="G550">
+        <v>0</v>
+      </c>
+      <c r="H550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>844500</v>
+      </c>
+      <c r="C551">
+        <v>35</v>
+      </c>
+      <c r="D551">
+        <v>2320</v>
+      </c>
+      <c r="E551">
+        <v>36</v>
+      </c>
+      <c r="F551">
+        <v>2212</v>
+      </c>
+      <c r="G551">
+        <v>0</v>
+      </c>
+      <c r="H551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>846000</v>
+      </c>
+      <c r="C552">
+        <v>35</v>
+      </c>
+      <c r="D552">
+        <v>2324</v>
+      </c>
+      <c r="E552">
+        <v>36</v>
+      </c>
+      <c r="F552">
+        <v>2216</v>
+      </c>
+      <c r="G552">
+        <v>0</v>
+      </c>
+      <c r="H552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>847500</v>
+      </c>
+      <c r="C553">
+        <v>35</v>
+      </c>
+      <c r="D553">
+        <v>2328</v>
+      </c>
+      <c r="E553">
+        <v>36</v>
+      </c>
+      <c r="F553">
+        <v>2220</v>
+      </c>
+      <c r="G553">
+        <v>0</v>
+      </c>
+      <c r="H553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>849000</v>
+      </c>
+      <c r="C554">
+        <v>35</v>
+      </c>
+      <c r="D554">
+        <v>2332</v>
+      </c>
+      <c r="E554">
+        <v>36</v>
+      </c>
+      <c r="F554">
+        <v>2224</v>
+      </c>
+      <c r="G554">
+        <v>0</v>
+      </c>
+      <c r="H554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>850500</v>
+      </c>
+      <c r="C555">
+        <v>35</v>
+      </c>
+      <c r="D555">
+        <v>2336</v>
+      </c>
+      <c r="E555">
+        <v>36</v>
+      </c>
+      <c r="F555">
+        <v>2228</v>
+      </c>
+      <c r="G555">
+        <v>0</v>
+      </c>
+      <c r="H555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>852000</v>
+      </c>
+      <c r="C556">
+        <v>35</v>
+      </c>
+      <c r="D556">
+        <v>2340</v>
+      </c>
+      <c r="E556">
+        <v>36</v>
+      </c>
+      <c r="F556">
+        <v>2232</v>
+      </c>
+      <c r="G556">
+        <v>0</v>
+      </c>
+      <c r="H556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>853500</v>
+      </c>
+      <c r="C557">
+        <v>35</v>
+      </c>
+      <c r="D557">
+        <v>2344</v>
+      </c>
+      <c r="E557">
+        <v>36</v>
+      </c>
+      <c r="F557">
+        <v>2236</v>
+      </c>
+      <c r="G557">
+        <v>0</v>
+      </c>
+      <c r="H557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>855000</v>
+      </c>
+      <c r="C558">
+        <v>35</v>
+      </c>
+      <c r="D558">
+        <v>2348</v>
+      </c>
+      <c r="E558">
+        <v>36</v>
+      </c>
+      <c r="F558">
+        <v>2240</v>
+      </c>
+      <c r="G558">
+        <v>0</v>
+      </c>
+      <c r="H558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>856500</v>
+      </c>
+      <c r="C559">
+        <v>35</v>
+      </c>
+      <c r="D559">
+        <v>2352</v>
+      </c>
+      <c r="E559">
+        <v>36</v>
+      </c>
+      <c r="F559">
+        <v>2244</v>
+      </c>
+      <c r="G559">
+        <v>0</v>
+      </c>
+      <c r="H559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>858000</v>
+      </c>
+      <c r="C560">
+        <v>35</v>
+      </c>
+      <c r="D560">
+        <v>2356</v>
+      </c>
+      <c r="E560">
+        <v>36</v>
+      </c>
+      <c r="F560">
+        <v>2248</v>
+      </c>
+      <c r="G560">
+        <v>0</v>
+      </c>
+      <c r="H560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>859500</v>
+      </c>
+      <c r="C561">
+        <v>35</v>
+      </c>
+      <c r="D561">
+        <v>2360</v>
+      </c>
+      <c r="E561">
+        <v>36</v>
+      </c>
+      <c r="F561">
+        <v>2252</v>
+      </c>
+      <c r="G561">
+        <v>0</v>
+      </c>
+      <c r="H561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>861000</v>
+      </c>
+      <c r="C562">
+        <v>35</v>
+      </c>
+      <c r="D562">
+        <v>2364</v>
+      </c>
+      <c r="E562">
+        <v>36</v>
+      </c>
+      <c r="F562">
+        <v>2256</v>
+      </c>
+      <c r="G562">
+        <v>0</v>
+      </c>
+      <c r="H562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>862500</v>
+      </c>
+      <c r="C563">
+        <v>35</v>
+      </c>
+      <c r="D563">
+        <v>2368</v>
+      </c>
+      <c r="E563">
+        <v>36</v>
+      </c>
+      <c r="F563">
+        <v>2260</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>864000</v>
+      </c>
+      <c r="C564">
+        <v>35</v>
+      </c>
+      <c r="D564">
+        <v>2372</v>
+      </c>
+      <c r="E564">
+        <v>36</v>
+      </c>
+      <c r="F564">
+        <v>2264</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+      <c r="H564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>865500</v>
+      </c>
+      <c r="C565">
+        <v>35</v>
+      </c>
+      <c r="D565">
+        <v>2376</v>
+      </c>
+      <c r="E565">
+        <v>36</v>
+      </c>
+      <c r="F565">
+        <v>2268</v>
+      </c>
+      <c r="G565">
+        <v>0</v>
+      </c>
+      <c r="H565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>867000</v>
+      </c>
+      <c r="C566">
+        <v>35</v>
+      </c>
+      <c r="D566">
+        <v>2380</v>
+      </c>
+      <c r="E566">
+        <v>36</v>
+      </c>
+      <c r="F566">
+        <v>2272</v>
+      </c>
+      <c r="G566">
+        <v>0</v>
+      </c>
+      <c r="H566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>868500</v>
+      </c>
+      <c r="C567">
+        <v>35</v>
+      </c>
+      <c r="D567">
+        <v>2384</v>
+      </c>
+      <c r="E567">
+        <v>36</v>
+      </c>
+      <c r="F567">
+        <v>2276</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+      <c r="H567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>870000</v>
+      </c>
+      <c r="C568">
+        <v>35</v>
+      </c>
+      <c r="D568">
+        <v>2388</v>
+      </c>
+      <c r="E568">
+        <v>36</v>
+      </c>
+      <c r="F568">
+        <v>2280</v>
+      </c>
+      <c r="G568">
+        <v>0</v>
+      </c>
+      <c r="H568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>871500</v>
+      </c>
+      <c r="C569">
+        <v>35</v>
+      </c>
+      <c r="D569">
+        <v>2392</v>
+      </c>
+      <c r="E569">
+        <v>36</v>
+      </c>
+      <c r="F569">
+        <v>2284</v>
+      </c>
+      <c r="G569">
+        <v>0</v>
+      </c>
+      <c r="H569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>873000</v>
+      </c>
+      <c r="C570">
+        <v>35</v>
+      </c>
+      <c r="D570">
+        <v>2396</v>
+      </c>
+      <c r="E570">
+        <v>36</v>
+      </c>
+      <c r="F570">
+        <v>2288</v>
+      </c>
+      <c r="G570">
+        <v>0</v>
+      </c>
+      <c r="H570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>874500</v>
+      </c>
+      <c r="C571">
+        <v>35</v>
+      </c>
+      <c r="D571">
+        <v>2400</v>
+      </c>
+      <c r="E571">
+        <v>36</v>
+      </c>
+      <c r="F571">
+        <v>2292</v>
+      </c>
+      <c r="G571">
+        <v>0</v>
+      </c>
+      <c r="H571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>876000</v>
+      </c>
+      <c r="C572">
+        <v>35</v>
+      </c>
+      <c r="D572">
+        <v>2404</v>
+      </c>
+      <c r="E572">
+        <v>36</v>
+      </c>
+      <c r="F572">
+        <v>2296</v>
+      </c>
+      <c r="G572">
+        <v>0</v>
+      </c>
+      <c r="H572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>877500</v>
+      </c>
+      <c r="C573">
+        <v>35</v>
+      </c>
+      <c r="D573">
+        <v>2408</v>
+      </c>
+      <c r="E573">
+        <v>36</v>
+      </c>
+      <c r="F573">
+        <v>2300</v>
+      </c>
+      <c r="G573">
+        <v>0</v>
+      </c>
+      <c r="H573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>879000</v>
+      </c>
+      <c r="C574">
+        <v>35</v>
+      </c>
+      <c r="D574">
+        <v>2412</v>
+      </c>
+      <c r="E574">
+        <v>36</v>
+      </c>
+      <c r="F574">
+        <v>2304</v>
+      </c>
+      <c r="G574">
+        <v>0</v>
+      </c>
+      <c r="H574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>880500</v>
+      </c>
+      <c r="C575">
+        <v>35</v>
+      </c>
+      <c r="D575">
+        <v>2416</v>
+      </c>
+      <c r="E575">
+        <v>36</v>
+      </c>
+      <c r="F575">
+        <v>2308</v>
+      </c>
+      <c r="G575">
+        <v>0</v>
+      </c>
+      <c r="H575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>882000</v>
+      </c>
+      <c r="C576">
+        <v>35</v>
+      </c>
+      <c r="D576">
+        <v>2420</v>
+      </c>
+      <c r="E576">
+        <v>36</v>
+      </c>
+      <c r="F576">
+        <v>2312</v>
+      </c>
+      <c r="G576">
+        <v>0</v>
+      </c>
+      <c r="H576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>883500</v>
+      </c>
+      <c r="C577">
+        <v>35</v>
+      </c>
+      <c r="D577">
+        <v>2424</v>
+      </c>
+      <c r="E577">
+        <v>36</v>
+      </c>
+      <c r="F577">
+        <v>2316</v>
+      </c>
+      <c r="G577">
+        <v>0</v>
+      </c>
+      <c r="H577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>885000</v>
+      </c>
+      <c r="C578">
+        <v>35</v>
+      </c>
+      <c r="D578">
+        <v>2428</v>
+      </c>
+      <c r="E578">
+        <v>36</v>
+      </c>
+      <c r="F578">
+        <v>2320</v>
+      </c>
+      <c r="G578">
+        <v>0</v>
+      </c>
+      <c r="H578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>886500</v>
+      </c>
+      <c r="C579">
+        <v>35</v>
+      </c>
+      <c r="D579">
+        <v>2432</v>
+      </c>
+      <c r="E579">
+        <v>36</v>
+      </c>
+      <c r="F579">
+        <v>2324</v>
+      </c>
+      <c r="G579">
+        <v>0</v>
+      </c>
+      <c r="H579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>888000</v>
+      </c>
+      <c r="C580">
+        <v>35</v>
+      </c>
+      <c r="D580">
+        <v>2436</v>
+      </c>
+      <c r="E580">
+        <v>36</v>
+      </c>
+      <c r="F580">
+        <v>2328</v>
+      </c>
+      <c r="G580">
+        <v>0</v>
+      </c>
+      <c r="H580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>889500</v>
+      </c>
+      <c r="C581">
+        <v>35</v>
+      </c>
+      <c r="D581">
+        <v>2440</v>
+      </c>
+      <c r="E581">
+        <v>36</v>
+      </c>
+      <c r="F581">
+        <v>2332</v>
+      </c>
+      <c r="G581">
+        <v>0</v>
+      </c>
+      <c r="H581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>891000</v>
+      </c>
+      <c r="C582">
+        <v>35</v>
+      </c>
+      <c r="D582">
+        <v>2444</v>
+      </c>
+      <c r="E582">
+        <v>36</v>
+      </c>
+      <c r="F582">
+        <v>2336</v>
+      </c>
+      <c r="G582">
+        <v>0</v>
+      </c>
+      <c r="H582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>892500</v>
+      </c>
+      <c r="C583">
+        <v>35</v>
+      </c>
+      <c r="D583">
+        <v>2448</v>
+      </c>
+      <c r="E583">
+        <v>36</v>
+      </c>
+      <c r="F583">
+        <v>2340</v>
+      </c>
+      <c r="G583">
+        <v>0</v>
+      </c>
+      <c r="H583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>894000</v>
+      </c>
+      <c r="C584">
+        <v>35</v>
+      </c>
+      <c r="D584">
+        <v>2452</v>
+      </c>
+      <c r="E584">
+        <v>36</v>
+      </c>
+      <c r="F584">
+        <v>2344</v>
+      </c>
+      <c r="G584">
+        <v>0</v>
+      </c>
+      <c r="H584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>895500</v>
+      </c>
+      <c r="C585">
+        <v>35</v>
+      </c>
+      <c r="D585">
+        <v>2456</v>
+      </c>
+      <c r="E585">
+        <v>36</v>
+      </c>
+      <c r="F585">
+        <v>2348</v>
+      </c>
+      <c r="G585">
+        <v>0</v>
+      </c>
+      <c r="H585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <v>897000</v>
+      </c>
+      <c r="C586">
+        <v>35</v>
+      </c>
+      <c r="D586">
+        <v>2460</v>
+      </c>
+      <c r="E586">
+        <v>36</v>
+      </c>
+      <c r="F586">
+        <v>2352</v>
+      </c>
+      <c r="G586">
+        <v>0</v>
+      </c>
+      <c r="H586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>898500</v>
+      </c>
+      <c r="C587">
+        <v>35</v>
+      </c>
+      <c r="D587">
+        <v>2464</v>
+      </c>
+      <c r="E587">
+        <v>36</v>
+      </c>
+      <c r="F587">
+        <v>2356</v>
+      </c>
+      <c r="G587">
+        <v>0</v>
+      </c>
+      <c r="H587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>900000</v>
+      </c>
+      <c r="C588">
+        <v>35</v>
+      </c>
+      <c r="D588">
+        <v>2468</v>
+      </c>
+      <c r="E588">
+        <v>36</v>
+      </c>
+      <c r="F588">
+        <v>2360</v>
+      </c>
+      <c r="G588">
+        <v>0</v>
+      </c>
+      <c r="H588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>901500</v>
+      </c>
+      <c r="C589">
+        <v>35</v>
+      </c>
+      <c r="D589">
+        <v>2472</v>
+      </c>
+      <c r="E589">
+        <v>36</v>
+      </c>
+      <c r="F589">
+        <v>2364</v>
+      </c>
+      <c r="G589">
+        <v>0</v>
+      </c>
+      <c r="H589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>903000</v>
+      </c>
+      <c r="C590">
+        <v>35</v>
+      </c>
+      <c r="D590">
+        <v>2476</v>
+      </c>
+      <c r="E590">
+        <v>36</v>
+      </c>
+      <c r="F590">
+        <v>2368</v>
+      </c>
+      <c r="G590">
+        <v>0</v>
+      </c>
+      <c r="H590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>904500</v>
+      </c>
+      <c r="C591">
+        <v>35</v>
+      </c>
+      <c r="D591">
+        <v>2480</v>
+      </c>
+      <c r="E591">
+        <v>36</v>
+      </c>
+      <c r="F591">
+        <v>2372</v>
+      </c>
+      <c r="G591">
+        <v>0</v>
+      </c>
+      <c r="H591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>906000</v>
+      </c>
+      <c r="C592">
+        <v>35</v>
+      </c>
+      <c r="D592">
+        <v>2484</v>
+      </c>
+      <c r="E592">
+        <v>36</v>
+      </c>
+      <c r="F592">
+        <v>2376</v>
+      </c>
+      <c r="G592">
+        <v>0</v>
+      </c>
+      <c r="H592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>907500</v>
+      </c>
+      <c r="C593">
+        <v>35</v>
+      </c>
+      <c r="D593">
+        <v>2488</v>
+      </c>
+      <c r="E593">
+        <v>36</v>
+      </c>
+      <c r="F593">
+        <v>2380</v>
+      </c>
+      <c r="G593">
+        <v>0</v>
+      </c>
+      <c r="H593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>909000</v>
+      </c>
+      <c r="C594">
+        <v>35</v>
+      </c>
+      <c r="D594">
+        <v>2492</v>
+      </c>
+      <c r="E594">
+        <v>36</v>
+      </c>
+      <c r="F594">
+        <v>2384</v>
+      </c>
+      <c r="G594">
+        <v>0</v>
+      </c>
+      <c r="H594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>910500</v>
+      </c>
+      <c r="C595">
+        <v>35</v>
+      </c>
+      <c r="D595">
+        <v>2496</v>
+      </c>
+      <c r="E595">
+        <v>36</v>
+      </c>
+      <c r="F595">
+        <v>2388</v>
+      </c>
+      <c r="G595">
+        <v>0</v>
+      </c>
+      <c r="H595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>912000</v>
+      </c>
+      <c r="C596">
+        <v>35</v>
+      </c>
+      <c r="D596">
+        <v>2500</v>
+      </c>
+      <c r="E596">
+        <v>36</v>
+      </c>
+      <c r="F596">
+        <v>2392</v>
+      </c>
+      <c r="G596">
+        <v>0</v>
+      </c>
+      <c r="H596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>913500</v>
+      </c>
+      <c r="C597">
+        <v>35</v>
+      </c>
+      <c r="D597">
+        <v>2504</v>
+      </c>
+      <c r="E597">
+        <v>36</v>
+      </c>
+      <c r="F597">
+        <v>2396</v>
+      </c>
+      <c r="G597">
+        <v>0</v>
+      </c>
+      <c r="H597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>915000</v>
+      </c>
+      <c r="C598">
+        <v>35</v>
+      </c>
+      <c r="D598">
+        <v>2508</v>
+      </c>
+      <c r="E598">
+        <v>36</v>
+      </c>
+      <c r="F598">
+        <v>2400</v>
+      </c>
+      <c r="G598">
+        <v>0</v>
+      </c>
+      <c r="H598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>916500</v>
+      </c>
+      <c r="C599">
+        <v>35</v>
+      </c>
+      <c r="D599">
+        <v>2512</v>
+      </c>
+      <c r="E599">
+        <v>36</v>
+      </c>
+      <c r="F599">
+        <v>2404</v>
+      </c>
+      <c r="G599">
+        <v>0</v>
+      </c>
+      <c r="H599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>918000</v>
+      </c>
+      <c r="C600">
+        <v>35</v>
+      </c>
+      <c r="D600">
+        <v>2516</v>
+      </c>
+      <c r="E600">
+        <v>36</v>
+      </c>
+      <c r="F600">
+        <v>2408</v>
+      </c>
+      <c r="G600">
+        <v>0</v>
+      </c>
+      <c r="H600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>919500</v>
+      </c>
+      <c r="C601">
+        <v>35</v>
+      </c>
+      <c r="D601">
+        <v>2520</v>
+      </c>
+      <c r="E601">
+        <v>36</v>
+      </c>
+      <c r="F601">
+        <v>2412</v>
+      </c>
+      <c r="G601">
+        <v>0</v>
+      </c>
+      <c r="H601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>600</v>
+      </c>
+      <c r="B602">
+        <v>921000</v>
+      </c>
+      <c r="C602">
+        <v>35</v>
+      </c>
+      <c r="D602">
+        <v>2524</v>
+      </c>
+      <c r="E602">
+        <v>36</v>
+      </c>
+      <c r="F602">
+        <v>2416</v>
+      </c>
+      <c r="G602">
+        <v>0</v>
+      </c>
+      <c r="H602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>601</v>
+      </c>
+      <c r="B603">
+        <v>922500</v>
+      </c>
+      <c r="C603">
+        <v>35</v>
+      </c>
+      <c r="D603">
+        <v>2528</v>
+      </c>
+      <c r="E603">
+        <v>36</v>
+      </c>
+      <c r="F603">
+        <v>2420</v>
+      </c>
+      <c r="G603">
+        <v>0</v>
+      </c>
+      <c r="H603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>602</v>
+      </c>
+      <c r="B604">
+        <v>924000</v>
+      </c>
+      <c r="C604">
+        <v>35</v>
+      </c>
+      <c r="D604">
+        <v>2532</v>
+      </c>
+      <c r="E604">
+        <v>36</v>
+      </c>
+      <c r="F604">
+        <v>2424</v>
+      </c>
+      <c r="G604">
+        <v>0</v>
+      </c>
+      <c r="H604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>603</v>
+      </c>
+      <c r="B605">
+        <v>925500</v>
+      </c>
+      <c r="C605">
+        <v>35</v>
+      </c>
+      <c r="D605">
+        <v>2536</v>
+      </c>
+      <c r="E605">
+        <v>36</v>
+      </c>
+      <c r="F605">
+        <v>2428</v>
+      </c>
+      <c r="G605">
+        <v>0</v>
+      </c>
+      <c r="H605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>604</v>
+      </c>
+      <c r="B606">
+        <v>927000</v>
+      </c>
+      <c r="C606">
+        <v>35</v>
+      </c>
+      <c r="D606">
+        <v>2540</v>
+      </c>
+      <c r="E606">
+        <v>36</v>
+      </c>
+      <c r="F606">
+        <v>2432</v>
+      </c>
+      <c r="G606">
+        <v>0</v>
+      </c>
+      <c r="H606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>605</v>
+      </c>
+      <c r="B607">
+        <v>928500</v>
+      </c>
+      <c r="C607">
+        <v>35</v>
+      </c>
+      <c r="D607">
+        <v>2544</v>
+      </c>
+      <c r="E607">
+        <v>36</v>
+      </c>
+      <c r="F607">
+        <v>2436</v>
+      </c>
+      <c r="G607">
+        <v>0</v>
+      </c>
+      <c r="H607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>606</v>
+      </c>
+      <c r="B608">
+        <v>930000</v>
+      </c>
+      <c r="C608">
+        <v>35</v>
+      </c>
+      <c r="D608">
+        <v>2548</v>
+      </c>
+      <c r="E608">
+        <v>36</v>
+      </c>
+      <c r="F608">
+        <v>2440</v>
+      </c>
+      <c r="G608">
+        <v>0</v>
+      </c>
+      <c r="H608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>607</v>
+      </c>
+      <c r="B609">
+        <v>931500</v>
+      </c>
+      <c r="C609">
+        <v>35</v>
+      </c>
+      <c r="D609">
+        <v>2552</v>
+      </c>
+      <c r="E609">
+        <v>36</v>
+      </c>
+      <c r="F609">
+        <v>2444</v>
+      </c>
+      <c r="G609">
+        <v>0</v>
+      </c>
+      <c r="H609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>608</v>
+      </c>
+      <c r="B610">
+        <v>933000</v>
+      </c>
+      <c r="C610">
+        <v>35</v>
+      </c>
+      <c r="D610">
+        <v>2556</v>
+      </c>
+      <c r="E610">
+        <v>36</v>
+      </c>
+      <c r="F610">
+        <v>2448</v>
+      </c>
+      <c r="G610">
+        <v>0</v>
+      </c>
+      <c r="H610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>609</v>
+      </c>
+      <c r="B611">
+        <v>934500</v>
+      </c>
+      <c r="C611">
+        <v>35</v>
+      </c>
+      <c r="D611">
+        <v>2560</v>
+      </c>
+      <c r="E611">
+        <v>36</v>
+      </c>
+      <c r="F611">
+        <v>2452</v>
+      </c>
+      <c r="G611">
+        <v>0</v>
+      </c>
+      <c r="H611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>610</v>
+      </c>
+      <c r="B612">
+        <v>936000</v>
+      </c>
+      <c r="C612">
+        <v>35</v>
+      </c>
+      <c r="D612">
+        <v>2564</v>
+      </c>
+      <c r="E612">
+        <v>36</v>
+      </c>
+      <c r="F612">
+        <v>2456</v>
+      </c>
+      <c r="G612">
+        <v>0</v>
+      </c>
+      <c r="H612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>611</v>
+      </c>
+      <c r="B613">
+        <v>937500</v>
+      </c>
+      <c r="C613">
+        <v>35</v>
+      </c>
+      <c r="D613">
+        <v>2568</v>
+      </c>
+      <c r="E613">
+        <v>36</v>
+      </c>
+      <c r="F613">
+        <v>2460</v>
+      </c>
+      <c r="G613">
+        <v>0</v>
+      </c>
+      <c r="H613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>612</v>
+      </c>
+      <c r="B614">
+        <v>939000</v>
+      </c>
+      <c r="C614">
+        <v>35</v>
+      </c>
+      <c r="D614">
+        <v>2572</v>
+      </c>
+      <c r="E614">
+        <v>36</v>
+      </c>
+      <c r="F614">
+        <v>2464</v>
+      </c>
+      <c r="G614">
+        <v>0</v>
+      </c>
+      <c r="H614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>613</v>
+      </c>
+      <c r="B615">
+        <v>940500</v>
+      </c>
+      <c r="C615">
+        <v>35</v>
+      </c>
+      <c r="D615">
+        <v>2576</v>
+      </c>
+      <c r="E615">
+        <v>36</v>
+      </c>
+      <c r="F615">
+        <v>2468</v>
+      </c>
+      <c r="G615">
+        <v>0</v>
+      </c>
+      <c r="H615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>614</v>
+      </c>
+      <c r="B616">
+        <v>942000</v>
+      </c>
+      <c r="C616">
+        <v>35</v>
+      </c>
+      <c r="D616">
+        <v>2580</v>
+      </c>
+      <c r="E616">
+        <v>36</v>
+      </c>
+      <c r="F616">
+        <v>2472</v>
+      </c>
+      <c r="G616">
+        <v>0</v>
+      </c>
+      <c r="H616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>615</v>
+      </c>
+      <c r="B617">
+        <v>943500</v>
+      </c>
+      <c r="C617">
+        <v>35</v>
+      </c>
+      <c r="D617">
+        <v>2584</v>
+      </c>
+      <c r="E617">
+        <v>36</v>
+      </c>
+      <c r="F617">
+        <v>2476</v>
+      </c>
+      <c r="G617">
+        <v>0</v>
+      </c>
+      <c r="H617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>616</v>
+      </c>
+      <c r="B618">
+        <v>945000</v>
+      </c>
+      <c r="C618">
+        <v>35</v>
+      </c>
+      <c r="D618">
+        <v>2588</v>
+      </c>
+      <c r="E618">
+        <v>36</v>
+      </c>
+      <c r="F618">
+        <v>2480</v>
+      </c>
+      <c r="G618">
+        <v>0</v>
+      </c>
+      <c r="H618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>617</v>
+      </c>
+      <c r="B619">
+        <v>946500</v>
+      </c>
+      <c r="C619">
+        <v>35</v>
+      </c>
+      <c r="D619">
+        <v>2592</v>
+      </c>
+      <c r="E619">
+        <v>36</v>
+      </c>
+      <c r="F619">
+        <v>2484</v>
+      </c>
+      <c r="G619">
+        <v>0</v>
+      </c>
+      <c r="H619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>618</v>
+      </c>
+      <c r="B620">
+        <v>948000</v>
+      </c>
+      <c r="C620">
+        <v>35</v>
+      </c>
+      <c r="D620">
+        <v>2596</v>
+      </c>
+      <c r="E620">
+        <v>36</v>
+      </c>
+      <c r="F620">
+        <v>2488</v>
+      </c>
+      <c r="G620">
+        <v>0</v>
+      </c>
+      <c r="H620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>619</v>
+      </c>
+      <c r="B621">
+        <v>949500</v>
+      </c>
+      <c r="C621">
+        <v>35</v>
+      </c>
+      <c r="D621">
+        <v>2600</v>
+      </c>
+      <c r="E621">
+        <v>36</v>
+      </c>
+      <c r="F621">
+        <v>2492</v>
+      </c>
+      <c r="G621">
+        <v>0</v>
+      </c>
+      <c r="H621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>620</v>
+      </c>
+      <c r="B622">
+        <v>951000</v>
+      </c>
+      <c r="C622">
+        <v>35</v>
+      </c>
+      <c r="D622">
+        <v>2604</v>
+      </c>
+      <c r="E622">
+        <v>36</v>
+      </c>
+      <c r="F622">
+        <v>2496</v>
+      </c>
+      <c r="G622">
+        <v>0</v>
+      </c>
+      <c r="H622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>621</v>
+      </c>
+      <c r="B623">
+        <v>952500</v>
+      </c>
+      <c r="C623">
+        <v>35</v>
+      </c>
+      <c r="D623">
+        <v>2608</v>
+      </c>
+      <c r="E623">
+        <v>36</v>
+      </c>
+      <c r="F623">
+        <v>2500</v>
+      </c>
+      <c r="G623">
+        <v>0</v>
+      </c>
+      <c r="H623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>622</v>
+      </c>
+      <c r="B624">
+        <v>954000</v>
+      </c>
+      <c r="C624">
+        <v>35</v>
+      </c>
+      <c r="D624">
+        <v>2612</v>
+      </c>
+      <c r="E624">
+        <v>36</v>
+      </c>
+      <c r="F624">
+        <v>2504</v>
+      </c>
+      <c r="G624">
+        <v>0</v>
+      </c>
+      <c r="H624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>623</v>
+      </c>
+      <c r="B625">
+        <v>955500</v>
+      </c>
+      <c r="C625">
+        <v>35</v>
+      </c>
+      <c r="D625">
+        <v>2616</v>
+      </c>
+      <c r="E625">
+        <v>36</v>
+      </c>
+      <c r="F625">
+        <v>2508</v>
+      </c>
+      <c r="G625">
+        <v>0</v>
+      </c>
+      <c r="H625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>624</v>
+      </c>
+      <c r="B626">
+        <v>957000</v>
+      </c>
+      <c r="C626">
+        <v>35</v>
+      </c>
+      <c r="D626">
+        <v>2620</v>
+      </c>
+      <c r="E626">
+        <v>36</v>
+      </c>
+      <c r="F626">
+        <v>2512</v>
+      </c>
+      <c r="G626">
+        <v>0</v>
+      </c>
+      <c r="H626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>625</v>
+      </c>
+      <c r="B627">
+        <v>958500</v>
+      </c>
+      <c r="C627">
+        <v>35</v>
+      </c>
+      <c r="D627">
+        <v>2624</v>
+      </c>
+      <c r="E627">
+        <v>36</v>
+      </c>
+      <c r="F627">
+        <v>2516</v>
+      </c>
+      <c r="G627">
+        <v>0</v>
+      </c>
+      <c r="H627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>626</v>
+      </c>
+      <c r="B628">
+        <v>960000</v>
+      </c>
+      <c r="C628">
+        <v>35</v>
+      </c>
+      <c r="D628">
+        <v>2628</v>
+      </c>
+      <c r="E628">
+        <v>36</v>
+      </c>
+      <c r="F628">
+        <v>2520</v>
+      </c>
+      <c r="G628">
+        <v>0</v>
+      </c>
+      <c r="H628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>627</v>
+      </c>
+      <c r="B629">
+        <v>961500</v>
+      </c>
+      <c r="C629">
+        <v>35</v>
+      </c>
+      <c r="D629">
+        <v>2632</v>
+      </c>
+      <c r="E629">
+        <v>36</v>
+      </c>
+      <c r="F629">
+        <v>2524</v>
+      </c>
+      <c r="G629">
+        <v>0</v>
+      </c>
+      <c r="H629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>628</v>
+      </c>
+      <c r="B630">
+        <v>963000</v>
+      </c>
+      <c r="C630">
+        <v>35</v>
+      </c>
+      <c r="D630">
+        <v>2636</v>
+      </c>
+      <c r="E630">
+        <v>36</v>
+      </c>
+      <c r="F630">
+        <v>2528</v>
+      </c>
+      <c r="G630">
+        <v>0</v>
+      </c>
+      <c r="H630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>629</v>
+      </c>
+      <c r="B631">
+        <v>964500</v>
+      </c>
+      <c r="C631">
+        <v>35</v>
+      </c>
+      <c r="D631">
+        <v>2640</v>
+      </c>
+      <c r="E631">
+        <v>36</v>
+      </c>
+      <c r="F631">
+        <v>2532</v>
+      </c>
+      <c r="G631">
+        <v>0</v>
+      </c>
+      <c r="H631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>630</v>
+      </c>
+      <c r="B632">
+        <v>966000</v>
+      </c>
+      <c r="C632">
+        <v>35</v>
+      </c>
+      <c r="D632">
+        <v>2644</v>
+      </c>
+      <c r="E632">
+        <v>36</v>
+      </c>
+      <c r="F632">
+        <v>2536</v>
+      </c>
+      <c r="G632">
+        <v>0</v>
+      </c>
+      <c r="H632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>631</v>
+      </c>
+      <c r="B633">
+        <v>967500</v>
+      </c>
+      <c r="C633">
+        <v>35</v>
+      </c>
+      <c r="D633">
+        <v>2648</v>
+      </c>
+      <c r="E633">
+        <v>36</v>
+      </c>
+      <c r="F633">
+        <v>2540</v>
+      </c>
+      <c r="G633">
+        <v>0</v>
+      </c>
+      <c r="H633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>632</v>
+      </c>
+      <c r="B634">
+        <v>969000</v>
+      </c>
+      <c r="C634">
+        <v>35</v>
+      </c>
+      <c r="D634">
+        <v>2652</v>
+      </c>
+      <c r="E634">
+        <v>36</v>
+      </c>
+      <c r="F634">
+        <v>2544</v>
+      </c>
+      <c r="G634">
+        <v>0</v>
+      </c>
+      <c r="H634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>633</v>
+      </c>
+      <c r="B635">
+        <v>970500</v>
+      </c>
+      <c r="C635">
+        <v>35</v>
+      </c>
+      <c r="D635">
+        <v>2656</v>
+      </c>
+      <c r="E635">
+        <v>36</v>
+      </c>
+      <c r="F635">
+        <v>2548</v>
+      </c>
+      <c r="G635">
+        <v>0</v>
+      </c>
+      <c r="H635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>634</v>
+      </c>
+      <c r="B636">
+        <v>972000</v>
+      </c>
+      <c r="C636">
+        <v>35</v>
+      </c>
+      <c r="D636">
+        <v>2660</v>
+      </c>
+      <c r="E636">
+        <v>36</v>
+      </c>
+      <c r="F636">
+        <v>2552</v>
+      </c>
+      <c r="G636">
+        <v>0</v>
+      </c>
+      <c r="H636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>635</v>
+      </c>
+      <c r="B637">
+        <v>973500</v>
+      </c>
+      <c r="C637">
+        <v>35</v>
+      </c>
+      <c r="D637">
+        <v>2664</v>
+      </c>
+      <c r="E637">
+        <v>36</v>
+      </c>
+      <c r="F637">
+        <v>2556</v>
+      </c>
+      <c r="G637">
+        <v>0</v>
+      </c>
+      <c r="H637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>636</v>
+      </c>
+      <c r="B638">
+        <v>975000</v>
+      </c>
+      <c r="C638">
+        <v>35</v>
+      </c>
+      <c r="D638">
+        <v>2668</v>
+      </c>
+      <c r="E638">
+        <v>36</v>
+      </c>
+      <c r="F638">
+        <v>2560</v>
+      </c>
+      <c r="G638">
+        <v>0</v>
+      </c>
+      <c r="H638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>637</v>
+      </c>
+      <c r="B639">
+        <v>976500</v>
+      </c>
+      <c r="C639">
+        <v>35</v>
+      </c>
+      <c r="D639">
+        <v>2672</v>
+      </c>
+      <c r="E639">
+        <v>36</v>
+      </c>
+      <c r="F639">
+        <v>2564</v>
+      </c>
+      <c r="G639">
+        <v>0</v>
+      </c>
+      <c r="H639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>638</v>
+      </c>
+      <c r="B640">
+        <v>978000</v>
+      </c>
+      <c r="C640">
+        <v>35</v>
+      </c>
+      <c r="D640">
+        <v>2676</v>
+      </c>
+      <c r="E640">
+        <v>36</v>
+      </c>
+      <c r="F640">
+        <v>2568</v>
+      </c>
+      <c r="G640">
+        <v>0</v>
+      </c>
+      <c r="H640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>639</v>
+      </c>
+      <c r="B641">
+        <v>979500</v>
+      </c>
+      <c r="C641">
+        <v>35</v>
+      </c>
+      <c r="D641">
+        <v>2680</v>
+      </c>
+      <c r="E641">
+        <v>36</v>
+      </c>
+      <c r="F641">
+        <v>2572</v>
+      </c>
+      <c r="G641">
+        <v>0</v>
+      </c>
+      <c r="H641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>640</v>
+      </c>
+      <c r="B642">
+        <v>981000</v>
+      </c>
+      <c r="C642">
+        <v>35</v>
+      </c>
+      <c r="D642">
+        <v>2684</v>
+      </c>
+      <c r="E642">
+        <v>36</v>
+      </c>
+      <c r="F642">
+        <v>2576</v>
+      </c>
+      <c r="G642">
+        <v>0</v>
+      </c>
+      <c r="H642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>641</v>
+      </c>
+      <c r="B643">
+        <v>982500</v>
+      </c>
+      <c r="C643">
+        <v>35</v>
+      </c>
+      <c r="D643">
+        <v>2688</v>
+      </c>
+      <c r="E643">
+        <v>36</v>
+      </c>
+      <c r="F643">
+        <v>2580</v>
+      </c>
+      <c r="G643">
+        <v>0</v>
+      </c>
+      <c r="H643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>642</v>
+      </c>
+      <c r="B644">
+        <v>984000</v>
+      </c>
+      <c r="C644">
+        <v>35</v>
+      </c>
+      <c r="D644">
+        <v>2692</v>
+      </c>
+      <c r="E644">
+        <v>36</v>
+      </c>
+      <c r="F644">
+        <v>2584</v>
+      </c>
+      <c r="G644">
+        <v>0</v>
+      </c>
+      <c r="H644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>643</v>
+      </c>
+      <c r="B645">
+        <v>985500</v>
+      </c>
+      <c r="C645">
+        <v>35</v>
+      </c>
+      <c r="D645">
+        <v>2696</v>
+      </c>
+      <c r="E645">
+        <v>36</v>
+      </c>
+      <c r="F645">
+        <v>2588</v>
+      </c>
+      <c r="G645">
+        <v>0</v>
+      </c>
+      <c r="H645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>644</v>
+      </c>
+      <c r="B646">
+        <v>987000</v>
+      </c>
+      <c r="C646">
+        <v>35</v>
+      </c>
+      <c r="D646">
+        <v>2700</v>
+      </c>
+      <c r="E646">
+        <v>36</v>
+      </c>
+      <c r="F646">
+        <v>2592</v>
+      </c>
+      <c r="G646">
+        <v>0</v>
+      </c>
+      <c r="H646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>645</v>
+      </c>
+      <c r="B647">
+        <v>988500</v>
+      </c>
+      <c r="C647">
+        <v>35</v>
+      </c>
+      <c r="D647">
+        <v>2704</v>
+      </c>
+      <c r="E647">
+        <v>36</v>
+      </c>
+      <c r="F647">
+        <v>2596</v>
+      </c>
+      <c r="G647">
+        <v>0</v>
+      </c>
+      <c r="H647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>646</v>
+      </c>
+      <c r="B648">
+        <v>990000</v>
+      </c>
+      <c r="C648">
+        <v>35</v>
+      </c>
+      <c r="D648">
+        <v>2708</v>
+      </c>
+      <c r="E648">
+        <v>36</v>
+      </c>
+      <c r="F648">
+        <v>2600</v>
+      </c>
+      <c r="G648">
+        <v>0</v>
+      </c>
+      <c r="H648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>647</v>
+      </c>
+      <c r="B649">
+        <v>991500</v>
+      </c>
+      <c r="C649">
+        <v>35</v>
+      </c>
+      <c r="D649">
+        <v>2712</v>
+      </c>
+      <c r="E649">
+        <v>36</v>
+      </c>
+      <c r="F649">
+        <v>2604</v>
+      </c>
+      <c r="G649">
+        <v>0</v>
+      </c>
+      <c r="H649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>648</v>
+      </c>
+      <c r="B650">
+        <v>993000</v>
+      </c>
+      <c r="C650">
+        <v>35</v>
+      </c>
+      <c r="D650">
+        <v>2716</v>
+      </c>
+      <c r="E650">
+        <v>36</v>
+      </c>
+      <c r="F650">
+        <v>2608</v>
+      </c>
+      <c r="G650">
+        <v>0</v>
+      </c>
+      <c r="H650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>649</v>
+      </c>
+      <c r="B651">
+        <v>994500</v>
+      </c>
+      <c r="C651">
+        <v>35</v>
+      </c>
+      <c r="D651">
+        <v>2720</v>
+      </c>
+      <c r="E651">
+        <v>36</v>
+      </c>
+      <c r="F651">
+        <v>2612</v>
+      </c>
+      <c r="G651">
+        <v>0</v>
+      </c>
+      <c r="H651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>650</v>
+      </c>
+      <c r="B652">
+        <v>996000</v>
+      </c>
+      <c r="C652">
+        <v>35</v>
+      </c>
+      <c r="D652">
+        <v>2724</v>
+      </c>
+      <c r="E652">
+        <v>36</v>
+      </c>
+      <c r="F652">
+        <v>2616</v>
+      </c>
+      <c r="G652">
+        <v>0</v>
+      </c>
+      <c r="H652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>651</v>
+      </c>
+      <c r="B653">
+        <v>997500</v>
+      </c>
+      <c r="C653">
+        <v>35</v>
+      </c>
+      <c r="D653">
+        <v>2728</v>
+      </c>
+      <c r="E653">
+        <v>36</v>
+      </c>
+      <c r="F653">
+        <v>2620</v>
+      </c>
+      <c r="G653">
+        <v>0</v>
+      </c>
+      <c r="H653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>652</v>
+      </c>
+      <c r="B654">
+        <v>999000</v>
+      </c>
+      <c r="C654">
+        <v>35</v>
+      </c>
+      <c r="D654">
+        <v>2732</v>
+      </c>
+      <c r="E654">
+        <v>36</v>
+      </c>
+      <c r="F654">
+        <v>2624</v>
+      </c>
+      <c r="G654">
+        <v>0</v>
+      </c>
+      <c r="H654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>653</v>
+      </c>
+      <c r="B655">
+        <v>1000500</v>
+      </c>
+      <c r="C655">
+        <v>35</v>
+      </c>
+      <c r="D655">
+        <v>2736</v>
+      </c>
+      <c r="E655">
+        <v>36</v>
+      </c>
+      <c r="F655">
+        <v>2628</v>
+      </c>
+      <c r="G655">
+        <v>0</v>
+      </c>
+      <c r="H655">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD6DC0D-767A-422B-A403-902A4D6B5B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1018580F-CE36-4943-AC2C-4C1DE5E119D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H655"/>
+  <dimension ref="A1:H722"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B651" sqref="B651"/>
+      <pane ySplit="1" topLeftCell="A699" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B712" sqref="B712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17482,6 +17482,1748 @@
         <v>0</v>
       </c>
     </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>654</v>
+      </c>
+      <c r="B656">
+        <v>1002000</v>
+      </c>
+      <c r="C656">
+        <v>35</v>
+      </c>
+      <c r="D656">
+        <v>2740</v>
+      </c>
+      <c r="E656">
+        <v>36</v>
+      </c>
+      <c r="F656">
+        <v>2632</v>
+      </c>
+      <c r="G656">
+        <v>0</v>
+      </c>
+      <c r="H656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>655</v>
+      </c>
+      <c r="B657">
+        <v>1003500</v>
+      </c>
+      <c r="C657">
+        <v>35</v>
+      </c>
+      <c r="D657">
+        <v>2744</v>
+      </c>
+      <c r="E657">
+        <v>36</v>
+      </c>
+      <c r="F657">
+        <v>2636</v>
+      </c>
+      <c r="G657">
+        <v>0</v>
+      </c>
+      <c r="H657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>656</v>
+      </c>
+      <c r="B658">
+        <v>1005000</v>
+      </c>
+      <c r="C658">
+        <v>35</v>
+      </c>
+      <c r="D658">
+        <v>2748</v>
+      </c>
+      <c r="E658">
+        <v>36</v>
+      </c>
+      <c r="F658">
+        <v>2640</v>
+      </c>
+      <c r="G658">
+        <v>0</v>
+      </c>
+      <c r="H658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>657</v>
+      </c>
+      <c r="B659">
+        <v>1006500</v>
+      </c>
+      <c r="C659">
+        <v>35</v>
+      </c>
+      <c r="D659">
+        <v>2752</v>
+      </c>
+      <c r="E659">
+        <v>36</v>
+      </c>
+      <c r="F659">
+        <v>2644</v>
+      </c>
+      <c r="G659">
+        <v>0</v>
+      </c>
+      <c r="H659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>658</v>
+      </c>
+      <c r="B660">
+        <v>1008000</v>
+      </c>
+      <c r="C660">
+        <v>35</v>
+      </c>
+      <c r="D660">
+        <v>2756</v>
+      </c>
+      <c r="E660">
+        <v>36</v>
+      </c>
+      <c r="F660">
+        <v>2648</v>
+      </c>
+      <c r="G660">
+        <v>0</v>
+      </c>
+      <c r="H660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>659</v>
+      </c>
+      <c r="B661">
+        <v>1009500</v>
+      </c>
+      <c r="C661">
+        <v>35</v>
+      </c>
+      <c r="D661">
+        <v>2760</v>
+      </c>
+      <c r="E661">
+        <v>36</v>
+      </c>
+      <c r="F661">
+        <v>2652</v>
+      </c>
+      <c r="G661">
+        <v>0</v>
+      </c>
+      <c r="H661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>660</v>
+      </c>
+      <c r="B662">
+        <v>1011000</v>
+      </c>
+      <c r="C662">
+        <v>35</v>
+      </c>
+      <c r="D662">
+        <v>2764</v>
+      </c>
+      <c r="E662">
+        <v>36</v>
+      </c>
+      <c r="F662">
+        <v>2656</v>
+      </c>
+      <c r="G662">
+        <v>0</v>
+      </c>
+      <c r="H662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>661</v>
+      </c>
+      <c r="B663">
+        <v>1012500</v>
+      </c>
+      <c r="C663">
+        <v>35</v>
+      </c>
+      <c r="D663">
+        <v>2768</v>
+      </c>
+      <c r="E663">
+        <v>36</v>
+      </c>
+      <c r="F663">
+        <v>2660</v>
+      </c>
+      <c r="G663">
+        <v>0</v>
+      </c>
+      <c r="H663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>662</v>
+      </c>
+      <c r="B664">
+        <v>1014000</v>
+      </c>
+      <c r="C664">
+        <v>35</v>
+      </c>
+      <c r="D664">
+        <v>2772</v>
+      </c>
+      <c r="E664">
+        <v>36</v>
+      </c>
+      <c r="F664">
+        <v>2664</v>
+      </c>
+      <c r="G664">
+        <v>0</v>
+      </c>
+      <c r="H664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>663</v>
+      </c>
+      <c r="B665">
+        <v>1015500</v>
+      </c>
+      <c r="C665">
+        <v>35</v>
+      </c>
+      <c r="D665">
+        <v>2776</v>
+      </c>
+      <c r="E665">
+        <v>36</v>
+      </c>
+      <c r="F665">
+        <v>2668</v>
+      </c>
+      <c r="G665">
+        <v>0</v>
+      </c>
+      <c r="H665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>664</v>
+      </c>
+      <c r="B666">
+        <v>1017000</v>
+      </c>
+      <c r="C666">
+        <v>35</v>
+      </c>
+      <c r="D666">
+        <v>2780</v>
+      </c>
+      <c r="E666">
+        <v>36</v>
+      </c>
+      <c r="F666">
+        <v>2672</v>
+      </c>
+      <c r="G666">
+        <v>0</v>
+      </c>
+      <c r="H666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>665</v>
+      </c>
+      <c r="B667">
+        <v>1018500</v>
+      </c>
+      <c r="C667">
+        <v>35</v>
+      </c>
+      <c r="D667">
+        <v>2784</v>
+      </c>
+      <c r="E667">
+        <v>36</v>
+      </c>
+      <c r="F667">
+        <v>2676</v>
+      </c>
+      <c r="G667">
+        <v>0</v>
+      </c>
+      <c r="H667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>666</v>
+      </c>
+      <c r="B668">
+        <v>1020000</v>
+      </c>
+      <c r="C668">
+        <v>35</v>
+      </c>
+      <c r="D668">
+        <v>2788</v>
+      </c>
+      <c r="E668">
+        <v>36</v>
+      </c>
+      <c r="F668">
+        <v>2680</v>
+      </c>
+      <c r="G668">
+        <v>0</v>
+      </c>
+      <c r="H668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>667</v>
+      </c>
+      <c r="B669">
+        <v>1021500</v>
+      </c>
+      <c r="C669">
+        <v>35</v>
+      </c>
+      <c r="D669">
+        <v>2792</v>
+      </c>
+      <c r="E669">
+        <v>36</v>
+      </c>
+      <c r="F669">
+        <v>2684</v>
+      </c>
+      <c r="G669">
+        <v>0</v>
+      </c>
+      <c r="H669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>668</v>
+      </c>
+      <c r="B670">
+        <v>1023000</v>
+      </c>
+      <c r="C670">
+        <v>35</v>
+      </c>
+      <c r="D670">
+        <v>2796</v>
+      </c>
+      <c r="E670">
+        <v>36</v>
+      </c>
+      <c r="F670">
+        <v>2688</v>
+      </c>
+      <c r="G670">
+        <v>0</v>
+      </c>
+      <c r="H670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>669</v>
+      </c>
+      <c r="B671">
+        <v>1024500</v>
+      </c>
+      <c r="C671">
+        <v>35</v>
+      </c>
+      <c r="D671">
+        <v>2800</v>
+      </c>
+      <c r="E671">
+        <v>36</v>
+      </c>
+      <c r="F671">
+        <v>2692</v>
+      </c>
+      <c r="G671">
+        <v>0</v>
+      </c>
+      <c r="H671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>670</v>
+      </c>
+      <c r="B672">
+        <v>1026000</v>
+      </c>
+      <c r="C672">
+        <v>35</v>
+      </c>
+      <c r="D672">
+        <v>2804</v>
+      </c>
+      <c r="E672">
+        <v>36</v>
+      </c>
+      <c r="F672">
+        <v>2696</v>
+      </c>
+      <c r="G672">
+        <v>0</v>
+      </c>
+      <c r="H672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>671</v>
+      </c>
+      <c r="B673">
+        <v>1027500</v>
+      </c>
+      <c r="C673">
+        <v>35</v>
+      </c>
+      <c r="D673">
+        <v>2808</v>
+      </c>
+      <c r="E673">
+        <v>36</v>
+      </c>
+      <c r="F673">
+        <v>2700</v>
+      </c>
+      <c r="G673">
+        <v>0</v>
+      </c>
+      <c r="H673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>672</v>
+      </c>
+      <c r="B674">
+        <v>1029000</v>
+      </c>
+      <c r="C674">
+        <v>35</v>
+      </c>
+      <c r="D674">
+        <v>2812</v>
+      </c>
+      <c r="E674">
+        <v>36</v>
+      </c>
+      <c r="F674">
+        <v>2704</v>
+      </c>
+      <c r="G674">
+        <v>0</v>
+      </c>
+      <c r="H674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>673</v>
+      </c>
+      <c r="B675">
+        <v>1030500</v>
+      </c>
+      <c r="C675">
+        <v>35</v>
+      </c>
+      <c r="D675">
+        <v>2816</v>
+      </c>
+      <c r="E675">
+        <v>36</v>
+      </c>
+      <c r="F675">
+        <v>2708</v>
+      </c>
+      <c r="G675">
+        <v>0</v>
+      </c>
+      <c r="H675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>674</v>
+      </c>
+      <c r="B676">
+        <v>1032000</v>
+      </c>
+      <c r="C676">
+        <v>35</v>
+      </c>
+      <c r="D676">
+        <v>2820</v>
+      </c>
+      <c r="E676">
+        <v>36</v>
+      </c>
+      <c r="F676">
+        <v>2712</v>
+      </c>
+      <c r="G676">
+        <v>0</v>
+      </c>
+      <c r="H676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>675</v>
+      </c>
+      <c r="B677">
+        <v>1033500</v>
+      </c>
+      <c r="C677">
+        <v>35</v>
+      </c>
+      <c r="D677">
+        <v>2824</v>
+      </c>
+      <c r="E677">
+        <v>36</v>
+      </c>
+      <c r="F677">
+        <v>2716</v>
+      </c>
+      <c r="G677">
+        <v>0</v>
+      </c>
+      <c r="H677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>676</v>
+      </c>
+      <c r="B678">
+        <v>1035000</v>
+      </c>
+      <c r="C678">
+        <v>35</v>
+      </c>
+      <c r="D678">
+        <v>2828</v>
+      </c>
+      <c r="E678">
+        <v>36</v>
+      </c>
+      <c r="F678">
+        <v>2720</v>
+      </c>
+      <c r="G678">
+        <v>0</v>
+      </c>
+      <c r="H678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>677</v>
+      </c>
+      <c r="B679">
+        <v>1036500</v>
+      </c>
+      <c r="C679">
+        <v>35</v>
+      </c>
+      <c r="D679">
+        <v>2832</v>
+      </c>
+      <c r="E679">
+        <v>36</v>
+      </c>
+      <c r="F679">
+        <v>2724</v>
+      </c>
+      <c r="G679">
+        <v>0</v>
+      </c>
+      <c r="H679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>678</v>
+      </c>
+      <c r="B680">
+        <v>1038000</v>
+      </c>
+      <c r="C680">
+        <v>35</v>
+      </c>
+      <c r="D680">
+        <v>2836</v>
+      </c>
+      <c r="E680">
+        <v>36</v>
+      </c>
+      <c r="F680">
+        <v>2728</v>
+      </c>
+      <c r="G680">
+        <v>0</v>
+      </c>
+      <c r="H680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>679</v>
+      </c>
+      <c r="B681">
+        <v>1039500</v>
+      </c>
+      <c r="C681">
+        <v>35</v>
+      </c>
+      <c r="D681">
+        <v>2840</v>
+      </c>
+      <c r="E681">
+        <v>36</v>
+      </c>
+      <c r="F681">
+        <v>2732</v>
+      </c>
+      <c r="G681">
+        <v>0</v>
+      </c>
+      <c r="H681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>680</v>
+      </c>
+      <c r="B682">
+        <v>1041000</v>
+      </c>
+      <c r="C682">
+        <v>35</v>
+      </c>
+      <c r="D682">
+        <v>2844</v>
+      </c>
+      <c r="E682">
+        <v>36</v>
+      </c>
+      <c r="F682">
+        <v>2736</v>
+      </c>
+      <c r="G682">
+        <v>0</v>
+      </c>
+      <c r="H682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>681</v>
+      </c>
+      <c r="B683">
+        <v>1042500</v>
+      </c>
+      <c r="C683">
+        <v>35</v>
+      </c>
+      <c r="D683">
+        <v>2848</v>
+      </c>
+      <c r="E683">
+        <v>36</v>
+      </c>
+      <c r="F683">
+        <v>2740</v>
+      </c>
+      <c r="G683">
+        <v>0</v>
+      </c>
+      <c r="H683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>682</v>
+      </c>
+      <c r="B684">
+        <v>1044000</v>
+      </c>
+      <c r="C684">
+        <v>35</v>
+      </c>
+      <c r="D684">
+        <v>2852</v>
+      </c>
+      <c r="E684">
+        <v>36</v>
+      </c>
+      <c r="F684">
+        <v>2744</v>
+      </c>
+      <c r="G684">
+        <v>0</v>
+      </c>
+      <c r="H684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>683</v>
+      </c>
+      <c r="B685">
+        <v>1045500</v>
+      </c>
+      <c r="C685">
+        <v>35</v>
+      </c>
+      <c r="D685">
+        <v>2856</v>
+      </c>
+      <c r="E685">
+        <v>36</v>
+      </c>
+      <c r="F685">
+        <v>2748</v>
+      </c>
+      <c r="G685">
+        <v>0</v>
+      </c>
+      <c r="H685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>684</v>
+      </c>
+      <c r="B686">
+        <v>1047000</v>
+      </c>
+      <c r="C686">
+        <v>35</v>
+      </c>
+      <c r="D686">
+        <v>2860</v>
+      </c>
+      <c r="E686">
+        <v>36</v>
+      </c>
+      <c r="F686">
+        <v>2752</v>
+      </c>
+      <c r="G686">
+        <v>0</v>
+      </c>
+      <c r="H686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>685</v>
+      </c>
+      <c r="B687">
+        <v>1048500</v>
+      </c>
+      <c r="C687">
+        <v>35</v>
+      </c>
+      <c r="D687">
+        <v>2864</v>
+      </c>
+      <c r="E687">
+        <v>36</v>
+      </c>
+      <c r="F687">
+        <v>2756</v>
+      </c>
+      <c r="G687">
+        <v>0</v>
+      </c>
+      <c r="H687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>686</v>
+      </c>
+      <c r="B688">
+        <v>1050000</v>
+      </c>
+      <c r="C688">
+        <v>35</v>
+      </c>
+      <c r="D688">
+        <v>2868</v>
+      </c>
+      <c r="E688">
+        <v>36</v>
+      </c>
+      <c r="F688">
+        <v>2760</v>
+      </c>
+      <c r="G688">
+        <v>0</v>
+      </c>
+      <c r="H688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>687</v>
+      </c>
+      <c r="B689">
+        <v>1051500</v>
+      </c>
+      <c r="C689">
+        <v>35</v>
+      </c>
+      <c r="D689">
+        <v>2872</v>
+      </c>
+      <c r="E689">
+        <v>36</v>
+      </c>
+      <c r="F689">
+        <v>2764</v>
+      </c>
+      <c r="G689">
+        <v>0</v>
+      </c>
+      <c r="H689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>688</v>
+      </c>
+      <c r="B690">
+        <v>1053000</v>
+      </c>
+      <c r="C690">
+        <v>35</v>
+      </c>
+      <c r="D690">
+        <v>2876</v>
+      </c>
+      <c r="E690">
+        <v>36</v>
+      </c>
+      <c r="F690">
+        <v>2768</v>
+      </c>
+      <c r="G690">
+        <v>0</v>
+      </c>
+      <c r="H690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>689</v>
+      </c>
+      <c r="B691">
+        <v>1054500</v>
+      </c>
+      <c r="C691">
+        <v>35</v>
+      </c>
+      <c r="D691">
+        <v>2880</v>
+      </c>
+      <c r="E691">
+        <v>36</v>
+      </c>
+      <c r="F691">
+        <v>2772</v>
+      </c>
+      <c r="G691">
+        <v>0</v>
+      </c>
+      <c r="H691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>690</v>
+      </c>
+      <c r="B692">
+        <v>1056000</v>
+      </c>
+      <c r="C692">
+        <v>35</v>
+      </c>
+      <c r="D692">
+        <v>2884</v>
+      </c>
+      <c r="E692">
+        <v>36</v>
+      </c>
+      <c r="F692">
+        <v>2776</v>
+      </c>
+      <c r="G692">
+        <v>0</v>
+      </c>
+      <c r="H692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>691</v>
+      </c>
+      <c r="B693">
+        <v>1057500</v>
+      </c>
+      <c r="C693">
+        <v>35</v>
+      </c>
+      <c r="D693">
+        <v>2888</v>
+      </c>
+      <c r="E693">
+        <v>36</v>
+      </c>
+      <c r="F693">
+        <v>2780</v>
+      </c>
+      <c r="G693">
+        <v>0</v>
+      </c>
+      <c r="H693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>692</v>
+      </c>
+      <c r="B694">
+        <v>1059000</v>
+      </c>
+      <c r="C694">
+        <v>35</v>
+      </c>
+      <c r="D694">
+        <v>2892</v>
+      </c>
+      <c r="E694">
+        <v>36</v>
+      </c>
+      <c r="F694">
+        <v>2784</v>
+      </c>
+      <c r="G694">
+        <v>0</v>
+      </c>
+      <c r="H694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>693</v>
+      </c>
+      <c r="B695">
+        <v>1060500</v>
+      </c>
+      <c r="C695">
+        <v>35</v>
+      </c>
+      <c r="D695">
+        <v>2896</v>
+      </c>
+      <c r="E695">
+        <v>36</v>
+      </c>
+      <c r="F695">
+        <v>2788</v>
+      </c>
+      <c r="G695">
+        <v>0</v>
+      </c>
+      <c r="H695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>694</v>
+      </c>
+      <c r="B696">
+        <v>1062000</v>
+      </c>
+      <c r="C696">
+        <v>35</v>
+      </c>
+      <c r="D696">
+        <v>2900</v>
+      </c>
+      <c r="E696">
+        <v>36</v>
+      </c>
+      <c r="F696">
+        <v>2792</v>
+      </c>
+      <c r="G696">
+        <v>0</v>
+      </c>
+      <c r="H696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>695</v>
+      </c>
+      <c r="B697">
+        <v>1063500</v>
+      </c>
+      <c r="C697">
+        <v>35</v>
+      </c>
+      <c r="D697">
+        <v>2904</v>
+      </c>
+      <c r="E697">
+        <v>36</v>
+      </c>
+      <c r="F697">
+        <v>2796</v>
+      </c>
+      <c r="G697">
+        <v>0</v>
+      </c>
+      <c r="H697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>696</v>
+      </c>
+      <c r="B698">
+        <v>1065000</v>
+      </c>
+      <c r="C698">
+        <v>35</v>
+      </c>
+      <c r="D698">
+        <v>2908</v>
+      </c>
+      <c r="E698">
+        <v>36</v>
+      </c>
+      <c r="F698">
+        <v>2800</v>
+      </c>
+      <c r="G698">
+        <v>0</v>
+      </c>
+      <c r="H698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>697</v>
+      </c>
+      <c r="B699">
+        <v>1066500</v>
+      </c>
+      <c r="C699">
+        <v>35</v>
+      </c>
+      <c r="D699">
+        <v>2912</v>
+      </c>
+      <c r="E699">
+        <v>36</v>
+      </c>
+      <c r="F699">
+        <v>2804</v>
+      </c>
+      <c r="G699">
+        <v>0</v>
+      </c>
+      <c r="H699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>698</v>
+      </c>
+      <c r="B700">
+        <v>1068000</v>
+      </c>
+      <c r="C700">
+        <v>35</v>
+      </c>
+      <c r="D700">
+        <v>2916</v>
+      </c>
+      <c r="E700">
+        <v>36</v>
+      </c>
+      <c r="F700">
+        <v>2808</v>
+      </c>
+      <c r="G700">
+        <v>0</v>
+      </c>
+      <c r="H700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>699</v>
+      </c>
+      <c r="B701">
+        <v>1069500</v>
+      </c>
+      <c r="C701">
+        <v>35</v>
+      </c>
+      <c r="D701">
+        <v>2920</v>
+      </c>
+      <c r="E701">
+        <v>36</v>
+      </c>
+      <c r="F701">
+        <v>2812</v>
+      </c>
+      <c r="G701">
+        <v>0</v>
+      </c>
+      <c r="H701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>700</v>
+      </c>
+      <c r="B702">
+        <v>1071000</v>
+      </c>
+      <c r="C702">
+        <v>35</v>
+      </c>
+      <c r="D702">
+        <v>2924</v>
+      </c>
+      <c r="E702">
+        <v>36</v>
+      </c>
+      <c r="F702">
+        <v>2816</v>
+      </c>
+      <c r="G702">
+        <v>0</v>
+      </c>
+      <c r="H702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>701</v>
+      </c>
+      <c r="B703">
+        <v>1072500</v>
+      </c>
+      <c r="C703">
+        <v>35</v>
+      </c>
+      <c r="D703">
+        <v>2928</v>
+      </c>
+      <c r="E703">
+        <v>36</v>
+      </c>
+      <c r="F703">
+        <v>2820</v>
+      </c>
+      <c r="G703">
+        <v>0</v>
+      </c>
+      <c r="H703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>702</v>
+      </c>
+      <c r="B704">
+        <v>1074000</v>
+      </c>
+      <c r="C704">
+        <v>35</v>
+      </c>
+      <c r="D704">
+        <v>2932</v>
+      </c>
+      <c r="E704">
+        <v>36</v>
+      </c>
+      <c r="F704">
+        <v>2824</v>
+      </c>
+      <c r="G704">
+        <v>0</v>
+      </c>
+      <c r="H704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>703</v>
+      </c>
+      <c r="B705">
+        <v>1075500</v>
+      </c>
+      <c r="C705">
+        <v>35</v>
+      </c>
+      <c r="D705">
+        <v>2936</v>
+      </c>
+      <c r="E705">
+        <v>36</v>
+      </c>
+      <c r="F705">
+        <v>2828</v>
+      </c>
+      <c r="G705">
+        <v>0</v>
+      </c>
+      <c r="H705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>704</v>
+      </c>
+      <c r="B706">
+        <v>1077000</v>
+      </c>
+      <c r="C706">
+        <v>35</v>
+      </c>
+      <c r="D706">
+        <v>2940</v>
+      </c>
+      <c r="E706">
+        <v>36</v>
+      </c>
+      <c r="F706">
+        <v>2832</v>
+      </c>
+      <c r="G706">
+        <v>0</v>
+      </c>
+      <c r="H706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>705</v>
+      </c>
+      <c r="B707">
+        <v>1078500</v>
+      </c>
+      <c r="C707">
+        <v>35</v>
+      </c>
+      <c r="D707">
+        <v>2944</v>
+      </c>
+      <c r="E707">
+        <v>36</v>
+      </c>
+      <c r="F707">
+        <v>2836</v>
+      </c>
+      <c r="G707">
+        <v>0</v>
+      </c>
+      <c r="H707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>706</v>
+      </c>
+      <c r="B708">
+        <v>1080000</v>
+      </c>
+      <c r="C708">
+        <v>35</v>
+      </c>
+      <c r="D708">
+        <v>2948</v>
+      </c>
+      <c r="E708">
+        <v>36</v>
+      </c>
+      <c r="F708">
+        <v>2840</v>
+      </c>
+      <c r="G708">
+        <v>0</v>
+      </c>
+      <c r="H708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>707</v>
+      </c>
+      <c r="B709">
+        <v>1081500</v>
+      </c>
+      <c r="C709">
+        <v>35</v>
+      </c>
+      <c r="D709">
+        <v>2952</v>
+      </c>
+      <c r="E709">
+        <v>36</v>
+      </c>
+      <c r="F709">
+        <v>2844</v>
+      </c>
+      <c r="G709">
+        <v>0</v>
+      </c>
+      <c r="H709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>708</v>
+      </c>
+      <c r="B710">
+        <v>1083000</v>
+      </c>
+      <c r="C710">
+        <v>35</v>
+      </c>
+      <c r="D710">
+        <v>2956</v>
+      </c>
+      <c r="E710">
+        <v>36</v>
+      </c>
+      <c r="F710">
+        <v>2848</v>
+      </c>
+      <c r="G710">
+        <v>0</v>
+      </c>
+      <c r="H710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>709</v>
+      </c>
+      <c r="B711">
+        <v>1084500</v>
+      </c>
+      <c r="C711">
+        <v>35</v>
+      </c>
+      <c r="D711">
+        <v>2960</v>
+      </c>
+      <c r="E711">
+        <v>36</v>
+      </c>
+      <c r="F711">
+        <v>2852</v>
+      </c>
+      <c r="G711">
+        <v>0</v>
+      </c>
+      <c r="H711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>710</v>
+      </c>
+      <c r="B712">
+        <v>1086000</v>
+      </c>
+      <c r="C712">
+        <v>35</v>
+      </c>
+      <c r="D712">
+        <v>2964</v>
+      </c>
+      <c r="E712">
+        <v>36</v>
+      </c>
+      <c r="F712">
+        <v>2856</v>
+      </c>
+      <c r="G712">
+        <v>0</v>
+      </c>
+      <c r="H712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>711</v>
+      </c>
+      <c r="B713">
+        <v>1087500</v>
+      </c>
+      <c r="C713">
+        <v>35</v>
+      </c>
+      <c r="D713">
+        <v>2968</v>
+      </c>
+      <c r="E713">
+        <v>36</v>
+      </c>
+      <c r="F713">
+        <v>2860</v>
+      </c>
+      <c r="G713">
+        <v>0</v>
+      </c>
+      <c r="H713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>712</v>
+      </c>
+      <c r="B714">
+        <v>1089000</v>
+      </c>
+      <c r="C714">
+        <v>35</v>
+      </c>
+      <c r="D714">
+        <v>2972</v>
+      </c>
+      <c r="E714">
+        <v>36</v>
+      </c>
+      <c r="F714">
+        <v>2864</v>
+      </c>
+      <c r="G714">
+        <v>0</v>
+      </c>
+      <c r="H714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>713</v>
+      </c>
+      <c r="B715">
+        <v>1090500</v>
+      </c>
+      <c r="C715">
+        <v>35</v>
+      </c>
+      <c r="D715">
+        <v>2976</v>
+      </c>
+      <c r="E715">
+        <v>36</v>
+      </c>
+      <c r="F715">
+        <v>2868</v>
+      </c>
+      <c r="G715">
+        <v>0</v>
+      </c>
+      <c r="H715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>714</v>
+      </c>
+      <c r="B716">
+        <v>1092000</v>
+      </c>
+      <c r="C716">
+        <v>35</v>
+      </c>
+      <c r="D716">
+        <v>2980</v>
+      </c>
+      <c r="E716">
+        <v>36</v>
+      </c>
+      <c r="F716">
+        <v>2872</v>
+      </c>
+      <c r="G716">
+        <v>0</v>
+      </c>
+      <c r="H716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>715</v>
+      </c>
+      <c r="B717">
+        <v>1093500</v>
+      </c>
+      <c r="C717">
+        <v>35</v>
+      </c>
+      <c r="D717">
+        <v>2984</v>
+      </c>
+      <c r="E717">
+        <v>36</v>
+      </c>
+      <c r="F717">
+        <v>2876</v>
+      </c>
+      <c r="G717">
+        <v>0</v>
+      </c>
+      <c r="H717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>716</v>
+      </c>
+      <c r="B718">
+        <v>1095000</v>
+      </c>
+      <c r="C718">
+        <v>35</v>
+      </c>
+      <c r="D718">
+        <v>2988</v>
+      </c>
+      <c r="E718">
+        <v>36</v>
+      </c>
+      <c r="F718">
+        <v>2880</v>
+      </c>
+      <c r="G718">
+        <v>0</v>
+      </c>
+      <c r="H718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>717</v>
+      </c>
+      <c r="B719">
+        <v>1096500</v>
+      </c>
+      <c r="C719">
+        <v>35</v>
+      </c>
+      <c r="D719">
+        <v>2992</v>
+      </c>
+      <c r="E719">
+        <v>36</v>
+      </c>
+      <c r="F719">
+        <v>2884</v>
+      </c>
+      <c r="G719">
+        <v>0</v>
+      </c>
+      <c r="H719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>718</v>
+      </c>
+      <c r="B720">
+        <v>1098000</v>
+      </c>
+      <c r="C720">
+        <v>35</v>
+      </c>
+      <c r="D720">
+        <v>2996</v>
+      </c>
+      <c r="E720">
+        <v>36</v>
+      </c>
+      <c r="F720">
+        <v>2888</v>
+      </c>
+      <c r="G720">
+        <v>0</v>
+      </c>
+      <c r="H720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>719</v>
+      </c>
+      <c r="B721">
+        <v>1099500</v>
+      </c>
+      <c r="C721">
+        <v>35</v>
+      </c>
+      <c r="D721">
+        <v>3000</v>
+      </c>
+      <c r="E721">
+        <v>36</v>
+      </c>
+      <c r="F721">
+        <v>2892</v>
+      </c>
+      <c r="G721">
+        <v>0</v>
+      </c>
+      <c r="H721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>720</v>
+      </c>
+      <c r="B722">
+        <v>1101000</v>
+      </c>
+      <c r="C722">
+        <v>35</v>
+      </c>
+      <c r="D722">
+        <v>3004</v>
+      </c>
+      <c r="E722">
+        <v>36</v>
+      </c>
+      <c r="F722">
+        <v>2896</v>
+      </c>
+      <c r="G722">
+        <v>0</v>
+      </c>
+      <c r="H722">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1018580F-CE36-4943-AC2C-4C1DE5E119D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDDCEF-2E58-468F-9319-5669BC58F713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H722"/>
+  <dimension ref="A1:H988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A699" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B712" sqref="B712"/>
+      <pane ySplit="1" topLeftCell="A974" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B982" sqref="B982"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19224,6 +19224,6922 @@
         <v>0</v>
       </c>
     </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>721</v>
+      </c>
+      <c r="B723">
+        <v>1102500</v>
+      </c>
+      <c r="C723">
+        <v>35</v>
+      </c>
+      <c r="D723">
+        <v>3008</v>
+      </c>
+      <c r="E723">
+        <v>36</v>
+      </c>
+      <c r="F723">
+        <v>2900</v>
+      </c>
+      <c r="G723">
+        <v>0</v>
+      </c>
+      <c r="H723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>722</v>
+      </c>
+      <c r="B724">
+        <v>1104000</v>
+      </c>
+      <c r="C724">
+        <v>35</v>
+      </c>
+      <c r="D724">
+        <v>3012</v>
+      </c>
+      <c r="E724">
+        <v>36</v>
+      </c>
+      <c r="F724">
+        <v>2904</v>
+      </c>
+      <c r="G724">
+        <v>0</v>
+      </c>
+      <c r="H724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>723</v>
+      </c>
+      <c r="B725">
+        <v>1105500</v>
+      </c>
+      <c r="C725">
+        <v>35</v>
+      </c>
+      <c r="D725">
+        <v>3016</v>
+      </c>
+      <c r="E725">
+        <v>36</v>
+      </c>
+      <c r="F725">
+        <v>2908</v>
+      </c>
+      <c r="G725">
+        <v>0</v>
+      </c>
+      <c r="H725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>724</v>
+      </c>
+      <c r="B726">
+        <v>1107000</v>
+      </c>
+      <c r="C726">
+        <v>35</v>
+      </c>
+      <c r="D726">
+        <v>3020</v>
+      </c>
+      <c r="E726">
+        <v>36</v>
+      </c>
+      <c r="F726">
+        <v>2912</v>
+      </c>
+      <c r="G726">
+        <v>0</v>
+      </c>
+      <c r="H726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>725</v>
+      </c>
+      <c r="B727">
+        <v>1108500</v>
+      </c>
+      <c r="C727">
+        <v>35</v>
+      </c>
+      <c r="D727">
+        <v>3024</v>
+      </c>
+      <c r="E727">
+        <v>36</v>
+      </c>
+      <c r="F727">
+        <v>2916</v>
+      </c>
+      <c r="G727">
+        <v>0</v>
+      </c>
+      <c r="H727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>726</v>
+      </c>
+      <c r="B728">
+        <v>1110000</v>
+      </c>
+      <c r="C728">
+        <v>35</v>
+      </c>
+      <c r="D728">
+        <v>3028</v>
+      </c>
+      <c r="E728">
+        <v>36</v>
+      </c>
+      <c r="F728">
+        <v>2920</v>
+      </c>
+      <c r="G728">
+        <v>0</v>
+      </c>
+      <c r="H728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>727</v>
+      </c>
+      <c r="B729">
+        <v>1111500</v>
+      </c>
+      <c r="C729">
+        <v>35</v>
+      </c>
+      <c r="D729">
+        <v>3032</v>
+      </c>
+      <c r="E729">
+        <v>36</v>
+      </c>
+      <c r="F729">
+        <v>2924</v>
+      </c>
+      <c r="G729">
+        <v>0</v>
+      </c>
+      <c r="H729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>728</v>
+      </c>
+      <c r="B730">
+        <v>1113000</v>
+      </c>
+      <c r="C730">
+        <v>35</v>
+      </c>
+      <c r="D730">
+        <v>3036</v>
+      </c>
+      <c r="E730">
+        <v>36</v>
+      </c>
+      <c r="F730">
+        <v>2928</v>
+      </c>
+      <c r="G730">
+        <v>0</v>
+      </c>
+      <c r="H730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>729</v>
+      </c>
+      <c r="B731">
+        <v>1114500</v>
+      </c>
+      <c r="C731">
+        <v>35</v>
+      </c>
+      <c r="D731">
+        <v>3040</v>
+      </c>
+      <c r="E731">
+        <v>36</v>
+      </c>
+      <c r="F731">
+        <v>2932</v>
+      </c>
+      <c r="G731">
+        <v>0</v>
+      </c>
+      <c r="H731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>730</v>
+      </c>
+      <c r="B732">
+        <v>1116000</v>
+      </c>
+      <c r="C732">
+        <v>35</v>
+      </c>
+      <c r="D732">
+        <v>3044</v>
+      </c>
+      <c r="E732">
+        <v>36</v>
+      </c>
+      <c r="F732">
+        <v>2936</v>
+      </c>
+      <c r="G732">
+        <v>0</v>
+      </c>
+      <c r="H732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>731</v>
+      </c>
+      <c r="B733">
+        <v>1117500</v>
+      </c>
+      <c r="C733">
+        <v>35</v>
+      </c>
+      <c r="D733">
+        <v>3048</v>
+      </c>
+      <c r="E733">
+        <v>36</v>
+      </c>
+      <c r="F733">
+        <v>2940</v>
+      </c>
+      <c r="G733">
+        <v>0</v>
+      </c>
+      <c r="H733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>732</v>
+      </c>
+      <c r="B734">
+        <v>1119000</v>
+      </c>
+      <c r="C734">
+        <v>35</v>
+      </c>
+      <c r="D734">
+        <v>3052</v>
+      </c>
+      <c r="E734">
+        <v>36</v>
+      </c>
+      <c r="F734">
+        <v>2944</v>
+      </c>
+      <c r="G734">
+        <v>0</v>
+      </c>
+      <c r="H734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>733</v>
+      </c>
+      <c r="B735">
+        <v>1120500</v>
+      </c>
+      <c r="C735">
+        <v>35</v>
+      </c>
+      <c r="D735">
+        <v>3056</v>
+      </c>
+      <c r="E735">
+        <v>36</v>
+      </c>
+      <c r="F735">
+        <v>2948</v>
+      </c>
+      <c r="G735">
+        <v>0</v>
+      </c>
+      <c r="H735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>734</v>
+      </c>
+      <c r="B736">
+        <v>1122000</v>
+      </c>
+      <c r="C736">
+        <v>35</v>
+      </c>
+      <c r="D736">
+        <v>3060</v>
+      </c>
+      <c r="E736">
+        <v>36</v>
+      </c>
+      <c r="F736">
+        <v>2952</v>
+      </c>
+      <c r="G736">
+        <v>0</v>
+      </c>
+      <c r="H736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>735</v>
+      </c>
+      <c r="B737">
+        <v>1123500</v>
+      </c>
+      <c r="C737">
+        <v>35</v>
+      </c>
+      <c r="D737">
+        <v>3064</v>
+      </c>
+      <c r="E737">
+        <v>36</v>
+      </c>
+      <c r="F737">
+        <v>2956</v>
+      </c>
+      <c r="G737">
+        <v>0</v>
+      </c>
+      <c r="H737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>736</v>
+      </c>
+      <c r="B738">
+        <v>1125000</v>
+      </c>
+      <c r="C738">
+        <v>35</v>
+      </c>
+      <c r="D738">
+        <v>3068</v>
+      </c>
+      <c r="E738">
+        <v>36</v>
+      </c>
+      <c r="F738">
+        <v>2960</v>
+      </c>
+      <c r="G738">
+        <v>0</v>
+      </c>
+      <c r="H738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>737</v>
+      </c>
+      <c r="B739">
+        <v>1126500</v>
+      </c>
+      <c r="C739">
+        <v>35</v>
+      </c>
+      <c r="D739">
+        <v>3072</v>
+      </c>
+      <c r="E739">
+        <v>36</v>
+      </c>
+      <c r="F739">
+        <v>2964</v>
+      </c>
+      <c r="G739">
+        <v>0</v>
+      </c>
+      <c r="H739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>738</v>
+      </c>
+      <c r="B740">
+        <v>1128000</v>
+      </c>
+      <c r="C740">
+        <v>35</v>
+      </c>
+      <c r="D740">
+        <v>3076</v>
+      </c>
+      <c r="E740">
+        <v>36</v>
+      </c>
+      <c r="F740">
+        <v>2968</v>
+      </c>
+      <c r="G740">
+        <v>0</v>
+      </c>
+      <c r="H740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>739</v>
+      </c>
+      <c r="B741">
+        <v>1129500</v>
+      </c>
+      <c r="C741">
+        <v>35</v>
+      </c>
+      <c r="D741">
+        <v>3080</v>
+      </c>
+      <c r="E741">
+        <v>36</v>
+      </c>
+      <c r="F741">
+        <v>2972</v>
+      </c>
+      <c r="G741">
+        <v>0</v>
+      </c>
+      <c r="H741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>740</v>
+      </c>
+      <c r="B742">
+        <v>1131000</v>
+      </c>
+      <c r="C742">
+        <v>35</v>
+      </c>
+      <c r="D742">
+        <v>3084</v>
+      </c>
+      <c r="E742">
+        <v>36</v>
+      </c>
+      <c r="F742">
+        <v>2976</v>
+      </c>
+      <c r="G742">
+        <v>0</v>
+      </c>
+      <c r="H742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>741</v>
+      </c>
+      <c r="B743">
+        <v>1132500</v>
+      </c>
+      <c r="C743">
+        <v>35</v>
+      </c>
+      <c r="D743">
+        <v>3088</v>
+      </c>
+      <c r="E743">
+        <v>36</v>
+      </c>
+      <c r="F743">
+        <v>2980</v>
+      </c>
+      <c r="G743">
+        <v>0</v>
+      </c>
+      <c r="H743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>742</v>
+      </c>
+      <c r="B744">
+        <v>1134000</v>
+      </c>
+      <c r="C744">
+        <v>35</v>
+      </c>
+      <c r="D744">
+        <v>3092</v>
+      </c>
+      <c r="E744">
+        <v>36</v>
+      </c>
+      <c r="F744">
+        <v>2984</v>
+      </c>
+      <c r="G744">
+        <v>0</v>
+      </c>
+      <c r="H744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>743</v>
+      </c>
+      <c r="B745">
+        <v>1135500</v>
+      </c>
+      <c r="C745">
+        <v>35</v>
+      </c>
+      <c r="D745">
+        <v>3096</v>
+      </c>
+      <c r="E745">
+        <v>36</v>
+      </c>
+      <c r="F745">
+        <v>2988</v>
+      </c>
+      <c r="G745">
+        <v>0</v>
+      </c>
+      <c r="H745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>744</v>
+      </c>
+      <c r="B746">
+        <v>1137000</v>
+      </c>
+      <c r="C746">
+        <v>35</v>
+      </c>
+      <c r="D746">
+        <v>3100</v>
+      </c>
+      <c r="E746">
+        <v>36</v>
+      </c>
+      <c r="F746">
+        <v>2992</v>
+      </c>
+      <c r="G746">
+        <v>0</v>
+      </c>
+      <c r="H746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>745</v>
+      </c>
+      <c r="B747">
+        <v>1138500</v>
+      </c>
+      <c r="C747">
+        <v>35</v>
+      </c>
+      <c r="D747">
+        <v>3104</v>
+      </c>
+      <c r="E747">
+        <v>36</v>
+      </c>
+      <c r="F747">
+        <v>2996</v>
+      </c>
+      <c r="G747">
+        <v>0</v>
+      </c>
+      <c r="H747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>746</v>
+      </c>
+      <c r="B748">
+        <v>1140000</v>
+      </c>
+      <c r="C748">
+        <v>35</v>
+      </c>
+      <c r="D748">
+        <v>3108</v>
+      </c>
+      <c r="E748">
+        <v>36</v>
+      </c>
+      <c r="F748">
+        <v>3000</v>
+      </c>
+      <c r="G748">
+        <v>0</v>
+      </c>
+      <c r="H748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>747</v>
+      </c>
+      <c r="B749">
+        <v>1141500</v>
+      </c>
+      <c r="C749">
+        <v>35</v>
+      </c>
+      <c r="D749">
+        <v>3112</v>
+      </c>
+      <c r="E749">
+        <v>36</v>
+      </c>
+      <c r="F749">
+        <v>3004</v>
+      </c>
+      <c r="G749">
+        <v>0</v>
+      </c>
+      <c r="H749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>748</v>
+      </c>
+      <c r="B750">
+        <v>1143000</v>
+      </c>
+      <c r="C750">
+        <v>35</v>
+      </c>
+      <c r="D750">
+        <v>3116</v>
+      </c>
+      <c r="E750">
+        <v>36</v>
+      </c>
+      <c r="F750">
+        <v>3008</v>
+      </c>
+      <c r="G750">
+        <v>0</v>
+      </c>
+      <c r="H750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>749</v>
+      </c>
+      <c r="B751">
+        <v>1144500</v>
+      </c>
+      <c r="C751">
+        <v>35</v>
+      </c>
+      <c r="D751">
+        <v>3120</v>
+      </c>
+      <c r="E751">
+        <v>36</v>
+      </c>
+      <c r="F751">
+        <v>3012</v>
+      </c>
+      <c r="G751">
+        <v>0</v>
+      </c>
+      <c r="H751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>750</v>
+      </c>
+      <c r="B752">
+        <v>1146000</v>
+      </c>
+      <c r="C752">
+        <v>35</v>
+      </c>
+      <c r="D752">
+        <v>3124</v>
+      </c>
+      <c r="E752">
+        <v>36</v>
+      </c>
+      <c r="F752">
+        <v>3016</v>
+      </c>
+      <c r="G752">
+        <v>0</v>
+      </c>
+      <c r="H752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>751</v>
+      </c>
+      <c r="B753">
+        <v>1147500</v>
+      </c>
+      <c r="C753">
+        <v>35</v>
+      </c>
+      <c r="D753">
+        <v>3128</v>
+      </c>
+      <c r="E753">
+        <v>36</v>
+      </c>
+      <c r="F753">
+        <v>3020</v>
+      </c>
+      <c r="G753">
+        <v>0</v>
+      </c>
+      <c r="H753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>752</v>
+      </c>
+      <c r="B754">
+        <v>1149000</v>
+      </c>
+      <c r="C754">
+        <v>35</v>
+      </c>
+      <c r="D754">
+        <v>3132</v>
+      </c>
+      <c r="E754">
+        <v>36</v>
+      </c>
+      <c r="F754">
+        <v>3024</v>
+      </c>
+      <c r="G754">
+        <v>0</v>
+      </c>
+      <c r="H754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>753</v>
+      </c>
+      <c r="B755">
+        <v>1150500</v>
+      </c>
+      <c r="C755">
+        <v>35</v>
+      </c>
+      <c r="D755">
+        <v>3136</v>
+      </c>
+      <c r="E755">
+        <v>36</v>
+      </c>
+      <c r="F755">
+        <v>3028</v>
+      </c>
+      <c r="G755">
+        <v>0</v>
+      </c>
+      <c r="H755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>754</v>
+      </c>
+      <c r="B756">
+        <v>1152000</v>
+      </c>
+      <c r="C756">
+        <v>35</v>
+      </c>
+      <c r="D756">
+        <v>3140</v>
+      </c>
+      <c r="E756">
+        <v>36</v>
+      </c>
+      <c r="F756">
+        <v>3032</v>
+      </c>
+      <c r="G756">
+        <v>0</v>
+      </c>
+      <c r="H756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>755</v>
+      </c>
+      <c r="B757">
+        <v>1153500</v>
+      </c>
+      <c r="C757">
+        <v>35</v>
+      </c>
+      <c r="D757">
+        <v>3144</v>
+      </c>
+      <c r="E757">
+        <v>36</v>
+      </c>
+      <c r="F757">
+        <v>3036</v>
+      </c>
+      <c r="G757">
+        <v>0</v>
+      </c>
+      <c r="H757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>756</v>
+      </c>
+      <c r="B758">
+        <v>1155000</v>
+      </c>
+      <c r="C758">
+        <v>35</v>
+      </c>
+      <c r="D758">
+        <v>3148</v>
+      </c>
+      <c r="E758">
+        <v>36</v>
+      </c>
+      <c r="F758">
+        <v>3040</v>
+      </c>
+      <c r="G758">
+        <v>0</v>
+      </c>
+      <c r="H758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>757</v>
+      </c>
+      <c r="B759">
+        <v>1156500</v>
+      </c>
+      <c r="C759">
+        <v>35</v>
+      </c>
+      <c r="D759">
+        <v>3152</v>
+      </c>
+      <c r="E759">
+        <v>36</v>
+      </c>
+      <c r="F759">
+        <v>3044</v>
+      </c>
+      <c r="G759">
+        <v>0</v>
+      </c>
+      <c r="H759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>758</v>
+      </c>
+      <c r="B760">
+        <v>1158000</v>
+      </c>
+      <c r="C760">
+        <v>35</v>
+      </c>
+      <c r="D760">
+        <v>3156</v>
+      </c>
+      <c r="E760">
+        <v>36</v>
+      </c>
+      <c r="F760">
+        <v>3048</v>
+      </c>
+      <c r="G760">
+        <v>0</v>
+      </c>
+      <c r="H760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>759</v>
+      </c>
+      <c r="B761">
+        <v>1159500</v>
+      </c>
+      <c r="C761">
+        <v>35</v>
+      </c>
+      <c r="D761">
+        <v>3160</v>
+      </c>
+      <c r="E761">
+        <v>36</v>
+      </c>
+      <c r="F761">
+        <v>3052</v>
+      </c>
+      <c r="G761">
+        <v>0</v>
+      </c>
+      <c r="H761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>760</v>
+      </c>
+      <c r="B762">
+        <v>1161000</v>
+      </c>
+      <c r="C762">
+        <v>35</v>
+      </c>
+      <c r="D762">
+        <v>3164</v>
+      </c>
+      <c r="E762">
+        <v>36</v>
+      </c>
+      <c r="F762">
+        <v>3056</v>
+      </c>
+      <c r="G762">
+        <v>0</v>
+      </c>
+      <c r="H762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>761</v>
+      </c>
+      <c r="B763">
+        <v>1162500</v>
+      </c>
+      <c r="C763">
+        <v>35</v>
+      </c>
+      <c r="D763">
+        <v>3168</v>
+      </c>
+      <c r="E763">
+        <v>36</v>
+      </c>
+      <c r="F763">
+        <v>3060</v>
+      </c>
+      <c r="G763">
+        <v>0</v>
+      </c>
+      <c r="H763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>762</v>
+      </c>
+      <c r="B764">
+        <v>1164000</v>
+      </c>
+      <c r="C764">
+        <v>35</v>
+      </c>
+      <c r="D764">
+        <v>3172</v>
+      </c>
+      <c r="E764">
+        <v>36</v>
+      </c>
+      <c r="F764">
+        <v>3064</v>
+      </c>
+      <c r="G764">
+        <v>0</v>
+      </c>
+      <c r="H764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>763</v>
+      </c>
+      <c r="B765">
+        <v>1165500</v>
+      </c>
+      <c r="C765">
+        <v>35</v>
+      </c>
+      <c r="D765">
+        <v>3176</v>
+      </c>
+      <c r="E765">
+        <v>36</v>
+      </c>
+      <c r="F765">
+        <v>3068</v>
+      </c>
+      <c r="G765">
+        <v>0</v>
+      </c>
+      <c r="H765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>764</v>
+      </c>
+      <c r="B766">
+        <v>1167000</v>
+      </c>
+      <c r="C766">
+        <v>35</v>
+      </c>
+      <c r="D766">
+        <v>3180</v>
+      </c>
+      <c r="E766">
+        <v>36</v>
+      </c>
+      <c r="F766">
+        <v>3072</v>
+      </c>
+      <c r="G766">
+        <v>0</v>
+      </c>
+      <c r="H766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>765</v>
+      </c>
+      <c r="B767">
+        <v>1168500</v>
+      </c>
+      <c r="C767">
+        <v>35</v>
+      </c>
+      <c r="D767">
+        <v>3184</v>
+      </c>
+      <c r="E767">
+        <v>36</v>
+      </c>
+      <c r="F767">
+        <v>3076</v>
+      </c>
+      <c r="G767">
+        <v>0</v>
+      </c>
+      <c r="H767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>766</v>
+      </c>
+      <c r="B768">
+        <v>1170000</v>
+      </c>
+      <c r="C768">
+        <v>35</v>
+      </c>
+      <c r="D768">
+        <v>3188</v>
+      </c>
+      <c r="E768">
+        <v>36</v>
+      </c>
+      <c r="F768">
+        <v>3080</v>
+      </c>
+      <c r="G768">
+        <v>0</v>
+      </c>
+      <c r="H768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>767</v>
+      </c>
+      <c r="B769">
+        <v>1171500</v>
+      </c>
+      <c r="C769">
+        <v>35</v>
+      </c>
+      <c r="D769">
+        <v>3192</v>
+      </c>
+      <c r="E769">
+        <v>36</v>
+      </c>
+      <c r="F769">
+        <v>3084</v>
+      </c>
+      <c r="G769">
+        <v>0</v>
+      </c>
+      <c r="H769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>768</v>
+      </c>
+      <c r="B770">
+        <v>1173000</v>
+      </c>
+      <c r="C770">
+        <v>35</v>
+      </c>
+      <c r="D770">
+        <v>3196</v>
+      </c>
+      <c r="E770">
+        <v>36</v>
+      </c>
+      <c r="F770">
+        <v>3088</v>
+      </c>
+      <c r="G770">
+        <v>0</v>
+      </c>
+      <c r="H770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>769</v>
+      </c>
+      <c r="B771">
+        <v>1174500</v>
+      </c>
+      <c r="C771">
+        <v>35</v>
+      </c>
+      <c r="D771">
+        <v>3200</v>
+      </c>
+      <c r="E771">
+        <v>36</v>
+      </c>
+      <c r="F771">
+        <v>3092</v>
+      </c>
+      <c r="G771">
+        <v>0</v>
+      </c>
+      <c r="H771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>770</v>
+      </c>
+      <c r="B772">
+        <v>1176000</v>
+      </c>
+      <c r="C772">
+        <v>35</v>
+      </c>
+      <c r="D772">
+        <v>3204</v>
+      </c>
+      <c r="E772">
+        <v>36</v>
+      </c>
+      <c r="F772">
+        <v>3096</v>
+      </c>
+      <c r="G772">
+        <v>0</v>
+      </c>
+      <c r="H772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>771</v>
+      </c>
+      <c r="B773">
+        <v>1177500</v>
+      </c>
+      <c r="C773">
+        <v>35</v>
+      </c>
+      <c r="D773">
+        <v>3208</v>
+      </c>
+      <c r="E773">
+        <v>36</v>
+      </c>
+      <c r="F773">
+        <v>3100</v>
+      </c>
+      <c r="G773">
+        <v>0</v>
+      </c>
+      <c r="H773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>772</v>
+      </c>
+      <c r="B774">
+        <v>1179000</v>
+      </c>
+      <c r="C774">
+        <v>35</v>
+      </c>
+      <c r="D774">
+        <v>3212</v>
+      </c>
+      <c r="E774">
+        <v>36</v>
+      </c>
+      <c r="F774">
+        <v>3104</v>
+      </c>
+      <c r="G774">
+        <v>0</v>
+      </c>
+      <c r="H774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>773</v>
+      </c>
+      <c r="B775">
+        <v>1180500</v>
+      </c>
+      <c r="C775">
+        <v>35</v>
+      </c>
+      <c r="D775">
+        <v>3216</v>
+      </c>
+      <c r="E775">
+        <v>36</v>
+      </c>
+      <c r="F775">
+        <v>3108</v>
+      </c>
+      <c r="G775">
+        <v>0</v>
+      </c>
+      <c r="H775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>774</v>
+      </c>
+      <c r="B776">
+        <v>1182000</v>
+      </c>
+      <c r="C776">
+        <v>35</v>
+      </c>
+      <c r="D776">
+        <v>3220</v>
+      </c>
+      <c r="E776">
+        <v>36</v>
+      </c>
+      <c r="F776">
+        <v>3112</v>
+      </c>
+      <c r="G776">
+        <v>0</v>
+      </c>
+      <c r="H776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>775</v>
+      </c>
+      <c r="B777">
+        <v>1183500</v>
+      </c>
+      <c r="C777">
+        <v>35</v>
+      </c>
+      <c r="D777">
+        <v>3224</v>
+      </c>
+      <c r="E777">
+        <v>36</v>
+      </c>
+      <c r="F777">
+        <v>3116</v>
+      </c>
+      <c r="G777">
+        <v>0</v>
+      </c>
+      <c r="H777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>776</v>
+      </c>
+      <c r="B778">
+        <v>1185000</v>
+      </c>
+      <c r="C778">
+        <v>35</v>
+      </c>
+      <c r="D778">
+        <v>3228</v>
+      </c>
+      <c r="E778">
+        <v>36</v>
+      </c>
+      <c r="F778">
+        <v>3120</v>
+      </c>
+      <c r="G778">
+        <v>0</v>
+      </c>
+      <c r="H778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>777</v>
+      </c>
+      <c r="B779">
+        <v>1186500</v>
+      </c>
+      <c r="C779">
+        <v>35</v>
+      </c>
+      <c r="D779">
+        <v>3232</v>
+      </c>
+      <c r="E779">
+        <v>36</v>
+      </c>
+      <c r="F779">
+        <v>3124</v>
+      </c>
+      <c r="G779">
+        <v>0</v>
+      </c>
+      <c r="H779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>778</v>
+      </c>
+      <c r="B780">
+        <v>1188000</v>
+      </c>
+      <c r="C780">
+        <v>35</v>
+      </c>
+      <c r="D780">
+        <v>3236</v>
+      </c>
+      <c r="E780">
+        <v>36</v>
+      </c>
+      <c r="F780">
+        <v>3128</v>
+      </c>
+      <c r="G780">
+        <v>0</v>
+      </c>
+      <c r="H780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>779</v>
+      </c>
+      <c r="B781">
+        <v>1189500</v>
+      </c>
+      <c r="C781">
+        <v>35</v>
+      </c>
+      <c r="D781">
+        <v>3240</v>
+      </c>
+      <c r="E781">
+        <v>36</v>
+      </c>
+      <c r="F781">
+        <v>3132</v>
+      </c>
+      <c r="G781">
+        <v>0</v>
+      </c>
+      <c r="H781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>780</v>
+      </c>
+      <c r="B782">
+        <v>1191000</v>
+      </c>
+      <c r="C782">
+        <v>35</v>
+      </c>
+      <c r="D782">
+        <v>3244</v>
+      </c>
+      <c r="E782">
+        <v>36</v>
+      </c>
+      <c r="F782">
+        <v>3136</v>
+      </c>
+      <c r="G782">
+        <v>0</v>
+      </c>
+      <c r="H782">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>781</v>
+      </c>
+      <c r="B783">
+        <v>1192500</v>
+      </c>
+      <c r="C783">
+        <v>35</v>
+      </c>
+      <c r="D783">
+        <v>3248</v>
+      </c>
+      <c r="E783">
+        <v>36</v>
+      </c>
+      <c r="F783">
+        <v>3140</v>
+      </c>
+      <c r="G783">
+        <v>0</v>
+      </c>
+      <c r="H783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>782</v>
+      </c>
+      <c r="B784">
+        <v>1194000</v>
+      </c>
+      <c r="C784">
+        <v>35</v>
+      </c>
+      <c r="D784">
+        <v>3252</v>
+      </c>
+      <c r="E784">
+        <v>36</v>
+      </c>
+      <c r="F784">
+        <v>3144</v>
+      </c>
+      <c r="G784">
+        <v>0</v>
+      </c>
+      <c r="H784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>783</v>
+      </c>
+      <c r="B785">
+        <v>1195500</v>
+      </c>
+      <c r="C785">
+        <v>35</v>
+      </c>
+      <c r="D785">
+        <v>3256</v>
+      </c>
+      <c r="E785">
+        <v>36</v>
+      </c>
+      <c r="F785">
+        <v>3148</v>
+      </c>
+      <c r="G785">
+        <v>0</v>
+      </c>
+      <c r="H785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>784</v>
+      </c>
+      <c r="B786">
+        <v>1197000</v>
+      </c>
+      <c r="C786">
+        <v>35</v>
+      </c>
+      <c r="D786">
+        <v>3260</v>
+      </c>
+      <c r="E786">
+        <v>36</v>
+      </c>
+      <c r="F786">
+        <v>3152</v>
+      </c>
+      <c r="G786">
+        <v>0</v>
+      </c>
+      <c r="H786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>785</v>
+      </c>
+      <c r="B787">
+        <v>1198500</v>
+      </c>
+      <c r="C787">
+        <v>35</v>
+      </c>
+      <c r="D787">
+        <v>3264</v>
+      </c>
+      <c r="E787">
+        <v>36</v>
+      </c>
+      <c r="F787">
+        <v>3156</v>
+      </c>
+      <c r="G787">
+        <v>0</v>
+      </c>
+      <c r="H787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>786</v>
+      </c>
+      <c r="B788">
+        <v>1200000</v>
+      </c>
+      <c r="C788">
+        <v>35</v>
+      </c>
+      <c r="D788">
+        <v>3268</v>
+      </c>
+      <c r="E788">
+        <v>36</v>
+      </c>
+      <c r="F788">
+        <v>3160</v>
+      </c>
+      <c r="G788">
+        <v>0</v>
+      </c>
+      <c r="H788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>787</v>
+      </c>
+      <c r="B789">
+        <v>1201500</v>
+      </c>
+      <c r="C789">
+        <v>35</v>
+      </c>
+      <c r="D789">
+        <v>3272</v>
+      </c>
+      <c r="E789">
+        <v>36</v>
+      </c>
+      <c r="F789">
+        <v>3164</v>
+      </c>
+      <c r="G789">
+        <v>0</v>
+      </c>
+      <c r="H789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>788</v>
+      </c>
+      <c r="B790">
+        <v>1203000</v>
+      </c>
+      <c r="C790">
+        <v>35</v>
+      </c>
+      <c r="D790">
+        <v>3276</v>
+      </c>
+      <c r="E790">
+        <v>36</v>
+      </c>
+      <c r="F790">
+        <v>3168</v>
+      </c>
+      <c r="G790">
+        <v>0</v>
+      </c>
+      <c r="H790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>789</v>
+      </c>
+      <c r="B791">
+        <v>1204500</v>
+      </c>
+      <c r="C791">
+        <v>35</v>
+      </c>
+      <c r="D791">
+        <v>3280</v>
+      </c>
+      <c r="E791">
+        <v>36</v>
+      </c>
+      <c r="F791">
+        <v>3172</v>
+      </c>
+      <c r="G791">
+        <v>0</v>
+      </c>
+      <c r="H791">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>790</v>
+      </c>
+      <c r="B792">
+        <v>1206000</v>
+      </c>
+      <c r="C792">
+        <v>35</v>
+      </c>
+      <c r="D792">
+        <v>3284</v>
+      </c>
+      <c r="E792">
+        <v>36</v>
+      </c>
+      <c r="F792">
+        <v>3176</v>
+      </c>
+      <c r="G792">
+        <v>0</v>
+      </c>
+      <c r="H792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>791</v>
+      </c>
+      <c r="B793">
+        <v>1207500</v>
+      </c>
+      <c r="C793">
+        <v>35</v>
+      </c>
+      <c r="D793">
+        <v>3288</v>
+      </c>
+      <c r="E793">
+        <v>36</v>
+      </c>
+      <c r="F793">
+        <v>3180</v>
+      </c>
+      <c r="G793">
+        <v>0</v>
+      </c>
+      <c r="H793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>792</v>
+      </c>
+      <c r="B794">
+        <v>1209000</v>
+      </c>
+      <c r="C794">
+        <v>35</v>
+      </c>
+      <c r="D794">
+        <v>3292</v>
+      </c>
+      <c r="E794">
+        <v>36</v>
+      </c>
+      <c r="F794">
+        <v>3184</v>
+      </c>
+      <c r="G794">
+        <v>0</v>
+      </c>
+      <c r="H794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>793</v>
+      </c>
+      <c r="B795">
+        <v>1210500</v>
+      </c>
+      <c r="C795">
+        <v>35</v>
+      </c>
+      <c r="D795">
+        <v>3296</v>
+      </c>
+      <c r="E795">
+        <v>36</v>
+      </c>
+      <c r="F795">
+        <v>3188</v>
+      </c>
+      <c r="G795">
+        <v>0</v>
+      </c>
+      <c r="H795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>794</v>
+      </c>
+      <c r="B796">
+        <v>1212000</v>
+      </c>
+      <c r="C796">
+        <v>35</v>
+      </c>
+      <c r="D796">
+        <v>3300</v>
+      </c>
+      <c r="E796">
+        <v>36</v>
+      </c>
+      <c r="F796">
+        <v>3192</v>
+      </c>
+      <c r="G796">
+        <v>0</v>
+      </c>
+      <c r="H796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>795</v>
+      </c>
+      <c r="B797">
+        <v>1213500</v>
+      </c>
+      <c r="C797">
+        <v>35</v>
+      </c>
+      <c r="D797">
+        <v>3304</v>
+      </c>
+      <c r="E797">
+        <v>36</v>
+      </c>
+      <c r="F797">
+        <v>3196</v>
+      </c>
+      <c r="G797">
+        <v>0</v>
+      </c>
+      <c r="H797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>796</v>
+      </c>
+      <c r="B798">
+        <v>1215000</v>
+      </c>
+      <c r="C798">
+        <v>35</v>
+      </c>
+      <c r="D798">
+        <v>3308</v>
+      </c>
+      <c r="E798">
+        <v>36</v>
+      </c>
+      <c r="F798">
+        <v>3200</v>
+      </c>
+      <c r="G798">
+        <v>0</v>
+      </c>
+      <c r="H798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>797</v>
+      </c>
+      <c r="B799">
+        <v>1216500</v>
+      </c>
+      <c r="C799">
+        <v>35</v>
+      </c>
+      <c r="D799">
+        <v>3312</v>
+      </c>
+      <c r="E799">
+        <v>36</v>
+      </c>
+      <c r="F799">
+        <v>3204</v>
+      </c>
+      <c r="G799">
+        <v>0</v>
+      </c>
+      <c r="H799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>798</v>
+      </c>
+      <c r="B800">
+        <v>1218000</v>
+      </c>
+      <c r="C800">
+        <v>35</v>
+      </c>
+      <c r="D800">
+        <v>3316</v>
+      </c>
+      <c r="E800">
+        <v>36</v>
+      </c>
+      <c r="F800">
+        <v>3208</v>
+      </c>
+      <c r="G800">
+        <v>0</v>
+      </c>
+      <c r="H800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>799</v>
+      </c>
+      <c r="B801">
+        <v>1219500</v>
+      </c>
+      <c r="C801">
+        <v>35</v>
+      </c>
+      <c r="D801">
+        <v>3320</v>
+      </c>
+      <c r="E801">
+        <v>36</v>
+      </c>
+      <c r="F801">
+        <v>3212</v>
+      </c>
+      <c r="G801">
+        <v>0</v>
+      </c>
+      <c r="H801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>800</v>
+      </c>
+      <c r="B802">
+        <v>1221000</v>
+      </c>
+      <c r="C802">
+        <v>35</v>
+      </c>
+      <c r="D802">
+        <v>3324</v>
+      </c>
+      <c r="E802">
+        <v>36</v>
+      </c>
+      <c r="F802">
+        <v>3216</v>
+      </c>
+      <c r="G802">
+        <v>0</v>
+      </c>
+      <c r="H802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>801</v>
+      </c>
+      <c r="B803">
+        <v>1222500</v>
+      </c>
+      <c r="C803">
+        <v>35</v>
+      </c>
+      <c r="D803">
+        <v>3328</v>
+      </c>
+      <c r="E803">
+        <v>36</v>
+      </c>
+      <c r="F803">
+        <v>3220</v>
+      </c>
+      <c r="G803">
+        <v>0</v>
+      </c>
+      <c r="H803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>802</v>
+      </c>
+      <c r="B804">
+        <v>1224000</v>
+      </c>
+      <c r="C804">
+        <v>35</v>
+      </c>
+      <c r="D804">
+        <v>3332</v>
+      </c>
+      <c r="E804">
+        <v>36</v>
+      </c>
+      <c r="F804">
+        <v>3224</v>
+      </c>
+      <c r="G804">
+        <v>0</v>
+      </c>
+      <c r="H804">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>803</v>
+      </c>
+      <c r="B805">
+        <v>1225500</v>
+      </c>
+      <c r="C805">
+        <v>35</v>
+      </c>
+      <c r="D805">
+        <v>3336</v>
+      </c>
+      <c r="E805">
+        <v>36</v>
+      </c>
+      <c r="F805">
+        <v>3228</v>
+      </c>
+      <c r="G805">
+        <v>0</v>
+      </c>
+      <c r="H805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>804</v>
+      </c>
+      <c r="B806">
+        <v>1227000</v>
+      </c>
+      <c r="C806">
+        <v>35</v>
+      </c>
+      <c r="D806">
+        <v>3340</v>
+      </c>
+      <c r="E806">
+        <v>36</v>
+      </c>
+      <c r="F806">
+        <v>3232</v>
+      </c>
+      <c r="G806">
+        <v>0</v>
+      </c>
+      <c r="H806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>805</v>
+      </c>
+      <c r="B807">
+        <v>1228500</v>
+      </c>
+      <c r="C807">
+        <v>35</v>
+      </c>
+      <c r="D807">
+        <v>3344</v>
+      </c>
+      <c r="E807">
+        <v>36</v>
+      </c>
+      <c r="F807">
+        <v>3236</v>
+      </c>
+      <c r="G807">
+        <v>0</v>
+      </c>
+      <c r="H807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>806</v>
+      </c>
+      <c r="B808">
+        <v>1230000</v>
+      </c>
+      <c r="C808">
+        <v>35</v>
+      </c>
+      <c r="D808">
+        <v>3348</v>
+      </c>
+      <c r="E808">
+        <v>36</v>
+      </c>
+      <c r="F808">
+        <v>3240</v>
+      </c>
+      <c r="G808">
+        <v>0</v>
+      </c>
+      <c r="H808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>807</v>
+      </c>
+      <c r="B809">
+        <v>1231500</v>
+      </c>
+      <c r="C809">
+        <v>35</v>
+      </c>
+      <c r="D809">
+        <v>3352</v>
+      </c>
+      <c r="E809">
+        <v>36</v>
+      </c>
+      <c r="F809">
+        <v>3244</v>
+      </c>
+      <c r="G809">
+        <v>0</v>
+      </c>
+      <c r="H809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>808</v>
+      </c>
+      <c r="B810">
+        <v>1233000</v>
+      </c>
+      <c r="C810">
+        <v>35</v>
+      </c>
+      <c r="D810">
+        <v>3356</v>
+      </c>
+      <c r="E810">
+        <v>36</v>
+      </c>
+      <c r="F810">
+        <v>3248</v>
+      </c>
+      <c r="G810">
+        <v>0</v>
+      </c>
+      <c r="H810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>809</v>
+      </c>
+      <c r="B811">
+        <v>1234500</v>
+      </c>
+      <c r="C811">
+        <v>35</v>
+      </c>
+      <c r="D811">
+        <v>3360</v>
+      </c>
+      <c r="E811">
+        <v>36</v>
+      </c>
+      <c r="F811">
+        <v>3252</v>
+      </c>
+      <c r="G811">
+        <v>0</v>
+      </c>
+      <c r="H811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>810</v>
+      </c>
+      <c r="B812">
+        <v>1236000</v>
+      </c>
+      <c r="C812">
+        <v>35</v>
+      </c>
+      <c r="D812">
+        <v>3364</v>
+      </c>
+      <c r="E812">
+        <v>36</v>
+      </c>
+      <c r="F812">
+        <v>3256</v>
+      </c>
+      <c r="G812">
+        <v>0</v>
+      </c>
+      <c r="H812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>811</v>
+      </c>
+      <c r="B813">
+        <v>1237500</v>
+      </c>
+      <c r="C813">
+        <v>35</v>
+      </c>
+      <c r="D813">
+        <v>3368</v>
+      </c>
+      <c r="E813">
+        <v>36</v>
+      </c>
+      <c r="F813">
+        <v>3260</v>
+      </c>
+      <c r="G813">
+        <v>0</v>
+      </c>
+      <c r="H813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>812</v>
+      </c>
+      <c r="B814">
+        <v>1239000</v>
+      </c>
+      <c r="C814">
+        <v>35</v>
+      </c>
+      <c r="D814">
+        <v>3372</v>
+      </c>
+      <c r="E814">
+        <v>36</v>
+      </c>
+      <c r="F814">
+        <v>3264</v>
+      </c>
+      <c r="G814">
+        <v>0</v>
+      </c>
+      <c r="H814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>813</v>
+      </c>
+      <c r="B815">
+        <v>1240500</v>
+      </c>
+      <c r="C815">
+        <v>35</v>
+      </c>
+      <c r="D815">
+        <v>3376</v>
+      </c>
+      <c r="E815">
+        <v>36</v>
+      </c>
+      <c r="F815">
+        <v>3268</v>
+      </c>
+      <c r="G815">
+        <v>0</v>
+      </c>
+      <c r="H815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>814</v>
+      </c>
+      <c r="B816">
+        <v>1242000</v>
+      </c>
+      <c r="C816">
+        <v>35</v>
+      </c>
+      <c r="D816">
+        <v>3380</v>
+      </c>
+      <c r="E816">
+        <v>36</v>
+      </c>
+      <c r="F816">
+        <v>3272</v>
+      </c>
+      <c r="G816">
+        <v>0</v>
+      </c>
+      <c r="H816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>815</v>
+      </c>
+      <c r="B817">
+        <v>1243500</v>
+      </c>
+      <c r="C817">
+        <v>35</v>
+      </c>
+      <c r="D817">
+        <v>3384</v>
+      </c>
+      <c r="E817">
+        <v>36</v>
+      </c>
+      <c r="F817">
+        <v>3276</v>
+      </c>
+      <c r="G817">
+        <v>0</v>
+      </c>
+      <c r="H817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>816</v>
+      </c>
+      <c r="B818">
+        <v>1245000</v>
+      </c>
+      <c r="C818">
+        <v>35</v>
+      </c>
+      <c r="D818">
+        <v>3388</v>
+      </c>
+      <c r="E818">
+        <v>36</v>
+      </c>
+      <c r="F818">
+        <v>3280</v>
+      </c>
+      <c r="G818">
+        <v>0</v>
+      </c>
+      <c r="H818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>817</v>
+      </c>
+      <c r="B819">
+        <v>1246500</v>
+      </c>
+      <c r="C819">
+        <v>35</v>
+      </c>
+      <c r="D819">
+        <v>3392</v>
+      </c>
+      <c r="E819">
+        <v>36</v>
+      </c>
+      <c r="F819">
+        <v>3284</v>
+      </c>
+      <c r="G819">
+        <v>0</v>
+      </c>
+      <c r="H819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>818</v>
+      </c>
+      <c r="B820">
+        <v>1248000</v>
+      </c>
+      <c r="C820">
+        <v>35</v>
+      </c>
+      <c r="D820">
+        <v>3396</v>
+      </c>
+      <c r="E820">
+        <v>36</v>
+      </c>
+      <c r="F820">
+        <v>3288</v>
+      </c>
+      <c r="G820">
+        <v>0</v>
+      </c>
+      <c r="H820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>819</v>
+      </c>
+      <c r="B821">
+        <v>1249500</v>
+      </c>
+      <c r="C821">
+        <v>35</v>
+      </c>
+      <c r="D821">
+        <v>3400</v>
+      </c>
+      <c r="E821">
+        <v>36</v>
+      </c>
+      <c r="F821">
+        <v>3292</v>
+      </c>
+      <c r="G821">
+        <v>0</v>
+      </c>
+      <c r="H821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>820</v>
+      </c>
+      <c r="B822">
+        <v>1251000</v>
+      </c>
+      <c r="C822">
+        <v>35</v>
+      </c>
+      <c r="D822">
+        <v>3404</v>
+      </c>
+      <c r="E822">
+        <v>36</v>
+      </c>
+      <c r="F822">
+        <v>3296</v>
+      </c>
+      <c r="G822">
+        <v>0</v>
+      </c>
+      <c r="H822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>821</v>
+      </c>
+      <c r="B823">
+        <v>1252500</v>
+      </c>
+      <c r="C823">
+        <v>35</v>
+      </c>
+      <c r="D823">
+        <v>3408</v>
+      </c>
+      <c r="E823">
+        <v>36</v>
+      </c>
+      <c r="F823">
+        <v>3300</v>
+      </c>
+      <c r="G823">
+        <v>0</v>
+      </c>
+      <c r="H823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>822</v>
+      </c>
+      <c r="B824">
+        <v>1254000</v>
+      </c>
+      <c r="C824">
+        <v>35</v>
+      </c>
+      <c r="D824">
+        <v>3412</v>
+      </c>
+      <c r="E824">
+        <v>36</v>
+      </c>
+      <c r="F824">
+        <v>3304</v>
+      </c>
+      <c r="G824">
+        <v>0</v>
+      </c>
+      <c r="H824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>823</v>
+      </c>
+      <c r="B825">
+        <v>1255500</v>
+      </c>
+      <c r="C825">
+        <v>35</v>
+      </c>
+      <c r="D825">
+        <v>3416</v>
+      </c>
+      <c r="E825">
+        <v>36</v>
+      </c>
+      <c r="F825">
+        <v>3308</v>
+      </c>
+      <c r="G825">
+        <v>0</v>
+      </c>
+      <c r="H825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>824</v>
+      </c>
+      <c r="B826">
+        <v>1257000</v>
+      </c>
+      <c r="C826">
+        <v>35</v>
+      </c>
+      <c r="D826">
+        <v>3420</v>
+      </c>
+      <c r="E826">
+        <v>36</v>
+      </c>
+      <c r="F826">
+        <v>3312</v>
+      </c>
+      <c r="G826">
+        <v>0</v>
+      </c>
+      <c r="H826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>825</v>
+      </c>
+      <c r="B827">
+        <v>1258500</v>
+      </c>
+      <c r="C827">
+        <v>35</v>
+      </c>
+      <c r="D827">
+        <v>3424</v>
+      </c>
+      <c r="E827">
+        <v>36</v>
+      </c>
+      <c r="F827">
+        <v>3316</v>
+      </c>
+      <c r="G827">
+        <v>0</v>
+      </c>
+      <c r="H827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>826</v>
+      </c>
+      <c r="B828">
+        <v>1260000</v>
+      </c>
+      <c r="C828">
+        <v>35</v>
+      </c>
+      <c r="D828">
+        <v>3428</v>
+      </c>
+      <c r="E828">
+        <v>36</v>
+      </c>
+      <c r="F828">
+        <v>3320</v>
+      </c>
+      <c r="G828">
+        <v>0</v>
+      </c>
+      <c r="H828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>827</v>
+      </c>
+      <c r="B829">
+        <v>1261500</v>
+      </c>
+      <c r="C829">
+        <v>35</v>
+      </c>
+      <c r="D829">
+        <v>3432</v>
+      </c>
+      <c r="E829">
+        <v>36</v>
+      </c>
+      <c r="F829">
+        <v>3324</v>
+      </c>
+      <c r="G829">
+        <v>0</v>
+      </c>
+      <c r="H829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>828</v>
+      </c>
+      <c r="B830">
+        <v>1263000</v>
+      </c>
+      <c r="C830">
+        <v>35</v>
+      </c>
+      <c r="D830">
+        <v>3436</v>
+      </c>
+      <c r="E830">
+        <v>36</v>
+      </c>
+      <c r="F830">
+        <v>3328</v>
+      </c>
+      <c r="G830">
+        <v>0</v>
+      </c>
+      <c r="H830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>829</v>
+      </c>
+      <c r="B831">
+        <v>1264500</v>
+      </c>
+      <c r="C831">
+        <v>35</v>
+      </c>
+      <c r="D831">
+        <v>3440</v>
+      </c>
+      <c r="E831">
+        <v>36</v>
+      </c>
+      <c r="F831">
+        <v>3332</v>
+      </c>
+      <c r="G831">
+        <v>0</v>
+      </c>
+      <c r="H831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>830</v>
+      </c>
+      <c r="B832">
+        <v>1266000</v>
+      </c>
+      <c r="C832">
+        <v>35</v>
+      </c>
+      <c r="D832">
+        <v>3444</v>
+      </c>
+      <c r="E832">
+        <v>36</v>
+      </c>
+      <c r="F832">
+        <v>3336</v>
+      </c>
+      <c r="G832">
+        <v>0</v>
+      </c>
+      <c r="H832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>831</v>
+      </c>
+      <c r="B833">
+        <v>1267500</v>
+      </c>
+      <c r="C833">
+        <v>35</v>
+      </c>
+      <c r="D833">
+        <v>3448</v>
+      </c>
+      <c r="E833">
+        <v>36</v>
+      </c>
+      <c r="F833">
+        <v>3340</v>
+      </c>
+      <c r="G833">
+        <v>0</v>
+      </c>
+      <c r="H833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>832</v>
+      </c>
+      <c r="B834">
+        <v>1269000</v>
+      </c>
+      <c r="C834">
+        <v>35</v>
+      </c>
+      <c r="D834">
+        <v>3452</v>
+      </c>
+      <c r="E834">
+        <v>36</v>
+      </c>
+      <c r="F834">
+        <v>3344</v>
+      </c>
+      <c r="G834">
+        <v>0</v>
+      </c>
+      <c r="H834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>833</v>
+      </c>
+      <c r="B835">
+        <v>1270500</v>
+      </c>
+      <c r="C835">
+        <v>35</v>
+      </c>
+      <c r="D835">
+        <v>3456</v>
+      </c>
+      <c r="E835">
+        <v>36</v>
+      </c>
+      <c r="F835">
+        <v>3348</v>
+      </c>
+      <c r="G835">
+        <v>0</v>
+      </c>
+      <c r="H835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>834</v>
+      </c>
+      <c r="B836">
+        <v>1272000</v>
+      </c>
+      <c r="C836">
+        <v>35</v>
+      </c>
+      <c r="D836">
+        <v>3460</v>
+      </c>
+      <c r="E836">
+        <v>36</v>
+      </c>
+      <c r="F836">
+        <v>3352</v>
+      </c>
+      <c r="G836">
+        <v>0</v>
+      </c>
+      <c r="H836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>835</v>
+      </c>
+      <c r="B837">
+        <v>1273500</v>
+      </c>
+      <c r="C837">
+        <v>35</v>
+      </c>
+      <c r="D837">
+        <v>3464</v>
+      </c>
+      <c r="E837">
+        <v>36</v>
+      </c>
+      <c r="F837">
+        <v>3356</v>
+      </c>
+      <c r="G837">
+        <v>0</v>
+      </c>
+      <c r="H837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>836</v>
+      </c>
+      <c r="B838">
+        <v>1275000</v>
+      </c>
+      <c r="C838">
+        <v>35</v>
+      </c>
+      <c r="D838">
+        <v>3468</v>
+      </c>
+      <c r="E838">
+        <v>36</v>
+      </c>
+      <c r="F838">
+        <v>3360</v>
+      </c>
+      <c r="G838">
+        <v>0</v>
+      </c>
+      <c r="H838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>837</v>
+      </c>
+      <c r="B839">
+        <v>1276500</v>
+      </c>
+      <c r="C839">
+        <v>35</v>
+      </c>
+      <c r="D839">
+        <v>3472</v>
+      </c>
+      <c r="E839">
+        <v>36</v>
+      </c>
+      <c r="F839">
+        <v>3364</v>
+      </c>
+      <c r="G839">
+        <v>0</v>
+      </c>
+      <c r="H839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>838</v>
+      </c>
+      <c r="B840">
+        <v>1278000</v>
+      </c>
+      <c r="C840">
+        <v>35</v>
+      </c>
+      <c r="D840">
+        <v>3476</v>
+      </c>
+      <c r="E840">
+        <v>36</v>
+      </c>
+      <c r="F840">
+        <v>3368</v>
+      </c>
+      <c r="G840">
+        <v>0</v>
+      </c>
+      <c r="H840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>839</v>
+      </c>
+      <c r="B841">
+        <v>1279500</v>
+      </c>
+      <c r="C841">
+        <v>35</v>
+      </c>
+      <c r="D841">
+        <v>3480</v>
+      </c>
+      <c r="E841">
+        <v>36</v>
+      </c>
+      <c r="F841">
+        <v>3372</v>
+      </c>
+      <c r="G841">
+        <v>0</v>
+      </c>
+      <c r="H841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>840</v>
+      </c>
+      <c r="B842">
+        <v>1281000</v>
+      </c>
+      <c r="C842">
+        <v>35</v>
+      </c>
+      <c r="D842">
+        <v>3484</v>
+      </c>
+      <c r="E842">
+        <v>36</v>
+      </c>
+      <c r="F842">
+        <v>3376</v>
+      </c>
+      <c r="G842">
+        <v>0</v>
+      </c>
+      <c r="H842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>841</v>
+      </c>
+      <c r="B843">
+        <v>1282500</v>
+      </c>
+      <c r="C843">
+        <v>35</v>
+      </c>
+      <c r="D843">
+        <v>3488</v>
+      </c>
+      <c r="E843">
+        <v>36</v>
+      </c>
+      <c r="F843">
+        <v>3380</v>
+      </c>
+      <c r="G843">
+        <v>0</v>
+      </c>
+      <c r="H843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>842</v>
+      </c>
+      <c r="B844">
+        <v>1284000</v>
+      </c>
+      <c r="C844">
+        <v>35</v>
+      </c>
+      <c r="D844">
+        <v>3492</v>
+      </c>
+      <c r="E844">
+        <v>36</v>
+      </c>
+      <c r="F844">
+        <v>3384</v>
+      </c>
+      <c r="G844">
+        <v>0</v>
+      </c>
+      <c r="H844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>843</v>
+      </c>
+      <c r="B845">
+        <v>1285500</v>
+      </c>
+      <c r="C845">
+        <v>35</v>
+      </c>
+      <c r="D845">
+        <v>3496</v>
+      </c>
+      <c r="E845">
+        <v>36</v>
+      </c>
+      <c r="F845">
+        <v>3388</v>
+      </c>
+      <c r="G845">
+        <v>0</v>
+      </c>
+      <c r="H845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>844</v>
+      </c>
+      <c r="B846">
+        <v>1287000</v>
+      </c>
+      <c r="C846">
+        <v>35</v>
+      </c>
+      <c r="D846">
+        <v>3500</v>
+      </c>
+      <c r="E846">
+        <v>36</v>
+      </c>
+      <c r="F846">
+        <v>3392</v>
+      </c>
+      <c r="G846">
+        <v>0</v>
+      </c>
+      <c r="H846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>845</v>
+      </c>
+      <c r="B847">
+        <v>1288500</v>
+      </c>
+      <c r="C847">
+        <v>35</v>
+      </c>
+      <c r="D847">
+        <v>3504</v>
+      </c>
+      <c r="E847">
+        <v>36</v>
+      </c>
+      <c r="F847">
+        <v>3396</v>
+      </c>
+      <c r="G847">
+        <v>0</v>
+      </c>
+      <c r="H847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>846</v>
+      </c>
+      <c r="B848">
+        <v>1290000</v>
+      </c>
+      <c r="C848">
+        <v>35</v>
+      </c>
+      <c r="D848">
+        <v>3508</v>
+      </c>
+      <c r="E848">
+        <v>36</v>
+      </c>
+      <c r="F848">
+        <v>3400</v>
+      </c>
+      <c r="G848">
+        <v>0</v>
+      </c>
+      <c r="H848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>847</v>
+      </c>
+      <c r="B849">
+        <v>1291500</v>
+      </c>
+      <c r="C849">
+        <v>35</v>
+      </c>
+      <c r="D849">
+        <v>3512</v>
+      </c>
+      <c r="E849">
+        <v>36</v>
+      </c>
+      <c r="F849">
+        <v>3404</v>
+      </c>
+      <c r="G849">
+        <v>0</v>
+      </c>
+      <c r="H849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>848</v>
+      </c>
+      <c r="B850">
+        <v>1293000</v>
+      </c>
+      <c r="C850">
+        <v>35</v>
+      </c>
+      <c r="D850">
+        <v>3516</v>
+      </c>
+      <c r="E850">
+        <v>36</v>
+      </c>
+      <c r="F850">
+        <v>3408</v>
+      </c>
+      <c r="G850">
+        <v>0</v>
+      </c>
+      <c r="H850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>849</v>
+      </c>
+      <c r="B851">
+        <v>1294500</v>
+      </c>
+      <c r="C851">
+        <v>35</v>
+      </c>
+      <c r="D851">
+        <v>3520</v>
+      </c>
+      <c r="E851">
+        <v>36</v>
+      </c>
+      <c r="F851">
+        <v>3412</v>
+      </c>
+      <c r="G851">
+        <v>0</v>
+      </c>
+      <c r="H851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>850</v>
+      </c>
+      <c r="B852">
+        <v>1296000</v>
+      </c>
+      <c r="C852">
+        <v>35</v>
+      </c>
+      <c r="D852">
+        <v>3524</v>
+      </c>
+      <c r="E852">
+        <v>36</v>
+      </c>
+      <c r="F852">
+        <v>3416</v>
+      </c>
+      <c r="G852">
+        <v>0</v>
+      </c>
+      <c r="H852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>851</v>
+      </c>
+      <c r="B853">
+        <v>1297500</v>
+      </c>
+      <c r="C853">
+        <v>35</v>
+      </c>
+      <c r="D853">
+        <v>3528</v>
+      </c>
+      <c r="E853">
+        <v>36</v>
+      </c>
+      <c r="F853">
+        <v>3420</v>
+      </c>
+      <c r="G853">
+        <v>0</v>
+      </c>
+      <c r="H853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>852</v>
+      </c>
+      <c r="B854">
+        <v>1299000</v>
+      </c>
+      <c r="C854">
+        <v>35</v>
+      </c>
+      <c r="D854">
+        <v>3532</v>
+      </c>
+      <c r="E854">
+        <v>36</v>
+      </c>
+      <c r="F854">
+        <v>3424</v>
+      </c>
+      <c r="G854">
+        <v>0</v>
+      </c>
+      <c r="H854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>853</v>
+      </c>
+      <c r="B855">
+        <v>1300500</v>
+      </c>
+      <c r="C855">
+        <v>35</v>
+      </c>
+      <c r="D855">
+        <v>3536</v>
+      </c>
+      <c r="E855">
+        <v>36</v>
+      </c>
+      <c r="F855">
+        <v>3428</v>
+      </c>
+      <c r="G855">
+        <v>0</v>
+      </c>
+      <c r="H855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>854</v>
+      </c>
+      <c r="B856">
+        <v>1302000</v>
+      </c>
+      <c r="C856">
+        <v>35</v>
+      </c>
+      <c r="D856">
+        <v>3540</v>
+      </c>
+      <c r="E856">
+        <v>36</v>
+      </c>
+      <c r="F856">
+        <v>3432</v>
+      </c>
+      <c r="G856">
+        <v>0</v>
+      </c>
+      <c r="H856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>855</v>
+      </c>
+      <c r="B857">
+        <v>1303500</v>
+      </c>
+      <c r="C857">
+        <v>35</v>
+      </c>
+      <c r="D857">
+        <v>3544</v>
+      </c>
+      <c r="E857">
+        <v>36</v>
+      </c>
+      <c r="F857">
+        <v>3436</v>
+      </c>
+      <c r="G857">
+        <v>0</v>
+      </c>
+      <c r="H857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>856</v>
+      </c>
+      <c r="B858">
+        <v>1305000</v>
+      </c>
+      <c r="C858">
+        <v>35</v>
+      </c>
+      <c r="D858">
+        <v>3548</v>
+      </c>
+      <c r="E858">
+        <v>36</v>
+      </c>
+      <c r="F858">
+        <v>3440</v>
+      </c>
+      <c r="G858">
+        <v>0</v>
+      </c>
+      <c r="H858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>857</v>
+      </c>
+      <c r="B859">
+        <v>1306500</v>
+      </c>
+      <c r="C859">
+        <v>35</v>
+      </c>
+      <c r="D859">
+        <v>3552</v>
+      </c>
+      <c r="E859">
+        <v>36</v>
+      </c>
+      <c r="F859">
+        <v>3444</v>
+      </c>
+      <c r="G859">
+        <v>0</v>
+      </c>
+      <c r="H859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>858</v>
+      </c>
+      <c r="B860">
+        <v>1308000</v>
+      </c>
+      <c r="C860">
+        <v>35</v>
+      </c>
+      <c r="D860">
+        <v>3556</v>
+      </c>
+      <c r="E860">
+        <v>36</v>
+      </c>
+      <c r="F860">
+        <v>3448</v>
+      </c>
+      <c r="G860">
+        <v>0</v>
+      </c>
+      <c r="H860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>859</v>
+      </c>
+      <c r="B861">
+        <v>1309500</v>
+      </c>
+      <c r="C861">
+        <v>35</v>
+      </c>
+      <c r="D861">
+        <v>3560</v>
+      </c>
+      <c r="E861">
+        <v>36</v>
+      </c>
+      <c r="F861">
+        <v>3452</v>
+      </c>
+      <c r="G861">
+        <v>0</v>
+      </c>
+      <c r="H861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>860</v>
+      </c>
+      <c r="B862">
+        <v>1311000</v>
+      </c>
+      <c r="C862">
+        <v>35</v>
+      </c>
+      <c r="D862">
+        <v>3564</v>
+      </c>
+      <c r="E862">
+        <v>36</v>
+      </c>
+      <c r="F862">
+        <v>3456</v>
+      </c>
+      <c r="G862">
+        <v>0</v>
+      </c>
+      <c r="H862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>861</v>
+      </c>
+      <c r="B863">
+        <v>1312500</v>
+      </c>
+      <c r="C863">
+        <v>35</v>
+      </c>
+      <c r="D863">
+        <v>3568</v>
+      </c>
+      <c r="E863">
+        <v>36</v>
+      </c>
+      <c r="F863">
+        <v>3460</v>
+      </c>
+      <c r="G863">
+        <v>0</v>
+      </c>
+      <c r="H863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>862</v>
+      </c>
+      <c r="B864">
+        <v>1314000</v>
+      </c>
+      <c r="C864">
+        <v>35</v>
+      </c>
+      <c r="D864">
+        <v>3572</v>
+      </c>
+      <c r="E864">
+        <v>36</v>
+      </c>
+      <c r="F864">
+        <v>3464</v>
+      </c>
+      <c r="G864">
+        <v>0</v>
+      </c>
+      <c r="H864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>863</v>
+      </c>
+      <c r="B865">
+        <v>1315500</v>
+      </c>
+      <c r="C865">
+        <v>35</v>
+      </c>
+      <c r="D865">
+        <v>3576</v>
+      </c>
+      <c r="E865">
+        <v>36</v>
+      </c>
+      <c r="F865">
+        <v>3468</v>
+      </c>
+      <c r="G865">
+        <v>0</v>
+      </c>
+      <c r="H865">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>864</v>
+      </c>
+      <c r="B866">
+        <v>1317000</v>
+      </c>
+      <c r="C866">
+        <v>35</v>
+      </c>
+      <c r="D866">
+        <v>3580</v>
+      </c>
+      <c r="E866">
+        <v>36</v>
+      </c>
+      <c r="F866">
+        <v>3472</v>
+      </c>
+      <c r="G866">
+        <v>0</v>
+      </c>
+      <c r="H866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>865</v>
+      </c>
+      <c r="B867">
+        <v>1318500</v>
+      </c>
+      <c r="C867">
+        <v>35</v>
+      </c>
+      <c r="D867">
+        <v>3584</v>
+      </c>
+      <c r="E867">
+        <v>36</v>
+      </c>
+      <c r="F867">
+        <v>3476</v>
+      </c>
+      <c r="G867">
+        <v>0</v>
+      </c>
+      <c r="H867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>866</v>
+      </c>
+      <c r="B868">
+        <v>1320000</v>
+      </c>
+      <c r="C868">
+        <v>35</v>
+      </c>
+      <c r="D868">
+        <v>3588</v>
+      </c>
+      <c r="E868">
+        <v>36</v>
+      </c>
+      <c r="F868">
+        <v>3480</v>
+      </c>
+      <c r="G868">
+        <v>0</v>
+      </c>
+      <c r="H868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>867</v>
+      </c>
+      <c r="B869">
+        <v>1321500</v>
+      </c>
+      <c r="C869">
+        <v>35</v>
+      </c>
+      <c r="D869">
+        <v>3592</v>
+      </c>
+      <c r="E869">
+        <v>36</v>
+      </c>
+      <c r="F869">
+        <v>3484</v>
+      </c>
+      <c r="G869">
+        <v>0</v>
+      </c>
+      <c r="H869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>868</v>
+      </c>
+      <c r="B870">
+        <v>1323000</v>
+      </c>
+      <c r="C870">
+        <v>35</v>
+      </c>
+      <c r="D870">
+        <v>3596</v>
+      </c>
+      <c r="E870">
+        <v>36</v>
+      </c>
+      <c r="F870">
+        <v>3488</v>
+      </c>
+      <c r="G870">
+        <v>0</v>
+      </c>
+      <c r="H870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>869</v>
+      </c>
+      <c r="B871">
+        <v>1324500</v>
+      </c>
+      <c r="C871">
+        <v>35</v>
+      </c>
+      <c r="D871">
+        <v>3600</v>
+      </c>
+      <c r="E871">
+        <v>36</v>
+      </c>
+      <c r="F871">
+        <v>3492</v>
+      </c>
+      <c r="G871">
+        <v>0</v>
+      </c>
+      <c r="H871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>870</v>
+      </c>
+      <c r="B872">
+        <v>1326000</v>
+      </c>
+      <c r="C872">
+        <v>35</v>
+      </c>
+      <c r="D872">
+        <v>3604</v>
+      </c>
+      <c r="E872">
+        <v>36</v>
+      </c>
+      <c r="F872">
+        <v>3496</v>
+      </c>
+      <c r="G872">
+        <v>0</v>
+      </c>
+      <c r="H872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>871</v>
+      </c>
+      <c r="B873">
+        <v>1327500</v>
+      </c>
+      <c r="C873">
+        <v>35</v>
+      </c>
+      <c r="D873">
+        <v>3608</v>
+      </c>
+      <c r="E873">
+        <v>36</v>
+      </c>
+      <c r="F873">
+        <v>3500</v>
+      </c>
+      <c r="G873">
+        <v>0</v>
+      </c>
+      <c r="H873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>872</v>
+      </c>
+      <c r="B874">
+        <v>1329000</v>
+      </c>
+      <c r="C874">
+        <v>35</v>
+      </c>
+      <c r="D874">
+        <v>3612</v>
+      </c>
+      <c r="E874">
+        <v>36</v>
+      </c>
+      <c r="F874">
+        <v>3504</v>
+      </c>
+      <c r="G874">
+        <v>0</v>
+      </c>
+      <c r="H874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>873</v>
+      </c>
+      <c r="B875">
+        <v>1330500</v>
+      </c>
+      <c r="C875">
+        <v>35</v>
+      </c>
+      <c r="D875">
+        <v>3616</v>
+      </c>
+      <c r="E875">
+        <v>36</v>
+      </c>
+      <c r="F875">
+        <v>3508</v>
+      </c>
+      <c r="G875">
+        <v>0</v>
+      </c>
+      <c r="H875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>874</v>
+      </c>
+      <c r="B876">
+        <v>1332000</v>
+      </c>
+      <c r="C876">
+        <v>35</v>
+      </c>
+      <c r="D876">
+        <v>3620</v>
+      </c>
+      <c r="E876">
+        <v>36</v>
+      </c>
+      <c r="F876">
+        <v>3512</v>
+      </c>
+      <c r="G876">
+        <v>0</v>
+      </c>
+      <c r="H876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>875</v>
+      </c>
+      <c r="B877">
+        <v>1333500</v>
+      </c>
+      <c r="C877">
+        <v>35</v>
+      </c>
+      <c r="D877">
+        <v>3624</v>
+      </c>
+      <c r="E877">
+        <v>36</v>
+      </c>
+      <c r="F877">
+        <v>3516</v>
+      </c>
+      <c r="G877">
+        <v>0</v>
+      </c>
+      <c r="H877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>876</v>
+      </c>
+      <c r="B878">
+        <v>1335000</v>
+      </c>
+      <c r="C878">
+        <v>35</v>
+      </c>
+      <c r="D878">
+        <v>3628</v>
+      </c>
+      <c r="E878">
+        <v>36</v>
+      </c>
+      <c r="F878">
+        <v>3520</v>
+      </c>
+      <c r="G878">
+        <v>0</v>
+      </c>
+      <c r="H878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>877</v>
+      </c>
+      <c r="B879">
+        <v>1336500</v>
+      </c>
+      <c r="C879">
+        <v>35</v>
+      </c>
+      <c r="D879">
+        <v>3632</v>
+      </c>
+      <c r="E879">
+        <v>36</v>
+      </c>
+      <c r="F879">
+        <v>3524</v>
+      </c>
+      <c r="G879">
+        <v>0</v>
+      </c>
+      <c r="H879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>878</v>
+      </c>
+      <c r="B880">
+        <v>1338000</v>
+      </c>
+      <c r="C880">
+        <v>35</v>
+      </c>
+      <c r="D880">
+        <v>3636</v>
+      </c>
+      <c r="E880">
+        <v>36</v>
+      </c>
+      <c r="F880">
+        <v>3528</v>
+      </c>
+      <c r="G880">
+        <v>0</v>
+      </c>
+      <c r="H880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>879</v>
+      </c>
+      <c r="B881">
+        <v>1339500</v>
+      </c>
+      <c r="C881">
+        <v>35</v>
+      </c>
+      <c r="D881">
+        <v>3640</v>
+      </c>
+      <c r="E881">
+        <v>36</v>
+      </c>
+      <c r="F881">
+        <v>3532</v>
+      </c>
+      <c r="G881">
+        <v>0</v>
+      </c>
+      <c r="H881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>880</v>
+      </c>
+      <c r="B882">
+        <v>1341000</v>
+      </c>
+      <c r="C882">
+        <v>35</v>
+      </c>
+      <c r="D882">
+        <v>3644</v>
+      </c>
+      <c r="E882">
+        <v>36</v>
+      </c>
+      <c r="F882">
+        <v>3536</v>
+      </c>
+      <c r="G882">
+        <v>0</v>
+      </c>
+      <c r="H882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>881</v>
+      </c>
+      <c r="B883">
+        <v>1342500</v>
+      </c>
+      <c r="C883">
+        <v>35</v>
+      </c>
+      <c r="D883">
+        <v>3648</v>
+      </c>
+      <c r="E883">
+        <v>36</v>
+      </c>
+      <c r="F883">
+        <v>3540</v>
+      </c>
+      <c r="G883">
+        <v>0</v>
+      </c>
+      <c r="H883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>882</v>
+      </c>
+      <c r="B884">
+        <v>1344000</v>
+      </c>
+      <c r="C884">
+        <v>35</v>
+      </c>
+      <c r="D884">
+        <v>3652</v>
+      </c>
+      <c r="E884">
+        <v>36</v>
+      </c>
+      <c r="F884">
+        <v>3544</v>
+      </c>
+      <c r="G884">
+        <v>0</v>
+      </c>
+      <c r="H884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>883</v>
+      </c>
+      <c r="B885">
+        <v>1345500</v>
+      </c>
+      <c r="C885">
+        <v>35</v>
+      </c>
+      <c r="D885">
+        <v>3656</v>
+      </c>
+      <c r="E885">
+        <v>36</v>
+      </c>
+      <c r="F885">
+        <v>3548</v>
+      </c>
+      <c r="G885">
+        <v>0</v>
+      </c>
+      <c r="H885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>884</v>
+      </c>
+      <c r="B886">
+        <v>1347000</v>
+      </c>
+      <c r="C886">
+        <v>35</v>
+      </c>
+      <c r="D886">
+        <v>3660</v>
+      </c>
+      <c r="E886">
+        <v>36</v>
+      </c>
+      <c r="F886">
+        <v>3552</v>
+      </c>
+      <c r="G886">
+        <v>0</v>
+      </c>
+      <c r="H886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>885</v>
+      </c>
+      <c r="B887">
+        <v>1348500</v>
+      </c>
+      <c r="C887">
+        <v>35</v>
+      </c>
+      <c r="D887">
+        <v>3664</v>
+      </c>
+      <c r="E887">
+        <v>36</v>
+      </c>
+      <c r="F887">
+        <v>3556</v>
+      </c>
+      <c r="G887">
+        <v>0</v>
+      </c>
+      <c r="H887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>886</v>
+      </c>
+      <c r="B888">
+        <v>1350000</v>
+      </c>
+      <c r="C888">
+        <v>35</v>
+      </c>
+      <c r="D888">
+        <v>3668</v>
+      </c>
+      <c r="E888">
+        <v>36</v>
+      </c>
+      <c r="F888">
+        <v>3560</v>
+      </c>
+      <c r="G888">
+        <v>0</v>
+      </c>
+      <c r="H888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>887</v>
+      </c>
+      <c r="B889">
+        <v>1351500</v>
+      </c>
+      <c r="C889">
+        <v>35</v>
+      </c>
+      <c r="D889">
+        <v>3672</v>
+      </c>
+      <c r="E889">
+        <v>36</v>
+      </c>
+      <c r="F889">
+        <v>3564</v>
+      </c>
+      <c r="G889">
+        <v>0</v>
+      </c>
+      <c r="H889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>888</v>
+      </c>
+      <c r="B890">
+        <v>1353000</v>
+      </c>
+      <c r="C890">
+        <v>35</v>
+      </c>
+      <c r="D890">
+        <v>3676</v>
+      </c>
+      <c r="E890">
+        <v>36</v>
+      </c>
+      <c r="F890">
+        <v>3568</v>
+      </c>
+      <c r="G890">
+        <v>0</v>
+      </c>
+      <c r="H890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>889</v>
+      </c>
+      <c r="B891">
+        <v>1354500</v>
+      </c>
+      <c r="C891">
+        <v>35</v>
+      </c>
+      <c r="D891">
+        <v>3680</v>
+      </c>
+      <c r="E891">
+        <v>36</v>
+      </c>
+      <c r="F891">
+        <v>3572</v>
+      </c>
+      <c r="G891">
+        <v>0</v>
+      </c>
+      <c r="H891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>890</v>
+      </c>
+      <c r="B892">
+        <v>1356000</v>
+      </c>
+      <c r="C892">
+        <v>35</v>
+      </c>
+      <c r="D892">
+        <v>3684</v>
+      </c>
+      <c r="E892">
+        <v>36</v>
+      </c>
+      <c r="F892">
+        <v>3576</v>
+      </c>
+      <c r="G892">
+        <v>0</v>
+      </c>
+      <c r="H892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>891</v>
+      </c>
+      <c r="B893">
+        <v>1357500</v>
+      </c>
+      <c r="C893">
+        <v>35</v>
+      </c>
+      <c r="D893">
+        <v>3688</v>
+      </c>
+      <c r="E893">
+        <v>36</v>
+      </c>
+      <c r="F893">
+        <v>3580</v>
+      </c>
+      <c r="G893">
+        <v>0</v>
+      </c>
+      <c r="H893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>892</v>
+      </c>
+      <c r="B894">
+        <v>1359000</v>
+      </c>
+      <c r="C894">
+        <v>35</v>
+      </c>
+      <c r="D894">
+        <v>3692</v>
+      </c>
+      <c r="E894">
+        <v>36</v>
+      </c>
+      <c r="F894">
+        <v>3584</v>
+      </c>
+      <c r="G894">
+        <v>0</v>
+      </c>
+      <c r="H894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>893</v>
+      </c>
+      <c r="B895">
+        <v>1360500</v>
+      </c>
+      <c r="C895">
+        <v>35</v>
+      </c>
+      <c r="D895">
+        <v>3696</v>
+      </c>
+      <c r="E895">
+        <v>36</v>
+      </c>
+      <c r="F895">
+        <v>3588</v>
+      </c>
+      <c r="G895">
+        <v>0</v>
+      </c>
+      <c r="H895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>894</v>
+      </c>
+      <c r="B896">
+        <v>1362000</v>
+      </c>
+      <c r="C896">
+        <v>35</v>
+      </c>
+      <c r="D896">
+        <v>3700</v>
+      </c>
+      <c r="E896">
+        <v>36</v>
+      </c>
+      <c r="F896">
+        <v>3592</v>
+      </c>
+      <c r="G896">
+        <v>0</v>
+      </c>
+      <c r="H896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>895</v>
+      </c>
+      <c r="B897">
+        <v>1363500</v>
+      </c>
+      <c r="C897">
+        <v>35</v>
+      </c>
+      <c r="D897">
+        <v>3704</v>
+      </c>
+      <c r="E897">
+        <v>36</v>
+      </c>
+      <c r="F897">
+        <v>3596</v>
+      </c>
+      <c r="G897">
+        <v>0</v>
+      </c>
+      <c r="H897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>896</v>
+      </c>
+      <c r="B898">
+        <v>1365000</v>
+      </c>
+      <c r="C898">
+        <v>35</v>
+      </c>
+      <c r="D898">
+        <v>3708</v>
+      </c>
+      <c r="E898">
+        <v>36</v>
+      </c>
+      <c r="F898">
+        <v>3600</v>
+      </c>
+      <c r="G898">
+        <v>0</v>
+      </c>
+      <c r="H898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>897</v>
+      </c>
+      <c r="B899">
+        <v>1366500</v>
+      </c>
+      <c r="C899">
+        <v>35</v>
+      </c>
+      <c r="D899">
+        <v>3712</v>
+      </c>
+      <c r="E899">
+        <v>36</v>
+      </c>
+      <c r="F899">
+        <v>3604</v>
+      </c>
+      <c r="G899">
+        <v>0</v>
+      </c>
+      <c r="H899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>898</v>
+      </c>
+      <c r="B900">
+        <v>1368000</v>
+      </c>
+      <c r="C900">
+        <v>35</v>
+      </c>
+      <c r="D900">
+        <v>3716</v>
+      </c>
+      <c r="E900">
+        <v>36</v>
+      </c>
+      <c r="F900">
+        <v>3608</v>
+      </c>
+      <c r="G900">
+        <v>0</v>
+      </c>
+      <c r="H900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>899</v>
+      </c>
+      <c r="B901">
+        <v>1369500</v>
+      </c>
+      <c r="C901">
+        <v>35</v>
+      </c>
+      <c r="D901">
+        <v>3720</v>
+      </c>
+      <c r="E901">
+        <v>36</v>
+      </c>
+      <c r="F901">
+        <v>3612</v>
+      </c>
+      <c r="G901">
+        <v>0</v>
+      </c>
+      <c r="H901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>900</v>
+      </c>
+      <c r="B902">
+        <v>1371000</v>
+      </c>
+      <c r="C902">
+        <v>35</v>
+      </c>
+      <c r="D902">
+        <v>3724</v>
+      </c>
+      <c r="E902">
+        <v>36</v>
+      </c>
+      <c r="F902">
+        <v>3616</v>
+      </c>
+      <c r="G902">
+        <v>0</v>
+      </c>
+      <c r="H902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>901</v>
+      </c>
+      <c r="B903">
+        <v>1372500</v>
+      </c>
+      <c r="C903">
+        <v>35</v>
+      </c>
+      <c r="D903">
+        <v>3728</v>
+      </c>
+      <c r="E903">
+        <v>36</v>
+      </c>
+      <c r="F903">
+        <v>3620</v>
+      </c>
+      <c r="G903">
+        <v>0</v>
+      </c>
+      <c r="H903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>902</v>
+      </c>
+      <c r="B904">
+        <v>1374000</v>
+      </c>
+      <c r="C904">
+        <v>35</v>
+      </c>
+      <c r="D904">
+        <v>3732</v>
+      </c>
+      <c r="E904">
+        <v>36</v>
+      </c>
+      <c r="F904">
+        <v>3624</v>
+      </c>
+      <c r="G904">
+        <v>0</v>
+      </c>
+      <c r="H904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>903</v>
+      </c>
+      <c r="B905">
+        <v>1375500</v>
+      </c>
+      <c r="C905">
+        <v>35</v>
+      </c>
+      <c r="D905">
+        <v>3736</v>
+      </c>
+      <c r="E905">
+        <v>36</v>
+      </c>
+      <c r="F905">
+        <v>3628</v>
+      </c>
+      <c r="G905">
+        <v>0</v>
+      </c>
+      <c r="H905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>904</v>
+      </c>
+      <c r="B906">
+        <v>1377000</v>
+      </c>
+      <c r="C906">
+        <v>35</v>
+      </c>
+      <c r="D906">
+        <v>3740</v>
+      </c>
+      <c r="E906">
+        <v>36</v>
+      </c>
+      <c r="F906">
+        <v>3632</v>
+      </c>
+      <c r="G906">
+        <v>0</v>
+      </c>
+      <c r="H906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>905</v>
+      </c>
+      <c r="B907">
+        <v>1378500</v>
+      </c>
+      <c r="C907">
+        <v>35</v>
+      </c>
+      <c r="D907">
+        <v>3744</v>
+      </c>
+      <c r="E907">
+        <v>36</v>
+      </c>
+      <c r="F907">
+        <v>3636</v>
+      </c>
+      <c r="G907">
+        <v>0</v>
+      </c>
+      <c r="H907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>906</v>
+      </c>
+      <c r="B908">
+        <v>1380000</v>
+      </c>
+      <c r="C908">
+        <v>35</v>
+      </c>
+      <c r="D908">
+        <v>3748</v>
+      </c>
+      <c r="E908">
+        <v>36</v>
+      </c>
+      <c r="F908">
+        <v>3640</v>
+      </c>
+      <c r="G908">
+        <v>0</v>
+      </c>
+      <c r="H908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>907</v>
+      </c>
+      <c r="B909">
+        <v>1381500</v>
+      </c>
+      <c r="C909">
+        <v>35</v>
+      </c>
+      <c r="D909">
+        <v>3752</v>
+      </c>
+      <c r="E909">
+        <v>36</v>
+      </c>
+      <c r="F909">
+        <v>3644</v>
+      </c>
+      <c r="G909">
+        <v>0</v>
+      </c>
+      <c r="H909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>908</v>
+      </c>
+      <c r="B910">
+        <v>1383000</v>
+      </c>
+      <c r="C910">
+        <v>35</v>
+      </c>
+      <c r="D910">
+        <v>3756</v>
+      </c>
+      <c r="E910">
+        <v>36</v>
+      </c>
+      <c r="F910">
+        <v>3648</v>
+      </c>
+      <c r="G910">
+        <v>0</v>
+      </c>
+      <c r="H910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>909</v>
+      </c>
+      <c r="B911">
+        <v>1384500</v>
+      </c>
+      <c r="C911">
+        <v>35</v>
+      </c>
+      <c r="D911">
+        <v>3760</v>
+      </c>
+      <c r="E911">
+        <v>36</v>
+      </c>
+      <c r="F911">
+        <v>3652</v>
+      </c>
+      <c r="G911">
+        <v>0</v>
+      </c>
+      <c r="H911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>910</v>
+      </c>
+      <c r="B912">
+        <v>1386000</v>
+      </c>
+      <c r="C912">
+        <v>35</v>
+      </c>
+      <c r="D912">
+        <v>3764</v>
+      </c>
+      <c r="E912">
+        <v>36</v>
+      </c>
+      <c r="F912">
+        <v>3656</v>
+      </c>
+      <c r="G912">
+        <v>0</v>
+      </c>
+      <c r="H912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>911</v>
+      </c>
+      <c r="B913">
+        <v>1387500</v>
+      </c>
+      <c r="C913">
+        <v>35</v>
+      </c>
+      <c r="D913">
+        <v>3768</v>
+      </c>
+      <c r="E913">
+        <v>36</v>
+      </c>
+      <c r="F913">
+        <v>3660</v>
+      </c>
+      <c r="G913">
+        <v>0</v>
+      </c>
+      <c r="H913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>912</v>
+      </c>
+      <c r="B914">
+        <v>1389000</v>
+      </c>
+      <c r="C914">
+        <v>35</v>
+      </c>
+      <c r="D914">
+        <v>3772</v>
+      </c>
+      <c r="E914">
+        <v>36</v>
+      </c>
+      <c r="F914">
+        <v>3664</v>
+      </c>
+      <c r="G914">
+        <v>0</v>
+      </c>
+      <c r="H914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>913</v>
+      </c>
+      <c r="B915">
+        <v>1390500</v>
+      </c>
+      <c r="C915">
+        <v>35</v>
+      </c>
+      <c r="D915">
+        <v>3776</v>
+      </c>
+      <c r="E915">
+        <v>36</v>
+      </c>
+      <c r="F915">
+        <v>3668</v>
+      </c>
+      <c r="G915">
+        <v>0</v>
+      </c>
+      <c r="H915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>914</v>
+      </c>
+      <c r="B916">
+        <v>1392000</v>
+      </c>
+      <c r="C916">
+        <v>35</v>
+      </c>
+      <c r="D916">
+        <v>3780</v>
+      </c>
+      <c r="E916">
+        <v>36</v>
+      </c>
+      <c r="F916">
+        <v>3672</v>
+      </c>
+      <c r="G916">
+        <v>0</v>
+      </c>
+      <c r="H916">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>915</v>
+      </c>
+      <c r="B917">
+        <v>1393500</v>
+      </c>
+      <c r="C917">
+        <v>35</v>
+      </c>
+      <c r="D917">
+        <v>3784</v>
+      </c>
+      <c r="E917">
+        <v>36</v>
+      </c>
+      <c r="F917">
+        <v>3676</v>
+      </c>
+      <c r="G917">
+        <v>0</v>
+      </c>
+      <c r="H917">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>916</v>
+      </c>
+      <c r="B918">
+        <v>1395000</v>
+      </c>
+      <c r="C918">
+        <v>35</v>
+      </c>
+      <c r="D918">
+        <v>3788</v>
+      </c>
+      <c r="E918">
+        <v>36</v>
+      </c>
+      <c r="F918">
+        <v>3680</v>
+      </c>
+      <c r="G918">
+        <v>0</v>
+      </c>
+      <c r="H918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>917</v>
+      </c>
+      <c r="B919">
+        <v>1396500</v>
+      </c>
+      <c r="C919">
+        <v>35</v>
+      </c>
+      <c r="D919">
+        <v>3792</v>
+      </c>
+      <c r="E919">
+        <v>36</v>
+      </c>
+      <c r="F919">
+        <v>3684</v>
+      </c>
+      <c r="G919">
+        <v>0</v>
+      </c>
+      <c r="H919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>918</v>
+      </c>
+      <c r="B920">
+        <v>1398000</v>
+      </c>
+      <c r="C920">
+        <v>35</v>
+      </c>
+      <c r="D920">
+        <v>3796</v>
+      </c>
+      <c r="E920">
+        <v>36</v>
+      </c>
+      <c r="F920">
+        <v>3688</v>
+      </c>
+      <c r="G920">
+        <v>0</v>
+      </c>
+      <c r="H920">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>919</v>
+      </c>
+      <c r="B921">
+        <v>1399500</v>
+      </c>
+      <c r="C921">
+        <v>35</v>
+      </c>
+      <c r="D921">
+        <v>3800</v>
+      </c>
+      <c r="E921">
+        <v>36</v>
+      </c>
+      <c r="F921">
+        <v>3692</v>
+      </c>
+      <c r="G921">
+        <v>0</v>
+      </c>
+      <c r="H921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>920</v>
+      </c>
+      <c r="B922">
+        <v>1401000</v>
+      </c>
+      <c r="C922">
+        <v>35</v>
+      </c>
+      <c r="D922">
+        <v>3804</v>
+      </c>
+      <c r="E922">
+        <v>36</v>
+      </c>
+      <c r="F922">
+        <v>3696</v>
+      </c>
+      <c r="G922">
+        <v>0</v>
+      </c>
+      <c r="H922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>921</v>
+      </c>
+      <c r="B923">
+        <v>1402500</v>
+      </c>
+      <c r="C923">
+        <v>35</v>
+      </c>
+      <c r="D923">
+        <v>3808</v>
+      </c>
+      <c r="E923">
+        <v>36</v>
+      </c>
+      <c r="F923">
+        <v>3700</v>
+      </c>
+      <c r="G923">
+        <v>0</v>
+      </c>
+      <c r="H923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>922</v>
+      </c>
+      <c r="B924">
+        <v>1404000</v>
+      </c>
+      <c r="C924">
+        <v>35</v>
+      </c>
+      <c r="D924">
+        <v>3812</v>
+      </c>
+      <c r="E924">
+        <v>36</v>
+      </c>
+      <c r="F924">
+        <v>3704</v>
+      </c>
+      <c r="G924">
+        <v>0</v>
+      </c>
+      <c r="H924">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>923</v>
+      </c>
+      <c r="B925">
+        <v>1405500</v>
+      </c>
+      <c r="C925">
+        <v>35</v>
+      </c>
+      <c r="D925">
+        <v>3816</v>
+      </c>
+      <c r="E925">
+        <v>36</v>
+      </c>
+      <c r="F925">
+        <v>3708</v>
+      </c>
+      <c r="G925">
+        <v>0</v>
+      </c>
+      <c r="H925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>924</v>
+      </c>
+      <c r="B926">
+        <v>1407000</v>
+      </c>
+      <c r="C926">
+        <v>35</v>
+      </c>
+      <c r="D926">
+        <v>3820</v>
+      </c>
+      <c r="E926">
+        <v>36</v>
+      </c>
+      <c r="F926">
+        <v>3712</v>
+      </c>
+      <c r="G926">
+        <v>0</v>
+      </c>
+      <c r="H926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>925</v>
+      </c>
+      <c r="B927">
+        <v>1408500</v>
+      </c>
+      <c r="C927">
+        <v>35</v>
+      </c>
+      <c r="D927">
+        <v>3824</v>
+      </c>
+      <c r="E927">
+        <v>36</v>
+      </c>
+      <c r="F927">
+        <v>3716</v>
+      </c>
+      <c r="G927">
+        <v>0</v>
+      </c>
+      <c r="H927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>926</v>
+      </c>
+      <c r="B928">
+        <v>1410000</v>
+      </c>
+      <c r="C928">
+        <v>35</v>
+      </c>
+      <c r="D928">
+        <v>3828</v>
+      </c>
+      <c r="E928">
+        <v>36</v>
+      </c>
+      <c r="F928">
+        <v>3720</v>
+      </c>
+      <c r="G928">
+        <v>0</v>
+      </c>
+      <c r="H928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>927</v>
+      </c>
+      <c r="B929">
+        <v>1411500</v>
+      </c>
+      <c r="C929">
+        <v>35</v>
+      </c>
+      <c r="D929">
+        <v>3832</v>
+      </c>
+      <c r="E929">
+        <v>36</v>
+      </c>
+      <c r="F929">
+        <v>3724</v>
+      </c>
+      <c r="G929">
+        <v>0</v>
+      </c>
+      <c r="H929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>928</v>
+      </c>
+      <c r="B930">
+        <v>1413000</v>
+      </c>
+      <c r="C930">
+        <v>35</v>
+      </c>
+      <c r="D930">
+        <v>3836</v>
+      </c>
+      <c r="E930">
+        <v>36</v>
+      </c>
+      <c r="F930">
+        <v>3728</v>
+      </c>
+      <c r="G930">
+        <v>0</v>
+      </c>
+      <c r="H930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>929</v>
+      </c>
+      <c r="B931">
+        <v>1414500</v>
+      </c>
+      <c r="C931">
+        <v>35</v>
+      </c>
+      <c r="D931">
+        <v>3840</v>
+      </c>
+      <c r="E931">
+        <v>36</v>
+      </c>
+      <c r="F931">
+        <v>3732</v>
+      </c>
+      <c r="G931">
+        <v>0</v>
+      </c>
+      <c r="H931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>930</v>
+      </c>
+      <c r="B932">
+        <v>1416000</v>
+      </c>
+      <c r="C932">
+        <v>35</v>
+      </c>
+      <c r="D932">
+        <v>3844</v>
+      </c>
+      <c r="E932">
+        <v>36</v>
+      </c>
+      <c r="F932">
+        <v>3736</v>
+      </c>
+      <c r="G932">
+        <v>0</v>
+      </c>
+      <c r="H932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>931</v>
+      </c>
+      <c r="B933">
+        <v>1417500</v>
+      </c>
+      <c r="C933">
+        <v>35</v>
+      </c>
+      <c r="D933">
+        <v>3848</v>
+      </c>
+      <c r="E933">
+        <v>36</v>
+      </c>
+      <c r="F933">
+        <v>3740</v>
+      </c>
+      <c r="G933">
+        <v>0</v>
+      </c>
+      <c r="H933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>932</v>
+      </c>
+      <c r="B934">
+        <v>1419000</v>
+      </c>
+      <c r="C934">
+        <v>35</v>
+      </c>
+      <c r="D934">
+        <v>3852</v>
+      </c>
+      <c r="E934">
+        <v>36</v>
+      </c>
+      <c r="F934">
+        <v>3744</v>
+      </c>
+      <c r="G934">
+        <v>0</v>
+      </c>
+      <c r="H934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>933</v>
+      </c>
+      <c r="B935">
+        <v>1420500</v>
+      </c>
+      <c r="C935">
+        <v>35</v>
+      </c>
+      <c r="D935">
+        <v>3856</v>
+      </c>
+      <c r="E935">
+        <v>36</v>
+      </c>
+      <c r="F935">
+        <v>3748</v>
+      </c>
+      <c r="G935">
+        <v>0</v>
+      </c>
+      <c r="H935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>934</v>
+      </c>
+      <c r="B936">
+        <v>1422000</v>
+      </c>
+      <c r="C936">
+        <v>35</v>
+      </c>
+      <c r="D936">
+        <v>3860</v>
+      </c>
+      <c r="E936">
+        <v>36</v>
+      </c>
+      <c r="F936">
+        <v>3752</v>
+      </c>
+      <c r="G936">
+        <v>0</v>
+      </c>
+      <c r="H936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>935</v>
+      </c>
+      <c r="B937">
+        <v>1423500</v>
+      </c>
+      <c r="C937">
+        <v>35</v>
+      </c>
+      <c r="D937">
+        <v>3864</v>
+      </c>
+      <c r="E937">
+        <v>36</v>
+      </c>
+      <c r="F937">
+        <v>3756</v>
+      </c>
+      <c r="G937">
+        <v>0</v>
+      </c>
+      <c r="H937">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>936</v>
+      </c>
+      <c r="B938">
+        <v>1425000</v>
+      </c>
+      <c r="C938">
+        <v>35</v>
+      </c>
+      <c r="D938">
+        <v>3868</v>
+      </c>
+      <c r="E938">
+        <v>36</v>
+      </c>
+      <c r="F938">
+        <v>3760</v>
+      </c>
+      <c r="G938">
+        <v>0</v>
+      </c>
+      <c r="H938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>937</v>
+      </c>
+      <c r="B939">
+        <v>1426500</v>
+      </c>
+      <c r="C939">
+        <v>35</v>
+      </c>
+      <c r="D939">
+        <v>3872</v>
+      </c>
+      <c r="E939">
+        <v>36</v>
+      </c>
+      <c r="F939">
+        <v>3764</v>
+      </c>
+      <c r="G939">
+        <v>0</v>
+      </c>
+      <c r="H939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>938</v>
+      </c>
+      <c r="B940">
+        <v>1428000</v>
+      </c>
+      <c r="C940">
+        <v>35</v>
+      </c>
+      <c r="D940">
+        <v>3876</v>
+      </c>
+      <c r="E940">
+        <v>36</v>
+      </c>
+      <c r="F940">
+        <v>3768</v>
+      </c>
+      <c r="G940">
+        <v>0</v>
+      </c>
+      <c r="H940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>939</v>
+      </c>
+      <c r="B941">
+        <v>1429500</v>
+      </c>
+      <c r="C941">
+        <v>35</v>
+      </c>
+      <c r="D941">
+        <v>3880</v>
+      </c>
+      <c r="E941">
+        <v>36</v>
+      </c>
+      <c r="F941">
+        <v>3772</v>
+      </c>
+      <c r="G941">
+        <v>0</v>
+      </c>
+      <c r="H941">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>940</v>
+      </c>
+      <c r="B942">
+        <v>1431000</v>
+      </c>
+      <c r="C942">
+        <v>35</v>
+      </c>
+      <c r="D942">
+        <v>3884</v>
+      </c>
+      <c r="E942">
+        <v>36</v>
+      </c>
+      <c r="F942">
+        <v>3776</v>
+      </c>
+      <c r="G942">
+        <v>0</v>
+      </c>
+      <c r="H942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>941</v>
+      </c>
+      <c r="B943">
+        <v>1432500</v>
+      </c>
+      <c r="C943">
+        <v>35</v>
+      </c>
+      <c r="D943">
+        <v>3888</v>
+      </c>
+      <c r="E943">
+        <v>36</v>
+      </c>
+      <c r="F943">
+        <v>3780</v>
+      </c>
+      <c r="G943">
+        <v>0</v>
+      </c>
+      <c r="H943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>942</v>
+      </c>
+      <c r="B944">
+        <v>1434000</v>
+      </c>
+      <c r="C944">
+        <v>35</v>
+      </c>
+      <c r="D944">
+        <v>3892</v>
+      </c>
+      <c r="E944">
+        <v>36</v>
+      </c>
+      <c r="F944">
+        <v>3784</v>
+      </c>
+      <c r="G944">
+        <v>0</v>
+      </c>
+      <c r="H944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>943</v>
+      </c>
+      <c r="B945">
+        <v>1435500</v>
+      </c>
+      <c r="C945">
+        <v>35</v>
+      </c>
+      <c r="D945">
+        <v>3896</v>
+      </c>
+      <c r="E945">
+        <v>36</v>
+      </c>
+      <c r="F945">
+        <v>3788</v>
+      </c>
+      <c r="G945">
+        <v>0</v>
+      </c>
+      <c r="H945">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>944</v>
+      </c>
+      <c r="B946">
+        <v>1437000</v>
+      </c>
+      <c r="C946">
+        <v>35</v>
+      </c>
+      <c r="D946">
+        <v>3900</v>
+      </c>
+      <c r="E946">
+        <v>36</v>
+      </c>
+      <c r="F946">
+        <v>3792</v>
+      </c>
+      <c r="G946">
+        <v>0</v>
+      </c>
+      <c r="H946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>945</v>
+      </c>
+      <c r="B947">
+        <v>1438500</v>
+      </c>
+      <c r="C947">
+        <v>35</v>
+      </c>
+      <c r="D947">
+        <v>3904</v>
+      </c>
+      <c r="E947">
+        <v>36</v>
+      </c>
+      <c r="F947">
+        <v>3796</v>
+      </c>
+      <c r="G947">
+        <v>0</v>
+      </c>
+      <c r="H947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>946</v>
+      </c>
+      <c r="B948">
+        <v>1440000</v>
+      </c>
+      <c r="C948">
+        <v>35</v>
+      </c>
+      <c r="D948">
+        <v>3908</v>
+      </c>
+      <c r="E948">
+        <v>36</v>
+      </c>
+      <c r="F948">
+        <v>3800</v>
+      </c>
+      <c r="G948">
+        <v>0</v>
+      </c>
+      <c r="H948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>947</v>
+      </c>
+      <c r="B949">
+        <v>1441500</v>
+      </c>
+      <c r="C949">
+        <v>35</v>
+      </c>
+      <c r="D949">
+        <v>3912</v>
+      </c>
+      <c r="E949">
+        <v>36</v>
+      </c>
+      <c r="F949">
+        <v>3804</v>
+      </c>
+      <c r="G949">
+        <v>0</v>
+      </c>
+      <c r="H949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>948</v>
+      </c>
+      <c r="B950">
+        <v>1443000</v>
+      </c>
+      <c r="C950">
+        <v>35</v>
+      </c>
+      <c r="D950">
+        <v>3916</v>
+      </c>
+      <c r="E950">
+        <v>36</v>
+      </c>
+      <c r="F950">
+        <v>3808</v>
+      </c>
+      <c r="G950">
+        <v>0</v>
+      </c>
+      <c r="H950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>949</v>
+      </c>
+      <c r="B951">
+        <v>1444500</v>
+      </c>
+      <c r="C951">
+        <v>35</v>
+      </c>
+      <c r="D951">
+        <v>3920</v>
+      </c>
+      <c r="E951">
+        <v>36</v>
+      </c>
+      <c r="F951">
+        <v>3812</v>
+      </c>
+      <c r="G951">
+        <v>0</v>
+      </c>
+      <c r="H951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>950</v>
+      </c>
+      <c r="B952">
+        <v>1446000</v>
+      </c>
+      <c r="C952">
+        <v>35</v>
+      </c>
+      <c r="D952">
+        <v>3924</v>
+      </c>
+      <c r="E952">
+        <v>36</v>
+      </c>
+      <c r="F952">
+        <v>3816</v>
+      </c>
+      <c r="G952">
+        <v>0</v>
+      </c>
+      <c r="H952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>951</v>
+      </c>
+      <c r="B953">
+        <v>1447500</v>
+      </c>
+      <c r="C953">
+        <v>35</v>
+      </c>
+      <c r="D953">
+        <v>3928</v>
+      </c>
+      <c r="E953">
+        <v>36</v>
+      </c>
+      <c r="F953">
+        <v>3820</v>
+      </c>
+      <c r="G953">
+        <v>0</v>
+      </c>
+      <c r="H953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>952</v>
+      </c>
+      <c r="B954">
+        <v>1449000</v>
+      </c>
+      <c r="C954">
+        <v>35</v>
+      </c>
+      <c r="D954">
+        <v>3932</v>
+      </c>
+      <c r="E954">
+        <v>36</v>
+      </c>
+      <c r="F954">
+        <v>3824</v>
+      </c>
+      <c r="G954">
+        <v>0</v>
+      </c>
+      <c r="H954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>953</v>
+      </c>
+      <c r="B955">
+        <v>1450500</v>
+      </c>
+      <c r="C955">
+        <v>35</v>
+      </c>
+      <c r="D955">
+        <v>3936</v>
+      </c>
+      <c r="E955">
+        <v>36</v>
+      </c>
+      <c r="F955">
+        <v>3828</v>
+      </c>
+      <c r="G955">
+        <v>0</v>
+      </c>
+      <c r="H955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>954</v>
+      </c>
+      <c r="B956">
+        <v>1452000</v>
+      </c>
+      <c r="C956">
+        <v>35</v>
+      </c>
+      <c r="D956">
+        <v>3940</v>
+      </c>
+      <c r="E956">
+        <v>36</v>
+      </c>
+      <c r="F956">
+        <v>3832</v>
+      </c>
+      <c r="G956">
+        <v>0</v>
+      </c>
+      <c r="H956">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>955</v>
+      </c>
+      <c r="B957">
+        <v>1453500</v>
+      </c>
+      <c r="C957">
+        <v>35</v>
+      </c>
+      <c r="D957">
+        <v>3944</v>
+      </c>
+      <c r="E957">
+        <v>36</v>
+      </c>
+      <c r="F957">
+        <v>3836</v>
+      </c>
+      <c r="G957">
+        <v>0</v>
+      </c>
+      <c r="H957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>956</v>
+      </c>
+      <c r="B958">
+        <v>1455000</v>
+      </c>
+      <c r="C958">
+        <v>35</v>
+      </c>
+      <c r="D958">
+        <v>3948</v>
+      </c>
+      <c r="E958">
+        <v>36</v>
+      </c>
+      <c r="F958">
+        <v>3840</v>
+      </c>
+      <c r="G958">
+        <v>0</v>
+      </c>
+      <c r="H958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>957</v>
+      </c>
+      <c r="B959">
+        <v>1456500</v>
+      </c>
+      <c r="C959">
+        <v>35</v>
+      </c>
+      <c r="D959">
+        <v>3952</v>
+      </c>
+      <c r="E959">
+        <v>36</v>
+      </c>
+      <c r="F959">
+        <v>3844</v>
+      </c>
+      <c r="G959">
+        <v>0</v>
+      </c>
+      <c r="H959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>958</v>
+      </c>
+      <c r="B960">
+        <v>1458000</v>
+      </c>
+      <c r="C960">
+        <v>35</v>
+      </c>
+      <c r="D960">
+        <v>3956</v>
+      </c>
+      <c r="E960">
+        <v>36</v>
+      </c>
+      <c r="F960">
+        <v>3848</v>
+      </c>
+      <c r="G960">
+        <v>0</v>
+      </c>
+      <c r="H960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>959</v>
+      </c>
+      <c r="B961">
+        <v>1459500</v>
+      </c>
+      <c r="C961">
+        <v>35</v>
+      </c>
+      <c r="D961">
+        <v>3960</v>
+      </c>
+      <c r="E961">
+        <v>36</v>
+      </c>
+      <c r="F961">
+        <v>3852</v>
+      </c>
+      <c r="G961">
+        <v>0</v>
+      </c>
+      <c r="H961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>960</v>
+      </c>
+      <c r="B962">
+        <v>1461000</v>
+      </c>
+      <c r="C962">
+        <v>35</v>
+      </c>
+      <c r="D962">
+        <v>3964</v>
+      </c>
+      <c r="E962">
+        <v>36</v>
+      </c>
+      <c r="F962">
+        <v>3856</v>
+      </c>
+      <c r="G962">
+        <v>0</v>
+      </c>
+      <c r="H962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>961</v>
+      </c>
+      <c r="B963">
+        <v>1462500</v>
+      </c>
+      <c r="C963">
+        <v>35</v>
+      </c>
+      <c r="D963">
+        <v>3968</v>
+      </c>
+      <c r="E963">
+        <v>36</v>
+      </c>
+      <c r="F963">
+        <v>3860</v>
+      </c>
+      <c r="G963">
+        <v>0</v>
+      </c>
+      <c r="H963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>962</v>
+      </c>
+      <c r="B964">
+        <v>1464000</v>
+      </c>
+      <c r="C964">
+        <v>35</v>
+      </c>
+      <c r="D964">
+        <v>3972</v>
+      </c>
+      <c r="E964">
+        <v>36</v>
+      </c>
+      <c r="F964">
+        <v>3864</v>
+      </c>
+      <c r="G964">
+        <v>0</v>
+      </c>
+      <c r="H964">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>963</v>
+      </c>
+      <c r="B965">
+        <v>1465500</v>
+      </c>
+      <c r="C965">
+        <v>35</v>
+      </c>
+      <c r="D965">
+        <v>3976</v>
+      </c>
+      <c r="E965">
+        <v>36</v>
+      </c>
+      <c r="F965">
+        <v>3868</v>
+      </c>
+      <c r="G965">
+        <v>0</v>
+      </c>
+      <c r="H965">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>964</v>
+      </c>
+      <c r="B966">
+        <v>1467000</v>
+      </c>
+      <c r="C966">
+        <v>35</v>
+      </c>
+      <c r="D966">
+        <v>3980</v>
+      </c>
+      <c r="E966">
+        <v>36</v>
+      </c>
+      <c r="F966">
+        <v>3872</v>
+      </c>
+      <c r="G966">
+        <v>0</v>
+      </c>
+      <c r="H966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>965</v>
+      </c>
+      <c r="B967">
+        <v>1468500</v>
+      </c>
+      <c r="C967">
+        <v>35</v>
+      </c>
+      <c r="D967">
+        <v>3984</v>
+      </c>
+      <c r="E967">
+        <v>36</v>
+      </c>
+      <c r="F967">
+        <v>3876</v>
+      </c>
+      <c r="G967">
+        <v>0</v>
+      </c>
+      <c r="H967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>966</v>
+      </c>
+      <c r="B968">
+        <v>1470000</v>
+      </c>
+      <c r="C968">
+        <v>35</v>
+      </c>
+      <c r="D968">
+        <v>3988</v>
+      </c>
+      <c r="E968">
+        <v>36</v>
+      </c>
+      <c r="F968">
+        <v>3880</v>
+      </c>
+      <c r="G968">
+        <v>0</v>
+      </c>
+      <c r="H968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>967</v>
+      </c>
+      <c r="B969">
+        <v>1471500</v>
+      </c>
+      <c r="C969">
+        <v>35</v>
+      </c>
+      <c r="D969">
+        <v>3992</v>
+      </c>
+      <c r="E969">
+        <v>36</v>
+      </c>
+      <c r="F969">
+        <v>3884</v>
+      </c>
+      <c r="G969">
+        <v>0</v>
+      </c>
+      <c r="H969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>968</v>
+      </c>
+      <c r="B970">
+        <v>1473000</v>
+      </c>
+      <c r="C970">
+        <v>35</v>
+      </c>
+      <c r="D970">
+        <v>3996</v>
+      </c>
+      <c r="E970">
+        <v>36</v>
+      </c>
+      <c r="F970">
+        <v>3888</v>
+      </c>
+      <c r="G970">
+        <v>0</v>
+      </c>
+      <c r="H970">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>969</v>
+      </c>
+      <c r="B971">
+        <v>1474500</v>
+      </c>
+      <c r="C971">
+        <v>35</v>
+      </c>
+      <c r="D971">
+        <v>4000</v>
+      </c>
+      <c r="E971">
+        <v>36</v>
+      </c>
+      <c r="F971">
+        <v>3892</v>
+      </c>
+      <c r="G971">
+        <v>0</v>
+      </c>
+      <c r="H971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>970</v>
+      </c>
+      <c r="B972">
+        <v>1476000</v>
+      </c>
+      <c r="C972">
+        <v>35</v>
+      </c>
+      <c r="D972">
+        <v>4004</v>
+      </c>
+      <c r="E972">
+        <v>36</v>
+      </c>
+      <c r="F972">
+        <v>3896</v>
+      </c>
+      <c r="G972">
+        <v>0</v>
+      </c>
+      <c r="H972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>971</v>
+      </c>
+      <c r="B973">
+        <v>1477500</v>
+      </c>
+      <c r="C973">
+        <v>35</v>
+      </c>
+      <c r="D973">
+        <v>4008</v>
+      </c>
+      <c r="E973">
+        <v>36</v>
+      </c>
+      <c r="F973">
+        <v>3900</v>
+      </c>
+      <c r="G973">
+        <v>0</v>
+      </c>
+      <c r="H973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>972</v>
+      </c>
+      <c r="B974">
+        <v>1479000</v>
+      </c>
+      <c r="C974">
+        <v>35</v>
+      </c>
+      <c r="D974">
+        <v>4012</v>
+      </c>
+      <c r="E974">
+        <v>36</v>
+      </c>
+      <c r="F974">
+        <v>3904</v>
+      </c>
+      <c r="G974">
+        <v>0</v>
+      </c>
+      <c r="H974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>973</v>
+      </c>
+      <c r="B975">
+        <v>1480500</v>
+      </c>
+      <c r="C975">
+        <v>35</v>
+      </c>
+      <c r="D975">
+        <v>4016</v>
+      </c>
+      <c r="E975">
+        <v>36</v>
+      </c>
+      <c r="F975">
+        <v>3908</v>
+      </c>
+      <c r="G975">
+        <v>0</v>
+      </c>
+      <c r="H975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>974</v>
+      </c>
+      <c r="B976">
+        <v>1482000</v>
+      </c>
+      <c r="C976">
+        <v>35</v>
+      </c>
+      <c r="D976">
+        <v>4020</v>
+      </c>
+      <c r="E976">
+        <v>36</v>
+      </c>
+      <c r="F976">
+        <v>3912</v>
+      </c>
+      <c r="G976">
+        <v>0</v>
+      </c>
+      <c r="H976">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>975</v>
+      </c>
+      <c r="B977">
+        <v>1483500</v>
+      </c>
+      <c r="C977">
+        <v>35</v>
+      </c>
+      <c r="D977">
+        <v>4024</v>
+      </c>
+      <c r="E977">
+        <v>36</v>
+      </c>
+      <c r="F977">
+        <v>3916</v>
+      </c>
+      <c r="G977">
+        <v>0</v>
+      </c>
+      <c r="H977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>976</v>
+      </c>
+      <c r="B978">
+        <v>1485000</v>
+      </c>
+      <c r="C978">
+        <v>35</v>
+      </c>
+      <c r="D978">
+        <v>4028</v>
+      </c>
+      <c r="E978">
+        <v>36</v>
+      </c>
+      <c r="F978">
+        <v>3920</v>
+      </c>
+      <c r="G978">
+        <v>0</v>
+      </c>
+      <c r="H978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>977</v>
+      </c>
+      <c r="B979">
+        <v>1486500</v>
+      </c>
+      <c r="C979">
+        <v>35</v>
+      </c>
+      <c r="D979">
+        <v>4032</v>
+      </c>
+      <c r="E979">
+        <v>36</v>
+      </c>
+      <c r="F979">
+        <v>3924</v>
+      </c>
+      <c r="G979">
+        <v>0</v>
+      </c>
+      <c r="H979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>978</v>
+      </c>
+      <c r="B980">
+        <v>1488000</v>
+      </c>
+      <c r="C980">
+        <v>35</v>
+      </c>
+      <c r="D980">
+        <v>4036</v>
+      </c>
+      <c r="E980">
+        <v>36</v>
+      </c>
+      <c r="F980">
+        <v>3928</v>
+      </c>
+      <c r="G980">
+        <v>0</v>
+      </c>
+      <c r="H980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>979</v>
+      </c>
+      <c r="B981">
+        <v>1489500</v>
+      </c>
+      <c r="C981">
+        <v>35</v>
+      </c>
+      <c r="D981">
+        <v>4040</v>
+      </c>
+      <c r="E981">
+        <v>36</v>
+      </c>
+      <c r="F981">
+        <v>3932</v>
+      </c>
+      <c r="G981">
+        <v>0</v>
+      </c>
+      <c r="H981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>980</v>
+      </c>
+      <c r="B982">
+        <v>1491000</v>
+      </c>
+      <c r="C982">
+        <v>35</v>
+      </c>
+      <c r="D982">
+        <v>4044</v>
+      </c>
+      <c r="E982">
+        <v>36</v>
+      </c>
+      <c r="F982">
+        <v>3936</v>
+      </c>
+      <c r="G982">
+        <v>0</v>
+      </c>
+      <c r="H982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>981</v>
+      </c>
+      <c r="B983">
+        <v>1492500</v>
+      </c>
+      <c r="C983">
+        <v>35</v>
+      </c>
+      <c r="D983">
+        <v>4048</v>
+      </c>
+      <c r="E983">
+        <v>36</v>
+      </c>
+      <c r="F983">
+        <v>3940</v>
+      </c>
+      <c r="G983">
+        <v>0</v>
+      </c>
+      <c r="H983">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>982</v>
+      </c>
+      <c r="B984">
+        <v>1494000</v>
+      </c>
+      <c r="C984">
+        <v>35</v>
+      </c>
+      <c r="D984">
+        <v>4052</v>
+      </c>
+      <c r="E984">
+        <v>36</v>
+      </c>
+      <c r="F984">
+        <v>3944</v>
+      </c>
+      <c r="G984">
+        <v>0</v>
+      </c>
+      <c r="H984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>983</v>
+      </c>
+      <c r="B985">
+        <v>1495500</v>
+      </c>
+      <c r="C985">
+        <v>35</v>
+      </c>
+      <c r="D985">
+        <v>4056</v>
+      </c>
+      <c r="E985">
+        <v>36</v>
+      </c>
+      <c r="F985">
+        <v>3948</v>
+      </c>
+      <c r="G985">
+        <v>0</v>
+      </c>
+      <c r="H985">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>984</v>
+      </c>
+      <c r="B986">
+        <v>1497000</v>
+      </c>
+      <c r="C986">
+        <v>35</v>
+      </c>
+      <c r="D986">
+        <v>4060</v>
+      </c>
+      <c r="E986">
+        <v>36</v>
+      </c>
+      <c r="F986">
+        <v>3952</v>
+      </c>
+      <c r="G986">
+        <v>0</v>
+      </c>
+      <c r="H986">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>985</v>
+      </c>
+      <c r="B987">
+        <v>1498500</v>
+      </c>
+      <c r="C987">
+        <v>35</v>
+      </c>
+      <c r="D987">
+        <v>4064</v>
+      </c>
+      <c r="E987">
+        <v>36</v>
+      </c>
+      <c r="F987">
+        <v>3956</v>
+      </c>
+      <c r="G987">
+        <v>0</v>
+      </c>
+      <c r="H987">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>986</v>
+      </c>
+      <c r="B988">
+        <v>1500000</v>
+      </c>
+      <c r="C988">
+        <v>35</v>
+      </c>
+      <c r="D988">
+        <v>4068</v>
+      </c>
+      <c r="E988">
+        <v>36</v>
+      </c>
+      <c r="F988">
+        <v>3960</v>
+      </c>
+      <c r="G988">
+        <v>0</v>
+      </c>
+      <c r="H988">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDDCEF-2E58-468F-9319-5669BC58F713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DF37BC-2D02-4566-9FA7-8592A4C5E5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -142,9 +142,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,7 +182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -288,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H988"/>
+  <dimension ref="A1:H1188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A974" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B982" sqref="B982"/>
+      <pane ySplit="1" topLeftCell="A1162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1170" sqref="C1170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26140,6 +26140,5206 @@
         <v>0</v>
       </c>
     </row>
+    <row r="989" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>987</v>
+      </c>
+      <c r="B989">
+        <v>1501500</v>
+      </c>
+      <c r="C989">
+        <v>35</v>
+      </c>
+      <c r="D989">
+        <v>4072</v>
+      </c>
+      <c r="E989">
+        <v>36</v>
+      </c>
+      <c r="F989">
+        <v>3964</v>
+      </c>
+      <c r="G989">
+        <v>0</v>
+      </c>
+      <c r="H989">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>988</v>
+      </c>
+      <c r="B990">
+        <v>1503000</v>
+      </c>
+      <c r="C990">
+        <v>35</v>
+      </c>
+      <c r="D990">
+        <v>4076</v>
+      </c>
+      <c r="E990">
+        <v>36</v>
+      </c>
+      <c r="F990">
+        <v>3968</v>
+      </c>
+      <c r="G990">
+        <v>0</v>
+      </c>
+      <c r="H990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>989</v>
+      </c>
+      <c r="B991">
+        <v>1504500</v>
+      </c>
+      <c r="C991">
+        <v>35</v>
+      </c>
+      <c r="D991">
+        <v>4080</v>
+      </c>
+      <c r="E991">
+        <v>36</v>
+      </c>
+      <c r="F991">
+        <v>3972</v>
+      </c>
+      <c r="G991">
+        <v>0</v>
+      </c>
+      <c r="H991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>990</v>
+      </c>
+      <c r="B992">
+        <v>1506000</v>
+      </c>
+      <c r="C992">
+        <v>35</v>
+      </c>
+      <c r="D992">
+        <v>4084</v>
+      </c>
+      <c r="E992">
+        <v>36</v>
+      </c>
+      <c r="F992">
+        <v>3976</v>
+      </c>
+      <c r="G992">
+        <v>0</v>
+      </c>
+      <c r="H992">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>991</v>
+      </c>
+      <c r="B993">
+        <v>1507500</v>
+      </c>
+      <c r="C993">
+        <v>35</v>
+      </c>
+      <c r="D993">
+        <v>4088</v>
+      </c>
+      <c r="E993">
+        <v>36</v>
+      </c>
+      <c r="F993">
+        <v>3980</v>
+      </c>
+      <c r="G993">
+        <v>0</v>
+      </c>
+      <c r="H993">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>992</v>
+      </c>
+      <c r="B994">
+        <v>1509000</v>
+      </c>
+      <c r="C994">
+        <v>35</v>
+      </c>
+      <c r="D994">
+        <v>4092</v>
+      </c>
+      <c r="E994">
+        <v>36</v>
+      </c>
+      <c r="F994">
+        <v>3984</v>
+      </c>
+      <c r="G994">
+        <v>0</v>
+      </c>
+      <c r="H994">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>993</v>
+      </c>
+      <c r="B995">
+        <v>1510500</v>
+      </c>
+      <c r="C995">
+        <v>35</v>
+      </c>
+      <c r="D995">
+        <v>4096</v>
+      </c>
+      <c r="E995">
+        <v>36</v>
+      </c>
+      <c r="F995">
+        <v>3988</v>
+      </c>
+      <c r="G995">
+        <v>0</v>
+      </c>
+      <c r="H995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>994</v>
+      </c>
+      <c r="B996">
+        <v>1512000</v>
+      </c>
+      <c r="C996">
+        <v>35</v>
+      </c>
+      <c r="D996">
+        <v>4100</v>
+      </c>
+      <c r="E996">
+        <v>36</v>
+      </c>
+      <c r="F996">
+        <v>3992</v>
+      </c>
+      <c r="G996">
+        <v>0</v>
+      </c>
+      <c r="H996">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>995</v>
+      </c>
+      <c r="B997">
+        <v>1513500</v>
+      </c>
+      <c r="C997">
+        <v>35</v>
+      </c>
+      <c r="D997">
+        <v>4104</v>
+      </c>
+      <c r="E997">
+        <v>36</v>
+      </c>
+      <c r="F997">
+        <v>3996</v>
+      </c>
+      <c r="G997">
+        <v>0</v>
+      </c>
+      <c r="H997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>996</v>
+      </c>
+      <c r="B998">
+        <v>1515000</v>
+      </c>
+      <c r="C998">
+        <v>35</v>
+      </c>
+      <c r="D998">
+        <v>4108</v>
+      </c>
+      <c r="E998">
+        <v>36</v>
+      </c>
+      <c r="F998">
+        <v>4000</v>
+      </c>
+      <c r="G998">
+        <v>0</v>
+      </c>
+      <c r="H998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>997</v>
+      </c>
+      <c r="B999">
+        <v>1516500</v>
+      </c>
+      <c r="C999">
+        <v>35</v>
+      </c>
+      <c r="D999">
+        <v>4112</v>
+      </c>
+      <c r="E999">
+        <v>36</v>
+      </c>
+      <c r="F999">
+        <v>4004</v>
+      </c>
+      <c r="G999">
+        <v>0</v>
+      </c>
+      <c r="H999">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>998</v>
+      </c>
+      <c r="B1000">
+        <v>1518000</v>
+      </c>
+      <c r="C1000">
+        <v>35</v>
+      </c>
+      <c r="D1000">
+        <v>4116</v>
+      </c>
+      <c r="E1000">
+        <v>36</v>
+      </c>
+      <c r="F1000">
+        <v>4008</v>
+      </c>
+      <c r="G1000">
+        <v>0</v>
+      </c>
+      <c r="H1000">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>999</v>
+      </c>
+      <c r="B1001">
+        <v>1519500</v>
+      </c>
+      <c r="C1001">
+        <v>35</v>
+      </c>
+      <c r="D1001">
+        <v>4120</v>
+      </c>
+      <c r="E1001">
+        <v>36</v>
+      </c>
+      <c r="F1001">
+        <v>4012</v>
+      </c>
+      <c r="G1001">
+        <v>0</v>
+      </c>
+      <c r="H1001">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <v>1000</v>
+      </c>
+      <c r="B1002">
+        <v>1521000</v>
+      </c>
+      <c r="C1002">
+        <v>35</v>
+      </c>
+      <c r="D1002">
+        <v>4124</v>
+      </c>
+      <c r="E1002">
+        <v>36</v>
+      </c>
+      <c r="F1002">
+        <v>4016</v>
+      </c>
+      <c r="G1002">
+        <v>0</v>
+      </c>
+      <c r="H1002">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1003">
+        <v>1001</v>
+      </c>
+      <c r="B1003">
+        <v>1522500</v>
+      </c>
+      <c r="C1003">
+        <v>35</v>
+      </c>
+      <c r="D1003">
+        <v>4128</v>
+      </c>
+      <c r="E1003">
+        <v>36</v>
+      </c>
+      <c r="F1003">
+        <v>4020</v>
+      </c>
+      <c r="G1003">
+        <v>0</v>
+      </c>
+      <c r="H1003">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1004">
+        <v>1002</v>
+      </c>
+      <c r="B1004">
+        <v>1524000</v>
+      </c>
+      <c r="C1004">
+        <v>35</v>
+      </c>
+      <c r="D1004">
+        <v>4132</v>
+      </c>
+      <c r="E1004">
+        <v>36</v>
+      </c>
+      <c r="F1004">
+        <v>4024</v>
+      </c>
+      <c r="G1004">
+        <v>0</v>
+      </c>
+      <c r="H1004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1005">
+        <v>1003</v>
+      </c>
+      <c r="B1005">
+        <v>1525500</v>
+      </c>
+      <c r="C1005">
+        <v>35</v>
+      </c>
+      <c r="D1005">
+        <v>4136</v>
+      </c>
+      <c r="E1005">
+        <v>36</v>
+      </c>
+      <c r="F1005">
+        <v>4028</v>
+      </c>
+      <c r="G1005">
+        <v>0</v>
+      </c>
+      <c r="H1005">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1006">
+        <v>1004</v>
+      </c>
+      <c r="B1006">
+        <v>1527000</v>
+      </c>
+      <c r="C1006">
+        <v>35</v>
+      </c>
+      <c r="D1006">
+        <v>4140</v>
+      </c>
+      <c r="E1006">
+        <v>36</v>
+      </c>
+      <c r="F1006">
+        <v>4032</v>
+      </c>
+      <c r="G1006">
+        <v>0</v>
+      </c>
+      <c r="H1006">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1007">
+        <v>1005</v>
+      </c>
+      <c r="B1007">
+        <v>1528500</v>
+      </c>
+      <c r="C1007">
+        <v>35</v>
+      </c>
+      <c r="D1007">
+        <v>4144</v>
+      </c>
+      <c r="E1007">
+        <v>36</v>
+      </c>
+      <c r="F1007">
+        <v>4036</v>
+      </c>
+      <c r="G1007">
+        <v>0</v>
+      </c>
+      <c r="H1007">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1008">
+        <v>1006</v>
+      </c>
+      <c r="B1008">
+        <v>1530000</v>
+      </c>
+      <c r="C1008">
+        <v>35</v>
+      </c>
+      <c r="D1008">
+        <v>4148</v>
+      </c>
+      <c r="E1008">
+        <v>36</v>
+      </c>
+      <c r="F1008">
+        <v>4040</v>
+      </c>
+      <c r="G1008">
+        <v>0</v>
+      </c>
+      <c r="H1008">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1009">
+        <v>1007</v>
+      </c>
+      <c r="B1009">
+        <v>1531500</v>
+      </c>
+      <c r="C1009">
+        <v>35</v>
+      </c>
+      <c r="D1009">
+        <v>4152</v>
+      </c>
+      <c r="E1009">
+        <v>36</v>
+      </c>
+      <c r="F1009">
+        <v>4044</v>
+      </c>
+      <c r="G1009">
+        <v>0</v>
+      </c>
+      <c r="H1009">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1010">
+        <v>1008</v>
+      </c>
+      <c r="B1010">
+        <v>1533000</v>
+      </c>
+      <c r="C1010">
+        <v>35</v>
+      </c>
+      <c r="D1010">
+        <v>4156</v>
+      </c>
+      <c r="E1010">
+        <v>36</v>
+      </c>
+      <c r="F1010">
+        <v>4048</v>
+      </c>
+      <c r="G1010">
+        <v>0</v>
+      </c>
+      <c r="H1010">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1011">
+        <v>1009</v>
+      </c>
+      <c r="B1011">
+        <v>1534500</v>
+      </c>
+      <c r="C1011">
+        <v>35</v>
+      </c>
+      <c r="D1011">
+        <v>4160</v>
+      </c>
+      <c r="E1011">
+        <v>36</v>
+      </c>
+      <c r="F1011">
+        <v>4052</v>
+      </c>
+      <c r="G1011">
+        <v>0</v>
+      </c>
+      <c r="H1011">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1012">
+        <v>1010</v>
+      </c>
+      <c r="B1012">
+        <v>1536000</v>
+      </c>
+      <c r="C1012">
+        <v>35</v>
+      </c>
+      <c r="D1012">
+        <v>4164</v>
+      </c>
+      <c r="E1012">
+        <v>36</v>
+      </c>
+      <c r="F1012">
+        <v>4056</v>
+      </c>
+      <c r="G1012">
+        <v>0</v>
+      </c>
+      <c r="H1012">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1013">
+        <v>1011</v>
+      </c>
+      <c r="B1013">
+        <v>1537500</v>
+      </c>
+      <c r="C1013">
+        <v>35</v>
+      </c>
+      <c r="D1013">
+        <v>4168</v>
+      </c>
+      <c r="E1013">
+        <v>36</v>
+      </c>
+      <c r="F1013">
+        <v>4060</v>
+      </c>
+      <c r="G1013">
+        <v>0</v>
+      </c>
+      <c r="H1013">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1014">
+        <v>1012</v>
+      </c>
+      <c r="B1014">
+        <v>1539000</v>
+      </c>
+      <c r="C1014">
+        <v>35</v>
+      </c>
+      <c r="D1014">
+        <v>4172</v>
+      </c>
+      <c r="E1014">
+        <v>36</v>
+      </c>
+      <c r="F1014">
+        <v>4064</v>
+      </c>
+      <c r="G1014">
+        <v>0</v>
+      </c>
+      <c r="H1014">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1015">
+        <v>1013</v>
+      </c>
+      <c r="B1015">
+        <v>1540500</v>
+      </c>
+      <c r="C1015">
+        <v>35</v>
+      </c>
+      <c r="D1015">
+        <v>4176</v>
+      </c>
+      <c r="E1015">
+        <v>36</v>
+      </c>
+      <c r="F1015">
+        <v>4068</v>
+      </c>
+      <c r="G1015">
+        <v>0</v>
+      </c>
+      <c r="H1015">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1016">
+        <v>1014</v>
+      </c>
+      <c r="B1016">
+        <v>1542000</v>
+      </c>
+      <c r="C1016">
+        <v>35</v>
+      </c>
+      <c r="D1016">
+        <v>4180</v>
+      </c>
+      <c r="E1016">
+        <v>36</v>
+      </c>
+      <c r="F1016">
+        <v>4072</v>
+      </c>
+      <c r="G1016">
+        <v>0</v>
+      </c>
+      <c r="H1016">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1017">
+        <v>1015</v>
+      </c>
+      <c r="B1017">
+        <v>1543500</v>
+      </c>
+      <c r="C1017">
+        <v>35</v>
+      </c>
+      <c r="D1017">
+        <v>4184</v>
+      </c>
+      <c r="E1017">
+        <v>36</v>
+      </c>
+      <c r="F1017">
+        <v>4076</v>
+      </c>
+      <c r="G1017">
+        <v>0</v>
+      </c>
+      <c r="H1017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1018">
+        <v>1016</v>
+      </c>
+      <c r="B1018">
+        <v>1545000</v>
+      </c>
+      <c r="C1018">
+        <v>35</v>
+      </c>
+      <c r="D1018">
+        <v>4188</v>
+      </c>
+      <c r="E1018">
+        <v>36</v>
+      </c>
+      <c r="F1018">
+        <v>4080</v>
+      </c>
+      <c r="G1018">
+        <v>0</v>
+      </c>
+      <c r="H1018">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1019">
+        <v>1017</v>
+      </c>
+      <c r="B1019">
+        <v>1546500</v>
+      </c>
+      <c r="C1019">
+        <v>35</v>
+      </c>
+      <c r="D1019">
+        <v>4192</v>
+      </c>
+      <c r="E1019">
+        <v>36</v>
+      </c>
+      <c r="F1019">
+        <v>4084</v>
+      </c>
+      <c r="G1019">
+        <v>0</v>
+      </c>
+      <c r="H1019">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1020">
+        <v>1018</v>
+      </c>
+      <c r="B1020">
+        <v>1548000</v>
+      </c>
+      <c r="C1020">
+        <v>35</v>
+      </c>
+      <c r="D1020">
+        <v>4196</v>
+      </c>
+      <c r="E1020">
+        <v>36</v>
+      </c>
+      <c r="F1020">
+        <v>4088</v>
+      </c>
+      <c r="G1020">
+        <v>0</v>
+      </c>
+      <c r="H1020">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1021">
+        <v>1019</v>
+      </c>
+      <c r="B1021">
+        <v>1549500</v>
+      </c>
+      <c r="C1021">
+        <v>35</v>
+      </c>
+      <c r="D1021">
+        <v>4200</v>
+      </c>
+      <c r="E1021">
+        <v>36</v>
+      </c>
+      <c r="F1021">
+        <v>4092</v>
+      </c>
+      <c r="G1021">
+        <v>0</v>
+      </c>
+      <c r="H1021">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1022">
+        <v>1020</v>
+      </c>
+      <c r="B1022">
+        <v>1551000</v>
+      </c>
+      <c r="C1022">
+        <v>35</v>
+      </c>
+      <c r="D1022">
+        <v>4204</v>
+      </c>
+      <c r="E1022">
+        <v>36</v>
+      </c>
+      <c r="F1022">
+        <v>4096</v>
+      </c>
+      <c r="G1022">
+        <v>0</v>
+      </c>
+      <c r="H1022">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1023">
+        <v>1021</v>
+      </c>
+      <c r="B1023">
+        <v>1552500</v>
+      </c>
+      <c r="C1023">
+        <v>35</v>
+      </c>
+      <c r="D1023">
+        <v>4208</v>
+      </c>
+      <c r="E1023">
+        <v>36</v>
+      </c>
+      <c r="F1023">
+        <v>4100</v>
+      </c>
+      <c r="G1023">
+        <v>0</v>
+      </c>
+      <c r="H1023">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1024">
+        <v>1022</v>
+      </c>
+      <c r="B1024">
+        <v>1554000</v>
+      </c>
+      <c r="C1024">
+        <v>35</v>
+      </c>
+      <c r="D1024">
+        <v>4212</v>
+      </c>
+      <c r="E1024">
+        <v>36</v>
+      </c>
+      <c r="F1024">
+        <v>4104</v>
+      </c>
+      <c r="G1024">
+        <v>0</v>
+      </c>
+      <c r="H1024">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1025">
+        <v>1023</v>
+      </c>
+      <c r="B1025">
+        <v>1555500</v>
+      </c>
+      <c r="C1025">
+        <v>35</v>
+      </c>
+      <c r="D1025">
+        <v>4216</v>
+      </c>
+      <c r="E1025">
+        <v>36</v>
+      </c>
+      <c r="F1025">
+        <v>4108</v>
+      </c>
+      <c r="G1025">
+        <v>0</v>
+      </c>
+      <c r="H1025">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1026">
+        <v>1024</v>
+      </c>
+      <c r="B1026">
+        <v>1557000</v>
+      </c>
+      <c r="C1026">
+        <v>35</v>
+      </c>
+      <c r="D1026">
+        <v>4220</v>
+      </c>
+      <c r="E1026">
+        <v>36</v>
+      </c>
+      <c r="F1026">
+        <v>4112</v>
+      </c>
+      <c r="G1026">
+        <v>0</v>
+      </c>
+      <c r="H1026">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1027">
+        <v>1025</v>
+      </c>
+      <c r="B1027">
+        <v>1558500</v>
+      </c>
+      <c r="C1027">
+        <v>35</v>
+      </c>
+      <c r="D1027">
+        <v>4224</v>
+      </c>
+      <c r="E1027">
+        <v>36</v>
+      </c>
+      <c r="F1027">
+        <v>4116</v>
+      </c>
+      <c r="G1027">
+        <v>0</v>
+      </c>
+      <c r="H1027">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1028">
+        <v>1026</v>
+      </c>
+      <c r="B1028">
+        <v>1560000</v>
+      </c>
+      <c r="C1028">
+        <v>35</v>
+      </c>
+      <c r="D1028">
+        <v>4228</v>
+      </c>
+      <c r="E1028">
+        <v>36</v>
+      </c>
+      <c r="F1028">
+        <v>4120</v>
+      </c>
+      <c r="G1028">
+        <v>0</v>
+      </c>
+      <c r="H1028">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1029">
+        <v>1027</v>
+      </c>
+      <c r="B1029">
+        <v>1561500</v>
+      </c>
+      <c r="C1029">
+        <v>35</v>
+      </c>
+      <c r="D1029">
+        <v>4232</v>
+      </c>
+      <c r="E1029">
+        <v>36</v>
+      </c>
+      <c r="F1029">
+        <v>4124</v>
+      </c>
+      <c r="G1029">
+        <v>0</v>
+      </c>
+      <c r="H1029">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1030">
+        <v>1028</v>
+      </c>
+      <c r="B1030">
+        <v>1563000</v>
+      </c>
+      <c r="C1030">
+        <v>35</v>
+      </c>
+      <c r="D1030">
+        <v>4236</v>
+      </c>
+      <c r="E1030">
+        <v>36</v>
+      </c>
+      <c r="F1030">
+        <v>4128</v>
+      </c>
+      <c r="G1030">
+        <v>0</v>
+      </c>
+      <c r="H1030">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1031">
+        <v>1029</v>
+      </c>
+      <c r="B1031">
+        <v>1564500</v>
+      </c>
+      <c r="C1031">
+        <v>35</v>
+      </c>
+      <c r="D1031">
+        <v>4240</v>
+      </c>
+      <c r="E1031">
+        <v>36</v>
+      </c>
+      <c r="F1031">
+        <v>4132</v>
+      </c>
+      <c r="G1031">
+        <v>0</v>
+      </c>
+      <c r="H1031">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1032">
+        <v>1030</v>
+      </c>
+      <c r="B1032">
+        <v>1566000</v>
+      </c>
+      <c r="C1032">
+        <v>35</v>
+      </c>
+      <c r="D1032">
+        <v>4244</v>
+      </c>
+      <c r="E1032">
+        <v>36</v>
+      </c>
+      <c r="F1032">
+        <v>4136</v>
+      </c>
+      <c r="G1032">
+        <v>0</v>
+      </c>
+      <c r="H1032">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1033">
+        <v>1031</v>
+      </c>
+      <c r="B1033">
+        <v>1567500</v>
+      </c>
+      <c r="C1033">
+        <v>35</v>
+      </c>
+      <c r="D1033">
+        <v>4248</v>
+      </c>
+      <c r="E1033">
+        <v>36</v>
+      </c>
+      <c r="F1033">
+        <v>4140</v>
+      </c>
+      <c r="G1033">
+        <v>0</v>
+      </c>
+      <c r="H1033">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1034">
+        <v>1032</v>
+      </c>
+      <c r="B1034">
+        <v>1569000</v>
+      </c>
+      <c r="C1034">
+        <v>35</v>
+      </c>
+      <c r="D1034">
+        <v>4252</v>
+      </c>
+      <c r="E1034">
+        <v>36</v>
+      </c>
+      <c r="F1034">
+        <v>4144</v>
+      </c>
+      <c r="G1034">
+        <v>0</v>
+      </c>
+      <c r="H1034">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1035">
+        <v>1033</v>
+      </c>
+      <c r="B1035">
+        <v>1570500</v>
+      </c>
+      <c r="C1035">
+        <v>35</v>
+      </c>
+      <c r="D1035">
+        <v>4256</v>
+      </c>
+      <c r="E1035">
+        <v>36</v>
+      </c>
+      <c r="F1035">
+        <v>4148</v>
+      </c>
+      <c r="G1035">
+        <v>0</v>
+      </c>
+      <c r="H1035">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1036">
+        <v>1034</v>
+      </c>
+      <c r="B1036">
+        <v>1572000</v>
+      </c>
+      <c r="C1036">
+        <v>35</v>
+      </c>
+      <c r="D1036">
+        <v>4260</v>
+      </c>
+      <c r="E1036">
+        <v>36</v>
+      </c>
+      <c r="F1036">
+        <v>4152</v>
+      </c>
+      <c r="G1036">
+        <v>0</v>
+      </c>
+      <c r="H1036">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1037">
+        <v>1035</v>
+      </c>
+      <c r="B1037">
+        <v>1573500</v>
+      </c>
+      <c r="C1037">
+        <v>35</v>
+      </c>
+      <c r="D1037">
+        <v>4264</v>
+      </c>
+      <c r="E1037">
+        <v>36</v>
+      </c>
+      <c r="F1037">
+        <v>4156</v>
+      </c>
+      <c r="G1037">
+        <v>0</v>
+      </c>
+      <c r="H1037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1038">
+        <v>1036</v>
+      </c>
+      <c r="B1038">
+        <v>1575000</v>
+      </c>
+      <c r="C1038">
+        <v>35</v>
+      </c>
+      <c r="D1038">
+        <v>4268</v>
+      </c>
+      <c r="E1038">
+        <v>36</v>
+      </c>
+      <c r="F1038">
+        <v>4160</v>
+      </c>
+      <c r="G1038">
+        <v>0</v>
+      </c>
+      <c r="H1038">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1039">
+        <v>1037</v>
+      </c>
+      <c r="B1039">
+        <v>1576500</v>
+      </c>
+      <c r="C1039">
+        <v>35</v>
+      </c>
+      <c r="D1039">
+        <v>4272</v>
+      </c>
+      <c r="E1039">
+        <v>36</v>
+      </c>
+      <c r="F1039">
+        <v>4164</v>
+      </c>
+      <c r="G1039">
+        <v>0</v>
+      </c>
+      <c r="H1039">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1040">
+        <v>1038</v>
+      </c>
+      <c r="B1040">
+        <v>1578000</v>
+      </c>
+      <c r="C1040">
+        <v>35</v>
+      </c>
+      <c r="D1040">
+        <v>4276</v>
+      </c>
+      <c r="E1040">
+        <v>36</v>
+      </c>
+      <c r="F1040">
+        <v>4168</v>
+      </c>
+      <c r="G1040">
+        <v>0</v>
+      </c>
+      <c r="H1040">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1041">
+        <v>1039</v>
+      </c>
+      <c r="B1041">
+        <v>1579500</v>
+      </c>
+      <c r="C1041">
+        <v>35</v>
+      </c>
+      <c r="D1041">
+        <v>4280</v>
+      </c>
+      <c r="E1041">
+        <v>36</v>
+      </c>
+      <c r="F1041">
+        <v>4172</v>
+      </c>
+      <c r="G1041">
+        <v>0</v>
+      </c>
+      <c r="H1041">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1042">
+        <v>1040</v>
+      </c>
+      <c r="B1042">
+        <v>1581000</v>
+      </c>
+      <c r="C1042">
+        <v>35</v>
+      </c>
+      <c r="D1042">
+        <v>4284</v>
+      </c>
+      <c r="E1042">
+        <v>36</v>
+      </c>
+      <c r="F1042">
+        <v>4176</v>
+      </c>
+      <c r="G1042">
+        <v>0</v>
+      </c>
+      <c r="H1042">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1043">
+        <v>1041</v>
+      </c>
+      <c r="B1043">
+        <v>1582500</v>
+      </c>
+      <c r="C1043">
+        <v>35</v>
+      </c>
+      <c r="D1043">
+        <v>4288</v>
+      </c>
+      <c r="E1043">
+        <v>36</v>
+      </c>
+      <c r="F1043">
+        <v>4180</v>
+      </c>
+      <c r="G1043">
+        <v>0</v>
+      </c>
+      <c r="H1043">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1044">
+        <v>1042</v>
+      </c>
+      <c r="B1044">
+        <v>1584000</v>
+      </c>
+      <c r="C1044">
+        <v>35</v>
+      </c>
+      <c r="D1044">
+        <v>4292</v>
+      </c>
+      <c r="E1044">
+        <v>36</v>
+      </c>
+      <c r="F1044">
+        <v>4184</v>
+      </c>
+      <c r="G1044">
+        <v>0</v>
+      </c>
+      <c r="H1044">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1045">
+        <v>1043</v>
+      </c>
+      <c r="B1045">
+        <v>1585500</v>
+      </c>
+      <c r="C1045">
+        <v>35</v>
+      </c>
+      <c r="D1045">
+        <v>4296</v>
+      </c>
+      <c r="E1045">
+        <v>36</v>
+      </c>
+      <c r="F1045">
+        <v>4188</v>
+      </c>
+      <c r="G1045">
+        <v>0</v>
+      </c>
+      <c r="H1045">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1046">
+        <v>1044</v>
+      </c>
+      <c r="B1046">
+        <v>1587000</v>
+      </c>
+      <c r="C1046">
+        <v>35</v>
+      </c>
+      <c r="D1046">
+        <v>4300</v>
+      </c>
+      <c r="E1046">
+        <v>36</v>
+      </c>
+      <c r="F1046">
+        <v>4192</v>
+      </c>
+      <c r="G1046">
+        <v>0</v>
+      </c>
+      <c r="H1046">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1047">
+        <v>1045</v>
+      </c>
+      <c r="B1047">
+        <v>1588500</v>
+      </c>
+      <c r="C1047">
+        <v>35</v>
+      </c>
+      <c r="D1047">
+        <v>4304</v>
+      </c>
+      <c r="E1047">
+        <v>36</v>
+      </c>
+      <c r="F1047">
+        <v>4196</v>
+      </c>
+      <c r="G1047">
+        <v>0</v>
+      </c>
+      <c r="H1047">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1048">
+        <v>1046</v>
+      </c>
+      <c r="B1048">
+        <v>1590000</v>
+      </c>
+      <c r="C1048">
+        <v>35</v>
+      </c>
+      <c r="D1048">
+        <v>4308</v>
+      </c>
+      <c r="E1048">
+        <v>36</v>
+      </c>
+      <c r="F1048">
+        <v>4200</v>
+      </c>
+      <c r="G1048">
+        <v>0</v>
+      </c>
+      <c r="H1048">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1049">
+        <v>1047</v>
+      </c>
+      <c r="B1049">
+        <v>1591500</v>
+      </c>
+      <c r="C1049">
+        <v>35</v>
+      </c>
+      <c r="D1049">
+        <v>4312</v>
+      </c>
+      <c r="E1049">
+        <v>36</v>
+      </c>
+      <c r="F1049">
+        <v>4204</v>
+      </c>
+      <c r="G1049">
+        <v>0</v>
+      </c>
+      <c r="H1049">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1050">
+        <v>1048</v>
+      </c>
+      <c r="B1050">
+        <v>1593000</v>
+      </c>
+      <c r="C1050">
+        <v>35</v>
+      </c>
+      <c r="D1050">
+        <v>4316</v>
+      </c>
+      <c r="E1050">
+        <v>36</v>
+      </c>
+      <c r="F1050">
+        <v>4208</v>
+      </c>
+      <c r="G1050">
+        <v>0</v>
+      </c>
+      <c r="H1050">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1051">
+        <v>1049</v>
+      </c>
+      <c r="B1051">
+        <v>1594500</v>
+      </c>
+      <c r="C1051">
+        <v>35</v>
+      </c>
+      <c r="D1051">
+        <v>4320</v>
+      </c>
+      <c r="E1051">
+        <v>36</v>
+      </c>
+      <c r="F1051">
+        <v>4212</v>
+      </c>
+      <c r="G1051">
+        <v>0</v>
+      </c>
+      <c r="H1051">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1052">
+        <v>1050</v>
+      </c>
+      <c r="B1052">
+        <v>1596000</v>
+      </c>
+      <c r="C1052">
+        <v>35</v>
+      </c>
+      <c r="D1052">
+        <v>4324</v>
+      </c>
+      <c r="E1052">
+        <v>36</v>
+      </c>
+      <c r="F1052">
+        <v>4216</v>
+      </c>
+      <c r="G1052">
+        <v>0</v>
+      </c>
+      <c r="H1052">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1053">
+        <v>1051</v>
+      </c>
+      <c r="B1053">
+        <v>1597500</v>
+      </c>
+      <c r="C1053">
+        <v>35</v>
+      </c>
+      <c r="D1053">
+        <v>4328</v>
+      </c>
+      <c r="E1053">
+        <v>36</v>
+      </c>
+      <c r="F1053">
+        <v>4220</v>
+      </c>
+      <c r="G1053">
+        <v>0</v>
+      </c>
+      <c r="H1053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1054">
+        <v>1052</v>
+      </c>
+      <c r="B1054">
+        <v>1599000</v>
+      </c>
+      <c r="C1054">
+        <v>35</v>
+      </c>
+      <c r="D1054">
+        <v>4332</v>
+      </c>
+      <c r="E1054">
+        <v>36</v>
+      </c>
+      <c r="F1054">
+        <v>4224</v>
+      </c>
+      <c r="G1054">
+        <v>0</v>
+      </c>
+      <c r="H1054">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1055">
+        <v>1053</v>
+      </c>
+      <c r="B1055">
+        <v>1600500</v>
+      </c>
+      <c r="C1055">
+        <v>35</v>
+      </c>
+      <c r="D1055">
+        <v>4336</v>
+      </c>
+      <c r="E1055">
+        <v>36</v>
+      </c>
+      <c r="F1055">
+        <v>4228</v>
+      </c>
+      <c r="G1055">
+        <v>0</v>
+      </c>
+      <c r="H1055">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1056">
+        <v>1054</v>
+      </c>
+      <c r="B1056">
+        <v>1602000</v>
+      </c>
+      <c r="C1056">
+        <v>35</v>
+      </c>
+      <c r="D1056">
+        <v>4340</v>
+      </c>
+      <c r="E1056">
+        <v>36</v>
+      </c>
+      <c r="F1056">
+        <v>4232</v>
+      </c>
+      <c r="G1056">
+        <v>0</v>
+      </c>
+      <c r="H1056">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1057">
+        <v>1055</v>
+      </c>
+      <c r="B1057">
+        <v>1603500</v>
+      </c>
+      <c r="C1057">
+        <v>35</v>
+      </c>
+      <c r="D1057">
+        <v>4344</v>
+      </c>
+      <c r="E1057">
+        <v>36</v>
+      </c>
+      <c r="F1057">
+        <v>4236</v>
+      </c>
+      <c r="G1057">
+        <v>0</v>
+      </c>
+      <c r="H1057">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1058">
+        <v>1056</v>
+      </c>
+      <c r="B1058">
+        <v>1605000</v>
+      </c>
+      <c r="C1058">
+        <v>35</v>
+      </c>
+      <c r="D1058">
+        <v>4348</v>
+      </c>
+      <c r="E1058">
+        <v>36</v>
+      </c>
+      <c r="F1058">
+        <v>4240</v>
+      </c>
+      <c r="G1058">
+        <v>0</v>
+      </c>
+      <c r="H1058">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1059">
+        <v>1057</v>
+      </c>
+      <c r="B1059">
+        <v>1606500</v>
+      </c>
+      <c r="C1059">
+        <v>35</v>
+      </c>
+      <c r="D1059">
+        <v>4352</v>
+      </c>
+      <c r="E1059">
+        <v>36</v>
+      </c>
+      <c r="F1059">
+        <v>4244</v>
+      </c>
+      <c r="G1059">
+        <v>0</v>
+      </c>
+      <c r="H1059">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1060">
+        <v>1058</v>
+      </c>
+      <c r="B1060">
+        <v>1608000</v>
+      </c>
+      <c r="C1060">
+        <v>35</v>
+      </c>
+      <c r="D1060">
+        <v>4356</v>
+      </c>
+      <c r="E1060">
+        <v>36</v>
+      </c>
+      <c r="F1060">
+        <v>4248</v>
+      </c>
+      <c r="G1060">
+        <v>0</v>
+      </c>
+      <c r="H1060">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1061">
+        <v>1059</v>
+      </c>
+      <c r="B1061">
+        <v>1609500</v>
+      </c>
+      <c r="C1061">
+        <v>35</v>
+      </c>
+      <c r="D1061">
+        <v>4360</v>
+      </c>
+      <c r="E1061">
+        <v>36</v>
+      </c>
+      <c r="F1061">
+        <v>4252</v>
+      </c>
+      <c r="G1061">
+        <v>0</v>
+      </c>
+      <c r="H1061">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1062">
+        <v>1060</v>
+      </c>
+      <c r="B1062">
+        <v>1611000</v>
+      </c>
+      <c r="C1062">
+        <v>35</v>
+      </c>
+      <c r="D1062">
+        <v>4364</v>
+      </c>
+      <c r="E1062">
+        <v>36</v>
+      </c>
+      <c r="F1062">
+        <v>4256</v>
+      </c>
+      <c r="G1062">
+        <v>0</v>
+      </c>
+      <c r="H1062">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1063">
+        <v>1061</v>
+      </c>
+      <c r="B1063">
+        <v>1612500</v>
+      </c>
+      <c r="C1063">
+        <v>35</v>
+      </c>
+      <c r="D1063">
+        <v>4368</v>
+      </c>
+      <c r="E1063">
+        <v>36</v>
+      </c>
+      <c r="F1063">
+        <v>4260</v>
+      </c>
+      <c r="G1063">
+        <v>0</v>
+      </c>
+      <c r="H1063">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1064">
+        <v>1062</v>
+      </c>
+      <c r="B1064">
+        <v>1614000</v>
+      </c>
+      <c r="C1064">
+        <v>35</v>
+      </c>
+      <c r="D1064">
+        <v>4372</v>
+      </c>
+      <c r="E1064">
+        <v>36</v>
+      </c>
+      <c r="F1064">
+        <v>4264</v>
+      </c>
+      <c r="G1064">
+        <v>0</v>
+      </c>
+      <c r="H1064">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1065">
+        <v>1063</v>
+      </c>
+      <c r="B1065">
+        <v>1615500</v>
+      </c>
+      <c r="C1065">
+        <v>35</v>
+      </c>
+      <c r="D1065">
+        <v>4376</v>
+      </c>
+      <c r="E1065">
+        <v>36</v>
+      </c>
+      <c r="F1065">
+        <v>4268</v>
+      </c>
+      <c r="G1065">
+        <v>0</v>
+      </c>
+      <c r="H1065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1066">
+        <v>1064</v>
+      </c>
+      <c r="B1066">
+        <v>1617000</v>
+      </c>
+      <c r="C1066">
+        <v>35</v>
+      </c>
+      <c r="D1066">
+        <v>4380</v>
+      </c>
+      <c r="E1066">
+        <v>36</v>
+      </c>
+      <c r="F1066">
+        <v>4272</v>
+      </c>
+      <c r="G1066">
+        <v>0</v>
+      </c>
+      <c r="H1066">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1067">
+        <v>1065</v>
+      </c>
+      <c r="B1067">
+        <v>1618500</v>
+      </c>
+      <c r="C1067">
+        <v>35</v>
+      </c>
+      <c r="D1067">
+        <v>4384</v>
+      </c>
+      <c r="E1067">
+        <v>36</v>
+      </c>
+      <c r="F1067">
+        <v>4276</v>
+      </c>
+      <c r="G1067">
+        <v>0</v>
+      </c>
+      <c r="H1067">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1068">
+        <v>1066</v>
+      </c>
+      <c r="B1068">
+        <v>1620000</v>
+      </c>
+      <c r="C1068">
+        <v>35</v>
+      </c>
+      <c r="D1068">
+        <v>4388</v>
+      </c>
+      <c r="E1068">
+        <v>36</v>
+      </c>
+      <c r="F1068">
+        <v>4280</v>
+      </c>
+      <c r="G1068">
+        <v>0</v>
+      </c>
+      <c r="H1068">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1069">
+        <v>1067</v>
+      </c>
+      <c r="B1069">
+        <v>1621500</v>
+      </c>
+      <c r="C1069">
+        <v>35</v>
+      </c>
+      <c r="D1069">
+        <v>4392</v>
+      </c>
+      <c r="E1069">
+        <v>36</v>
+      </c>
+      <c r="F1069">
+        <v>4284</v>
+      </c>
+      <c r="G1069">
+        <v>0</v>
+      </c>
+      <c r="H1069">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1070">
+        <v>1068</v>
+      </c>
+      <c r="B1070">
+        <v>1623000</v>
+      </c>
+      <c r="C1070">
+        <v>35</v>
+      </c>
+      <c r="D1070">
+        <v>4396</v>
+      </c>
+      <c r="E1070">
+        <v>36</v>
+      </c>
+      <c r="F1070">
+        <v>4288</v>
+      </c>
+      <c r="G1070">
+        <v>0</v>
+      </c>
+      <c r="H1070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1071">
+        <v>1069</v>
+      </c>
+      <c r="B1071">
+        <v>1624500</v>
+      </c>
+      <c r="C1071">
+        <v>35</v>
+      </c>
+      <c r="D1071">
+        <v>4400</v>
+      </c>
+      <c r="E1071">
+        <v>36</v>
+      </c>
+      <c r="F1071">
+        <v>4292</v>
+      </c>
+      <c r="G1071">
+        <v>0</v>
+      </c>
+      <c r="H1071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1072">
+        <v>1070</v>
+      </c>
+      <c r="B1072">
+        <v>1626000</v>
+      </c>
+      <c r="C1072">
+        <v>35</v>
+      </c>
+      <c r="D1072">
+        <v>4404</v>
+      </c>
+      <c r="E1072">
+        <v>36</v>
+      </c>
+      <c r="F1072">
+        <v>4296</v>
+      </c>
+      <c r="G1072">
+        <v>0</v>
+      </c>
+      <c r="H1072">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1073">
+        <v>1071</v>
+      </c>
+      <c r="B1073">
+        <v>1627500</v>
+      </c>
+      <c r="C1073">
+        <v>35</v>
+      </c>
+      <c r="D1073">
+        <v>4408</v>
+      </c>
+      <c r="E1073">
+        <v>36</v>
+      </c>
+      <c r="F1073">
+        <v>4300</v>
+      </c>
+      <c r="G1073">
+        <v>0</v>
+      </c>
+      <c r="H1073">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1074">
+        <v>1072</v>
+      </c>
+      <c r="B1074">
+        <v>1629000</v>
+      </c>
+      <c r="C1074">
+        <v>35</v>
+      </c>
+      <c r="D1074">
+        <v>4412</v>
+      </c>
+      <c r="E1074">
+        <v>36</v>
+      </c>
+      <c r="F1074">
+        <v>4304</v>
+      </c>
+      <c r="G1074">
+        <v>0</v>
+      </c>
+      <c r="H1074">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1075">
+        <v>1073</v>
+      </c>
+      <c r="B1075">
+        <v>1630500</v>
+      </c>
+      <c r="C1075">
+        <v>35</v>
+      </c>
+      <c r="D1075">
+        <v>4416</v>
+      </c>
+      <c r="E1075">
+        <v>36</v>
+      </c>
+      <c r="F1075">
+        <v>4308</v>
+      </c>
+      <c r="G1075">
+        <v>0</v>
+      </c>
+      <c r="H1075">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1076">
+        <v>1074</v>
+      </c>
+      <c r="B1076">
+        <v>1632000</v>
+      </c>
+      <c r="C1076">
+        <v>35</v>
+      </c>
+      <c r="D1076">
+        <v>4420</v>
+      </c>
+      <c r="E1076">
+        <v>36</v>
+      </c>
+      <c r="F1076">
+        <v>4312</v>
+      </c>
+      <c r="G1076">
+        <v>0</v>
+      </c>
+      <c r="H1076">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1077">
+        <v>1075</v>
+      </c>
+      <c r="B1077">
+        <v>1633500</v>
+      </c>
+      <c r="C1077">
+        <v>35</v>
+      </c>
+      <c r="D1077">
+        <v>4424</v>
+      </c>
+      <c r="E1077">
+        <v>36</v>
+      </c>
+      <c r="F1077">
+        <v>4316</v>
+      </c>
+      <c r="G1077">
+        <v>0</v>
+      </c>
+      <c r="H1077">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1078">
+        <v>1076</v>
+      </c>
+      <c r="B1078">
+        <v>1635000</v>
+      </c>
+      <c r="C1078">
+        <v>35</v>
+      </c>
+      <c r="D1078">
+        <v>4428</v>
+      </c>
+      <c r="E1078">
+        <v>36</v>
+      </c>
+      <c r="F1078">
+        <v>4320</v>
+      </c>
+      <c r="G1078">
+        <v>0</v>
+      </c>
+      <c r="H1078">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1079">
+        <v>1077</v>
+      </c>
+      <c r="B1079">
+        <v>1636500</v>
+      </c>
+      <c r="C1079">
+        <v>35</v>
+      </c>
+      <c r="D1079">
+        <v>4432</v>
+      </c>
+      <c r="E1079">
+        <v>36</v>
+      </c>
+      <c r="F1079">
+        <v>4324</v>
+      </c>
+      <c r="G1079">
+        <v>0</v>
+      </c>
+      <c r="H1079">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1080">
+        <v>1078</v>
+      </c>
+      <c r="B1080">
+        <v>1638000</v>
+      </c>
+      <c r="C1080">
+        <v>35</v>
+      </c>
+      <c r="D1080">
+        <v>4436</v>
+      </c>
+      <c r="E1080">
+        <v>36</v>
+      </c>
+      <c r="F1080">
+        <v>4328</v>
+      </c>
+      <c r="G1080">
+        <v>0</v>
+      </c>
+      <c r="H1080">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1081">
+        <v>1079</v>
+      </c>
+      <c r="B1081">
+        <v>1639500</v>
+      </c>
+      <c r="C1081">
+        <v>35</v>
+      </c>
+      <c r="D1081">
+        <v>4440</v>
+      </c>
+      <c r="E1081">
+        <v>36</v>
+      </c>
+      <c r="F1081">
+        <v>4332</v>
+      </c>
+      <c r="G1081">
+        <v>0</v>
+      </c>
+      <c r="H1081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1082">
+        <v>1080</v>
+      </c>
+      <c r="B1082">
+        <v>1641000</v>
+      </c>
+      <c r="C1082">
+        <v>35</v>
+      </c>
+      <c r="D1082">
+        <v>4444</v>
+      </c>
+      <c r="E1082">
+        <v>36</v>
+      </c>
+      <c r="F1082">
+        <v>4336</v>
+      </c>
+      <c r="G1082">
+        <v>0</v>
+      </c>
+      <c r="H1082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1083">
+        <v>1081</v>
+      </c>
+      <c r="B1083">
+        <v>1642500</v>
+      </c>
+      <c r="C1083">
+        <v>35</v>
+      </c>
+      <c r="D1083">
+        <v>4448</v>
+      </c>
+      <c r="E1083">
+        <v>36</v>
+      </c>
+      <c r="F1083">
+        <v>4340</v>
+      </c>
+      <c r="G1083">
+        <v>0</v>
+      </c>
+      <c r="H1083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1084">
+        <v>1082</v>
+      </c>
+      <c r="B1084">
+        <v>1644000</v>
+      </c>
+      <c r="C1084">
+        <v>35</v>
+      </c>
+      <c r="D1084">
+        <v>4452</v>
+      </c>
+      <c r="E1084">
+        <v>36</v>
+      </c>
+      <c r="F1084">
+        <v>4344</v>
+      </c>
+      <c r="G1084">
+        <v>0</v>
+      </c>
+      <c r="H1084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1085">
+        <v>1083</v>
+      </c>
+      <c r="B1085">
+        <v>1645500</v>
+      </c>
+      <c r="C1085">
+        <v>35</v>
+      </c>
+      <c r="D1085">
+        <v>4456</v>
+      </c>
+      <c r="E1085">
+        <v>36</v>
+      </c>
+      <c r="F1085">
+        <v>4348</v>
+      </c>
+      <c r="G1085">
+        <v>0</v>
+      </c>
+      <c r="H1085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1086">
+        <v>1084</v>
+      </c>
+      <c r="B1086">
+        <v>1647000</v>
+      </c>
+      <c r="C1086">
+        <v>35</v>
+      </c>
+      <c r="D1086">
+        <v>4460</v>
+      </c>
+      <c r="E1086">
+        <v>36</v>
+      </c>
+      <c r="F1086">
+        <v>4352</v>
+      </c>
+      <c r="G1086">
+        <v>0</v>
+      </c>
+      <c r="H1086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1087">
+        <v>1085</v>
+      </c>
+      <c r="B1087">
+        <v>1648500</v>
+      </c>
+      <c r="C1087">
+        <v>35</v>
+      </c>
+      <c r="D1087">
+        <v>4464</v>
+      </c>
+      <c r="E1087">
+        <v>36</v>
+      </c>
+      <c r="F1087">
+        <v>4356</v>
+      </c>
+      <c r="G1087">
+        <v>0</v>
+      </c>
+      <c r="H1087">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1088">
+        <v>1086</v>
+      </c>
+      <c r="B1088">
+        <v>1650000</v>
+      </c>
+      <c r="C1088">
+        <v>35</v>
+      </c>
+      <c r="D1088">
+        <v>4468</v>
+      </c>
+      <c r="E1088">
+        <v>36</v>
+      </c>
+      <c r="F1088">
+        <v>4360</v>
+      </c>
+      <c r="G1088">
+        <v>0</v>
+      </c>
+      <c r="H1088">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1089">
+        <v>1087</v>
+      </c>
+      <c r="B1089">
+        <v>1651500</v>
+      </c>
+      <c r="C1089">
+        <v>35</v>
+      </c>
+      <c r="D1089">
+        <v>4472</v>
+      </c>
+      <c r="E1089">
+        <v>36</v>
+      </c>
+      <c r="F1089">
+        <v>4364</v>
+      </c>
+      <c r="G1089">
+        <v>0</v>
+      </c>
+      <c r="H1089">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1090">
+        <v>1088</v>
+      </c>
+      <c r="B1090">
+        <v>1653000</v>
+      </c>
+      <c r="C1090">
+        <v>35</v>
+      </c>
+      <c r="D1090">
+        <v>4476</v>
+      </c>
+      <c r="E1090">
+        <v>36</v>
+      </c>
+      <c r="F1090">
+        <v>4368</v>
+      </c>
+      <c r="G1090">
+        <v>0</v>
+      </c>
+      <c r="H1090">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1091">
+        <v>1089</v>
+      </c>
+      <c r="B1091">
+        <v>1654500</v>
+      </c>
+      <c r="C1091">
+        <v>35</v>
+      </c>
+      <c r="D1091">
+        <v>4480</v>
+      </c>
+      <c r="E1091">
+        <v>36</v>
+      </c>
+      <c r="F1091">
+        <v>4372</v>
+      </c>
+      <c r="G1091">
+        <v>0</v>
+      </c>
+      <c r="H1091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1092">
+        <v>1090</v>
+      </c>
+      <c r="B1092">
+        <v>1656000</v>
+      </c>
+      <c r="C1092">
+        <v>35</v>
+      </c>
+      <c r="D1092">
+        <v>4484</v>
+      </c>
+      <c r="E1092">
+        <v>36</v>
+      </c>
+      <c r="F1092">
+        <v>4376</v>
+      </c>
+      <c r="G1092">
+        <v>0</v>
+      </c>
+      <c r="H1092">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1093">
+        <v>1091</v>
+      </c>
+      <c r="B1093">
+        <v>1657500</v>
+      </c>
+      <c r="C1093">
+        <v>35</v>
+      </c>
+      <c r="D1093">
+        <v>4488</v>
+      </c>
+      <c r="E1093">
+        <v>36</v>
+      </c>
+      <c r="F1093">
+        <v>4380</v>
+      </c>
+      <c r="G1093">
+        <v>0</v>
+      </c>
+      <c r="H1093">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1094">
+        <v>1092</v>
+      </c>
+      <c r="B1094">
+        <v>1659000</v>
+      </c>
+      <c r="C1094">
+        <v>35</v>
+      </c>
+      <c r="D1094">
+        <v>4492</v>
+      </c>
+      <c r="E1094">
+        <v>36</v>
+      </c>
+      <c r="F1094">
+        <v>4384</v>
+      </c>
+      <c r="G1094">
+        <v>0</v>
+      </c>
+      <c r="H1094">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1095">
+        <v>1093</v>
+      </c>
+      <c r="B1095">
+        <v>1660500</v>
+      </c>
+      <c r="C1095">
+        <v>35</v>
+      </c>
+      <c r="D1095">
+        <v>4496</v>
+      </c>
+      <c r="E1095">
+        <v>36</v>
+      </c>
+      <c r="F1095">
+        <v>4388</v>
+      </c>
+      <c r="G1095">
+        <v>0</v>
+      </c>
+      <c r="H1095">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1096">
+        <v>1094</v>
+      </c>
+      <c r="B1096">
+        <v>1662000</v>
+      </c>
+      <c r="C1096">
+        <v>35</v>
+      </c>
+      <c r="D1096">
+        <v>4500</v>
+      </c>
+      <c r="E1096">
+        <v>36</v>
+      </c>
+      <c r="F1096">
+        <v>4392</v>
+      </c>
+      <c r="G1096">
+        <v>0</v>
+      </c>
+      <c r="H1096">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1097">
+        <v>1095</v>
+      </c>
+      <c r="B1097">
+        <v>1663500</v>
+      </c>
+      <c r="C1097">
+        <v>35</v>
+      </c>
+      <c r="D1097">
+        <v>4504</v>
+      </c>
+      <c r="E1097">
+        <v>36</v>
+      </c>
+      <c r="F1097">
+        <v>4396</v>
+      </c>
+      <c r="G1097">
+        <v>0</v>
+      </c>
+      <c r="H1097">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1098">
+        <v>1096</v>
+      </c>
+      <c r="B1098">
+        <v>1665000</v>
+      </c>
+      <c r="C1098">
+        <v>35</v>
+      </c>
+      <c r="D1098">
+        <v>4508</v>
+      </c>
+      <c r="E1098">
+        <v>36</v>
+      </c>
+      <c r="F1098">
+        <v>4400</v>
+      </c>
+      <c r="G1098">
+        <v>0</v>
+      </c>
+      <c r="H1098">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1099">
+        <v>1097</v>
+      </c>
+      <c r="B1099">
+        <v>1666500</v>
+      </c>
+      <c r="C1099">
+        <v>35</v>
+      </c>
+      <c r="D1099">
+        <v>4512</v>
+      </c>
+      <c r="E1099">
+        <v>36</v>
+      </c>
+      <c r="F1099">
+        <v>4404</v>
+      </c>
+      <c r="G1099">
+        <v>0</v>
+      </c>
+      <c r="H1099">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1100">
+        <v>1098</v>
+      </c>
+      <c r="B1100">
+        <v>1668000</v>
+      </c>
+      <c r="C1100">
+        <v>35</v>
+      </c>
+      <c r="D1100">
+        <v>4516</v>
+      </c>
+      <c r="E1100">
+        <v>36</v>
+      </c>
+      <c r="F1100">
+        <v>4408</v>
+      </c>
+      <c r="G1100">
+        <v>0</v>
+      </c>
+      <c r="H1100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1101">
+        <v>1099</v>
+      </c>
+      <c r="B1101">
+        <v>1669500</v>
+      </c>
+      <c r="C1101">
+        <v>35</v>
+      </c>
+      <c r="D1101">
+        <v>4520</v>
+      </c>
+      <c r="E1101">
+        <v>36</v>
+      </c>
+      <c r="F1101">
+        <v>4412</v>
+      </c>
+      <c r="G1101">
+        <v>0</v>
+      </c>
+      <c r="H1101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1102">
+        <v>1100</v>
+      </c>
+      <c r="B1102">
+        <v>1671000</v>
+      </c>
+      <c r="C1102">
+        <v>35</v>
+      </c>
+      <c r="D1102">
+        <v>4524</v>
+      </c>
+      <c r="E1102">
+        <v>36</v>
+      </c>
+      <c r="F1102">
+        <v>4416</v>
+      </c>
+      <c r="G1102">
+        <v>0</v>
+      </c>
+      <c r="H1102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1103">
+        <v>1101</v>
+      </c>
+      <c r="B1103">
+        <v>1672500</v>
+      </c>
+      <c r="C1103">
+        <v>35</v>
+      </c>
+      <c r="D1103">
+        <v>4528</v>
+      </c>
+      <c r="E1103">
+        <v>36</v>
+      </c>
+      <c r="F1103">
+        <v>4420</v>
+      </c>
+      <c r="G1103">
+        <v>0</v>
+      </c>
+      <c r="H1103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1104">
+        <v>1102</v>
+      </c>
+      <c r="B1104">
+        <v>1674000</v>
+      </c>
+      <c r="C1104">
+        <v>35</v>
+      </c>
+      <c r="D1104">
+        <v>4532</v>
+      </c>
+      <c r="E1104">
+        <v>36</v>
+      </c>
+      <c r="F1104">
+        <v>4424</v>
+      </c>
+      <c r="G1104">
+        <v>0</v>
+      </c>
+      <c r="H1104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1105">
+        <v>1103</v>
+      </c>
+      <c r="B1105">
+        <v>1675500</v>
+      </c>
+      <c r="C1105">
+        <v>35</v>
+      </c>
+      <c r="D1105">
+        <v>4536</v>
+      </c>
+      <c r="E1105">
+        <v>36</v>
+      </c>
+      <c r="F1105">
+        <v>4428</v>
+      </c>
+      <c r="G1105">
+        <v>0</v>
+      </c>
+      <c r="H1105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1106">
+        <v>1104</v>
+      </c>
+      <c r="B1106">
+        <v>1677000</v>
+      </c>
+      <c r="C1106">
+        <v>35</v>
+      </c>
+      <c r="D1106">
+        <v>4540</v>
+      </c>
+      <c r="E1106">
+        <v>36</v>
+      </c>
+      <c r="F1106">
+        <v>4432</v>
+      </c>
+      <c r="G1106">
+        <v>0</v>
+      </c>
+      <c r="H1106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1107">
+        <v>1105</v>
+      </c>
+      <c r="B1107">
+        <v>1678500</v>
+      </c>
+      <c r="C1107">
+        <v>35</v>
+      </c>
+      <c r="D1107">
+        <v>4544</v>
+      </c>
+      <c r="E1107">
+        <v>36</v>
+      </c>
+      <c r="F1107">
+        <v>4436</v>
+      </c>
+      <c r="G1107">
+        <v>0</v>
+      </c>
+      <c r="H1107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1108">
+        <v>1106</v>
+      </c>
+      <c r="B1108">
+        <v>1680000</v>
+      </c>
+      <c r="C1108">
+        <v>35</v>
+      </c>
+      <c r="D1108">
+        <v>4548</v>
+      </c>
+      <c r="E1108">
+        <v>36</v>
+      </c>
+      <c r="F1108">
+        <v>4440</v>
+      </c>
+      <c r="G1108">
+        <v>0</v>
+      </c>
+      <c r="H1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1109">
+        <v>1107</v>
+      </c>
+      <c r="B1109">
+        <v>1681500</v>
+      </c>
+      <c r="C1109">
+        <v>35</v>
+      </c>
+      <c r="D1109">
+        <v>4552</v>
+      </c>
+      <c r="E1109">
+        <v>36</v>
+      </c>
+      <c r="F1109">
+        <v>4444</v>
+      </c>
+      <c r="G1109">
+        <v>0</v>
+      </c>
+      <c r="H1109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1110">
+        <v>1108</v>
+      </c>
+      <c r="B1110">
+        <v>1683000</v>
+      </c>
+      <c r="C1110">
+        <v>35</v>
+      </c>
+      <c r="D1110">
+        <v>4556</v>
+      </c>
+      <c r="E1110">
+        <v>36</v>
+      </c>
+      <c r="F1110">
+        <v>4448</v>
+      </c>
+      <c r="G1110">
+        <v>0</v>
+      </c>
+      <c r="H1110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1111">
+        <v>1109</v>
+      </c>
+      <c r="B1111">
+        <v>1684500</v>
+      </c>
+      <c r="C1111">
+        <v>35</v>
+      </c>
+      <c r="D1111">
+        <v>4560</v>
+      </c>
+      <c r="E1111">
+        <v>36</v>
+      </c>
+      <c r="F1111">
+        <v>4452</v>
+      </c>
+      <c r="G1111">
+        <v>0</v>
+      </c>
+      <c r="H1111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1112">
+        <v>1110</v>
+      </c>
+      <c r="B1112">
+        <v>1686000</v>
+      </c>
+      <c r="C1112">
+        <v>35</v>
+      </c>
+      <c r="D1112">
+        <v>4564</v>
+      </c>
+      <c r="E1112">
+        <v>36</v>
+      </c>
+      <c r="F1112">
+        <v>4456</v>
+      </c>
+      <c r="G1112">
+        <v>0</v>
+      </c>
+      <c r="H1112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1113">
+        <v>1111</v>
+      </c>
+      <c r="B1113">
+        <v>1687500</v>
+      </c>
+      <c r="C1113">
+        <v>35</v>
+      </c>
+      <c r="D1113">
+        <v>4568</v>
+      </c>
+      <c r="E1113">
+        <v>36</v>
+      </c>
+      <c r="F1113">
+        <v>4460</v>
+      </c>
+      <c r="G1113">
+        <v>0</v>
+      </c>
+      <c r="H1113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1114">
+        <v>1112</v>
+      </c>
+      <c r="B1114">
+        <v>1689000</v>
+      </c>
+      <c r="C1114">
+        <v>35</v>
+      </c>
+      <c r="D1114">
+        <v>4572</v>
+      </c>
+      <c r="E1114">
+        <v>36</v>
+      </c>
+      <c r="F1114">
+        <v>4464</v>
+      </c>
+      <c r="G1114">
+        <v>0</v>
+      </c>
+      <c r="H1114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1115">
+        <v>1113</v>
+      </c>
+      <c r="B1115">
+        <v>1690500</v>
+      </c>
+      <c r="C1115">
+        <v>35</v>
+      </c>
+      <c r="D1115">
+        <v>4576</v>
+      </c>
+      <c r="E1115">
+        <v>36</v>
+      </c>
+      <c r="F1115">
+        <v>4468</v>
+      </c>
+      <c r="G1115">
+        <v>0</v>
+      </c>
+      <c r="H1115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1116">
+        <v>1114</v>
+      </c>
+      <c r="B1116">
+        <v>1692000</v>
+      </c>
+      <c r="C1116">
+        <v>35</v>
+      </c>
+      <c r="D1116">
+        <v>4580</v>
+      </c>
+      <c r="E1116">
+        <v>36</v>
+      </c>
+      <c r="F1116">
+        <v>4472</v>
+      </c>
+      <c r="G1116">
+        <v>0</v>
+      </c>
+      <c r="H1116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1117">
+        <v>1115</v>
+      </c>
+      <c r="B1117">
+        <v>1693500</v>
+      </c>
+      <c r="C1117">
+        <v>35</v>
+      </c>
+      <c r="D1117">
+        <v>4584</v>
+      </c>
+      <c r="E1117">
+        <v>36</v>
+      </c>
+      <c r="F1117">
+        <v>4476</v>
+      </c>
+      <c r="G1117">
+        <v>0</v>
+      </c>
+      <c r="H1117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1118">
+        <v>1116</v>
+      </c>
+      <c r="B1118">
+        <v>1695000</v>
+      </c>
+      <c r="C1118">
+        <v>35</v>
+      </c>
+      <c r="D1118">
+        <v>4588</v>
+      </c>
+      <c r="E1118">
+        <v>36</v>
+      </c>
+      <c r="F1118">
+        <v>4480</v>
+      </c>
+      <c r="G1118">
+        <v>0</v>
+      </c>
+      <c r="H1118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1119">
+        <v>1117</v>
+      </c>
+      <c r="B1119">
+        <v>1696500</v>
+      </c>
+      <c r="C1119">
+        <v>35</v>
+      </c>
+      <c r="D1119">
+        <v>4592</v>
+      </c>
+      <c r="E1119">
+        <v>36</v>
+      </c>
+      <c r="F1119">
+        <v>4484</v>
+      </c>
+      <c r="G1119">
+        <v>0</v>
+      </c>
+      <c r="H1119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1120">
+        <v>1118</v>
+      </c>
+      <c r="B1120">
+        <v>1698000</v>
+      </c>
+      <c r="C1120">
+        <v>35</v>
+      </c>
+      <c r="D1120">
+        <v>4596</v>
+      </c>
+      <c r="E1120">
+        <v>36</v>
+      </c>
+      <c r="F1120">
+        <v>4488</v>
+      </c>
+      <c r="G1120">
+        <v>0</v>
+      </c>
+      <c r="H1120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1121">
+        <v>1119</v>
+      </c>
+      <c r="B1121">
+        <v>1699500</v>
+      </c>
+      <c r="C1121">
+        <v>35</v>
+      </c>
+      <c r="D1121">
+        <v>4600</v>
+      </c>
+      <c r="E1121">
+        <v>36</v>
+      </c>
+      <c r="F1121">
+        <v>4492</v>
+      </c>
+      <c r="G1121">
+        <v>0</v>
+      </c>
+      <c r="H1121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1122">
+        <v>1120</v>
+      </c>
+      <c r="B1122">
+        <v>1701000</v>
+      </c>
+      <c r="C1122">
+        <v>35</v>
+      </c>
+      <c r="D1122">
+        <v>4604</v>
+      </c>
+      <c r="E1122">
+        <v>36</v>
+      </c>
+      <c r="F1122">
+        <v>4496</v>
+      </c>
+      <c r="G1122">
+        <v>0</v>
+      </c>
+      <c r="H1122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1123">
+        <v>1121</v>
+      </c>
+      <c r="B1123">
+        <v>1702500</v>
+      </c>
+      <c r="C1123">
+        <v>35</v>
+      </c>
+      <c r="D1123">
+        <v>4608</v>
+      </c>
+      <c r="E1123">
+        <v>36</v>
+      </c>
+      <c r="F1123">
+        <v>4500</v>
+      </c>
+      <c r="G1123">
+        <v>0</v>
+      </c>
+      <c r="H1123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1124">
+        <v>1122</v>
+      </c>
+      <c r="B1124">
+        <v>1704000</v>
+      </c>
+      <c r="C1124">
+        <v>35</v>
+      </c>
+      <c r="D1124">
+        <v>4612</v>
+      </c>
+      <c r="E1124">
+        <v>36</v>
+      </c>
+      <c r="F1124">
+        <v>4504</v>
+      </c>
+      <c r="G1124">
+        <v>0</v>
+      </c>
+      <c r="H1124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1125">
+        <v>1123</v>
+      </c>
+      <c r="B1125">
+        <v>1705500</v>
+      </c>
+      <c r="C1125">
+        <v>35</v>
+      </c>
+      <c r="D1125">
+        <v>4616</v>
+      </c>
+      <c r="E1125">
+        <v>36</v>
+      </c>
+      <c r="F1125">
+        <v>4508</v>
+      </c>
+      <c r="G1125">
+        <v>0</v>
+      </c>
+      <c r="H1125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1126">
+        <v>1124</v>
+      </c>
+      <c r="B1126">
+        <v>1707000</v>
+      </c>
+      <c r="C1126">
+        <v>35</v>
+      </c>
+      <c r="D1126">
+        <v>4620</v>
+      </c>
+      <c r="E1126">
+        <v>36</v>
+      </c>
+      <c r="F1126">
+        <v>4512</v>
+      </c>
+      <c r="G1126">
+        <v>0</v>
+      </c>
+      <c r="H1126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1127">
+        <v>1125</v>
+      </c>
+      <c r="B1127">
+        <v>1708500</v>
+      </c>
+      <c r="C1127">
+        <v>35</v>
+      </c>
+      <c r="D1127">
+        <v>4624</v>
+      </c>
+      <c r="E1127">
+        <v>36</v>
+      </c>
+      <c r="F1127">
+        <v>4516</v>
+      </c>
+      <c r="G1127">
+        <v>0</v>
+      </c>
+      <c r="H1127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1128">
+        <v>1126</v>
+      </c>
+      <c r="B1128">
+        <v>1710000</v>
+      </c>
+      <c r="C1128">
+        <v>35</v>
+      </c>
+      <c r="D1128">
+        <v>4628</v>
+      </c>
+      <c r="E1128">
+        <v>36</v>
+      </c>
+      <c r="F1128">
+        <v>4520</v>
+      </c>
+      <c r="G1128">
+        <v>0</v>
+      </c>
+      <c r="H1128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1129">
+        <v>1127</v>
+      </c>
+      <c r="B1129">
+        <v>1711500</v>
+      </c>
+      <c r="C1129">
+        <v>35</v>
+      </c>
+      <c r="D1129">
+        <v>4632</v>
+      </c>
+      <c r="E1129">
+        <v>36</v>
+      </c>
+      <c r="F1129">
+        <v>4524</v>
+      </c>
+      <c r="G1129">
+        <v>0</v>
+      </c>
+      <c r="H1129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1130">
+        <v>1128</v>
+      </c>
+      <c r="B1130">
+        <v>1713000</v>
+      </c>
+      <c r="C1130">
+        <v>35</v>
+      </c>
+      <c r="D1130">
+        <v>4636</v>
+      </c>
+      <c r="E1130">
+        <v>36</v>
+      </c>
+      <c r="F1130">
+        <v>4528</v>
+      </c>
+      <c r="G1130">
+        <v>0</v>
+      </c>
+      <c r="H1130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1131">
+        <v>1129</v>
+      </c>
+      <c r="B1131">
+        <v>1714500</v>
+      </c>
+      <c r="C1131">
+        <v>35</v>
+      </c>
+      <c r="D1131">
+        <v>4640</v>
+      </c>
+      <c r="E1131">
+        <v>36</v>
+      </c>
+      <c r="F1131">
+        <v>4532</v>
+      </c>
+      <c r="G1131">
+        <v>0</v>
+      </c>
+      <c r="H1131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1132">
+        <v>1130</v>
+      </c>
+      <c r="B1132">
+        <v>1716000</v>
+      </c>
+      <c r="C1132">
+        <v>35</v>
+      </c>
+      <c r="D1132">
+        <v>4644</v>
+      </c>
+      <c r="E1132">
+        <v>36</v>
+      </c>
+      <c r="F1132">
+        <v>4536</v>
+      </c>
+      <c r="G1132">
+        <v>0</v>
+      </c>
+      <c r="H1132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1133">
+        <v>1131</v>
+      </c>
+      <c r="B1133">
+        <v>1717500</v>
+      </c>
+      <c r="C1133">
+        <v>35</v>
+      </c>
+      <c r="D1133">
+        <v>4648</v>
+      </c>
+      <c r="E1133">
+        <v>36</v>
+      </c>
+      <c r="F1133">
+        <v>4540</v>
+      </c>
+      <c r="G1133">
+        <v>0</v>
+      </c>
+      <c r="H1133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1134">
+        <v>1132</v>
+      </c>
+      <c r="B1134">
+        <v>1719000</v>
+      </c>
+      <c r="C1134">
+        <v>35</v>
+      </c>
+      <c r="D1134">
+        <v>4652</v>
+      </c>
+      <c r="E1134">
+        <v>36</v>
+      </c>
+      <c r="F1134">
+        <v>4544</v>
+      </c>
+      <c r="G1134">
+        <v>0</v>
+      </c>
+      <c r="H1134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1135">
+        <v>1133</v>
+      </c>
+      <c r="B1135">
+        <v>1720500</v>
+      </c>
+      <c r="C1135">
+        <v>35</v>
+      </c>
+      <c r="D1135">
+        <v>4656</v>
+      </c>
+      <c r="E1135">
+        <v>36</v>
+      </c>
+      <c r="F1135">
+        <v>4548</v>
+      </c>
+      <c r="G1135">
+        <v>0</v>
+      </c>
+      <c r="H1135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1136">
+        <v>1134</v>
+      </c>
+      <c r="B1136">
+        <v>1722000</v>
+      </c>
+      <c r="C1136">
+        <v>35</v>
+      </c>
+      <c r="D1136">
+        <v>4660</v>
+      </c>
+      <c r="E1136">
+        <v>36</v>
+      </c>
+      <c r="F1136">
+        <v>4552</v>
+      </c>
+      <c r="G1136">
+        <v>0</v>
+      </c>
+      <c r="H1136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1137">
+        <v>1135</v>
+      </c>
+      <c r="B1137">
+        <v>1723500</v>
+      </c>
+      <c r="C1137">
+        <v>35</v>
+      </c>
+      <c r="D1137">
+        <v>4664</v>
+      </c>
+      <c r="E1137">
+        <v>36</v>
+      </c>
+      <c r="F1137">
+        <v>4556</v>
+      </c>
+      <c r="G1137">
+        <v>0</v>
+      </c>
+      <c r="H1137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1138">
+        <v>1136</v>
+      </c>
+      <c r="B1138">
+        <v>1725000</v>
+      </c>
+      <c r="C1138">
+        <v>35</v>
+      </c>
+      <c r="D1138">
+        <v>4668</v>
+      </c>
+      <c r="E1138">
+        <v>36</v>
+      </c>
+      <c r="F1138">
+        <v>4560</v>
+      </c>
+      <c r="G1138">
+        <v>0</v>
+      </c>
+      <c r="H1138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1139">
+        <v>1137</v>
+      </c>
+      <c r="B1139">
+        <v>1726500</v>
+      </c>
+      <c r="C1139">
+        <v>35</v>
+      </c>
+      <c r="D1139">
+        <v>4672</v>
+      </c>
+      <c r="E1139">
+        <v>36</v>
+      </c>
+      <c r="F1139">
+        <v>4564</v>
+      </c>
+      <c r="G1139">
+        <v>0</v>
+      </c>
+      <c r="H1139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1140">
+        <v>1138</v>
+      </c>
+      <c r="B1140">
+        <v>1728000</v>
+      </c>
+      <c r="C1140">
+        <v>35</v>
+      </c>
+      <c r="D1140">
+        <v>4676</v>
+      </c>
+      <c r="E1140">
+        <v>36</v>
+      </c>
+      <c r="F1140">
+        <v>4568</v>
+      </c>
+      <c r="G1140">
+        <v>0</v>
+      </c>
+      <c r="H1140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1141">
+        <v>1139</v>
+      </c>
+      <c r="B1141">
+        <v>1729500</v>
+      </c>
+      <c r="C1141">
+        <v>35</v>
+      </c>
+      <c r="D1141">
+        <v>4680</v>
+      </c>
+      <c r="E1141">
+        <v>36</v>
+      </c>
+      <c r="F1141">
+        <v>4572</v>
+      </c>
+      <c r="G1141">
+        <v>0</v>
+      </c>
+      <c r="H1141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1142">
+        <v>1140</v>
+      </c>
+      <c r="B1142">
+        <v>1731000</v>
+      </c>
+      <c r="C1142">
+        <v>35</v>
+      </c>
+      <c r="D1142">
+        <v>4684</v>
+      </c>
+      <c r="E1142">
+        <v>36</v>
+      </c>
+      <c r="F1142">
+        <v>4576</v>
+      </c>
+      <c r="G1142">
+        <v>0</v>
+      </c>
+      <c r="H1142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1143">
+        <v>1141</v>
+      </c>
+      <c r="B1143">
+        <v>1732500</v>
+      </c>
+      <c r="C1143">
+        <v>35</v>
+      </c>
+      <c r="D1143">
+        <v>4688</v>
+      </c>
+      <c r="E1143">
+        <v>36</v>
+      </c>
+      <c r="F1143">
+        <v>4580</v>
+      </c>
+      <c r="G1143">
+        <v>0</v>
+      </c>
+      <c r="H1143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1144">
+        <v>1142</v>
+      </c>
+      <c r="B1144">
+        <v>1734000</v>
+      </c>
+      <c r="C1144">
+        <v>35</v>
+      </c>
+      <c r="D1144">
+        <v>4692</v>
+      </c>
+      <c r="E1144">
+        <v>36</v>
+      </c>
+      <c r="F1144">
+        <v>4584</v>
+      </c>
+      <c r="G1144">
+        <v>0</v>
+      </c>
+      <c r="H1144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1145">
+        <v>1143</v>
+      </c>
+      <c r="B1145">
+        <v>1735500</v>
+      </c>
+      <c r="C1145">
+        <v>35</v>
+      </c>
+      <c r="D1145">
+        <v>4696</v>
+      </c>
+      <c r="E1145">
+        <v>36</v>
+      </c>
+      <c r="F1145">
+        <v>4588</v>
+      </c>
+      <c r="G1145">
+        <v>0</v>
+      </c>
+      <c r="H1145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1146">
+        <v>1144</v>
+      </c>
+      <c r="B1146">
+        <v>1737000</v>
+      </c>
+      <c r="C1146">
+        <v>35</v>
+      </c>
+      <c r="D1146">
+        <v>4700</v>
+      </c>
+      <c r="E1146">
+        <v>36</v>
+      </c>
+      <c r="F1146">
+        <v>4592</v>
+      </c>
+      <c r="G1146">
+        <v>0</v>
+      </c>
+      <c r="H1146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1147">
+        <v>1145</v>
+      </c>
+      <c r="B1147">
+        <v>1738500</v>
+      </c>
+      <c r="C1147">
+        <v>35</v>
+      </c>
+      <c r="D1147">
+        <v>4704</v>
+      </c>
+      <c r="E1147">
+        <v>36</v>
+      </c>
+      <c r="F1147">
+        <v>4596</v>
+      </c>
+      <c r="G1147">
+        <v>0</v>
+      </c>
+      <c r="H1147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1148">
+        <v>1146</v>
+      </c>
+      <c r="B1148">
+        <v>1740000</v>
+      </c>
+      <c r="C1148">
+        <v>35</v>
+      </c>
+      <c r="D1148">
+        <v>4708</v>
+      </c>
+      <c r="E1148">
+        <v>36</v>
+      </c>
+      <c r="F1148">
+        <v>4600</v>
+      </c>
+      <c r="G1148">
+        <v>0</v>
+      </c>
+      <c r="H1148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1149">
+        <v>1147</v>
+      </c>
+      <c r="B1149">
+        <v>1741500</v>
+      </c>
+      <c r="C1149">
+        <v>35</v>
+      </c>
+      <c r="D1149">
+        <v>4712</v>
+      </c>
+      <c r="E1149">
+        <v>36</v>
+      </c>
+      <c r="F1149">
+        <v>4604</v>
+      </c>
+      <c r="G1149">
+        <v>0</v>
+      </c>
+      <c r="H1149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1150">
+        <v>1148</v>
+      </c>
+      <c r="B1150">
+        <v>1743000</v>
+      </c>
+      <c r="C1150">
+        <v>35</v>
+      </c>
+      <c r="D1150">
+        <v>4716</v>
+      </c>
+      <c r="E1150">
+        <v>36</v>
+      </c>
+      <c r="F1150">
+        <v>4608</v>
+      </c>
+      <c r="G1150">
+        <v>0</v>
+      </c>
+      <c r="H1150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1151">
+        <v>1149</v>
+      </c>
+      <c r="B1151">
+        <v>1744500</v>
+      </c>
+      <c r="C1151">
+        <v>35</v>
+      </c>
+      <c r="D1151">
+        <v>4720</v>
+      </c>
+      <c r="E1151">
+        <v>36</v>
+      </c>
+      <c r="F1151">
+        <v>4612</v>
+      </c>
+      <c r="G1151">
+        <v>0</v>
+      </c>
+      <c r="H1151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1152">
+        <v>1150</v>
+      </c>
+      <c r="B1152">
+        <v>1746000</v>
+      </c>
+      <c r="C1152">
+        <v>35</v>
+      </c>
+      <c r="D1152">
+        <v>4724</v>
+      </c>
+      <c r="E1152">
+        <v>36</v>
+      </c>
+      <c r="F1152">
+        <v>4616</v>
+      </c>
+      <c r="G1152">
+        <v>0</v>
+      </c>
+      <c r="H1152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1153">
+        <v>1151</v>
+      </c>
+      <c r="B1153">
+        <v>1747500</v>
+      </c>
+      <c r="C1153">
+        <v>35</v>
+      </c>
+      <c r="D1153">
+        <v>4728</v>
+      </c>
+      <c r="E1153">
+        <v>36</v>
+      </c>
+      <c r="F1153">
+        <v>4620</v>
+      </c>
+      <c r="G1153">
+        <v>0</v>
+      </c>
+      <c r="H1153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1154">
+        <v>1152</v>
+      </c>
+      <c r="B1154">
+        <v>1749000</v>
+      </c>
+      <c r="C1154">
+        <v>35</v>
+      </c>
+      <c r="D1154">
+        <v>4732</v>
+      </c>
+      <c r="E1154">
+        <v>36</v>
+      </c>
+      <c r="F1154">
+        <v>4624</v>
+      </c>
+      <c r="G1154">
+        <v>0</v>
+      </c>
+      <c r="H1154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1155">
+        <v>1153</v>
+      </c>
+      <c r="B1155">
+        <v>1750500</v>
+      </c>
+      <c r="C1155">
+        <v>35</v>
+      </c>
+      <c r="D1155">
+        <v>4736</v>
+      </c>
+      <c r="E1155">
+        <v>36</v>
+      </c>
+      <c r="F1155">
+        <v>4628</v>
+      </c>
+      <c r="G1155">
+        <v>0</v>
+      </c>
+      <c r="H1155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1156">
+        <v>1154</v>
+      </c>
+      <c r="B1156">
+        <v>1752000</v>
+      </c>
+      <c r="C1156">
+        <v>35</v>
+      </c>
+      <c r="D1156">
+        <v>4740</v>
+      </c>
+      <c r="E1156">
+        <v>36</v>
+      </c>
+      <c r="F1156">
+        <v>4632</v>
+      </c>
+      <c r="G1156">
+        <v>0</v>
+      </c>
+      <c r="H1156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1157">
+        <v>1155</v>
+      </c>
+      <c r="B1157">
+        <v>1753500</v>
+      </c>
+      <c r="C1157">
+        <v>35</v>
+      </c>
+      <c r="D1157">
+        <v>4744</v>
+      </c>
+      <c r="E1157">
+        <v>36</v>
+      </c>
+      <c r="F1157">
+        <v>4636</v>
+      </c>
+      <c r="G1157">
+        <v>0</v>
+      </c>
+      <c r="H1157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1158">
+        <v>1156</v>
+      </c>
+      <c r="B1158">
+        <v>1755000</v>
+      </c>
+      <c r="C1158">
+        <v>35</v>
+      </c>
+      <c r="D1158">
+        <v>4748</v>
+      </c>
+      <c r="E1158">
+        <v>36</v>
+      </c>
+      <c r="F1158">
+        <v>4640</v>
+      </c>
+      <c r="G1158">
+        <v>0</v>
+      </c>
+      <c r="H1158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1159">
+        <v>1157</v>
+      </c>
+      <c r="B1159">
+        <v>1756500</v>
+      </c>
+      <c r="C1159">
+        <v>35</v>
+      </c>
+      <c r="D1159">
+        <v>4752</v>
+      </c>
+      <c r="E1159">
+        <v>36</v>
+      </c>
+      <c r="F1159">
+        <v>4644</v>
+      </c>
+      <c r="G1159">
+        <v>0</v>
+      </c>
+      <c r="H1159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1160">
+        <v>1158</v>
+      </c>
+      <c r="B1160">
+        <v>1758000</v>
+      </c>
+      <c r="C1160">
+        <v>35</v>
+      </c>
+      <c r="D1160">
+        <v>4756</v>
+      </c>
+      <c r="E1160">
+        <v>36</v>
+      </c>
+      <c r="F1160">
+        <v>4648</v>
+      </c>
+      <c r="G1160">
+        <v>0</v>
+      </c>
+      <c r="H1160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1161">
+        <v>1159</v>
+      </c>
+      <c r="B1161">
+        <v>1759500</v>
+      </c>
+      <c r="C1161">
+        <v>35</v>
+      </c>
+      <c r="D1161">
+        <v>4760</v>
+      </c>
+      <c r="E1161">
+        <v>36</v>
+      </c>
+      <c r="F1161">
+        <v>4652</v>
+      </c>
+      <c r="G1161">
+        <v>0</v>
+      </c>
+      <c r="H1161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1162">
+        <v>1160</v>
+      </c>
+      <c r="B1162">
+        <v>1761000</v>
+      </c>
+      <c r="C1162">
+        <v>35</v>
+      </c>
+      <c r="D1162">
+        <v>4764</v>
+      </c>
+      <c r="E1162">
+        <v>36</v>
+      </c>
+      <c r="F1162">
+        <v>4656</v>
+      </c>
+      <c r="G1162">
+        <v>0</v>
+      </c>
+      <c r="H1162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1163">
+        <v>1161</v>
+      </c>
+      <c r="B1163">
+        <v>1762500</v>
+      </c>
+      <c r="C1163">
+        <v>35</v>
+      </c>
+      <c r="D1163">
+        <v>4768</v>
+      </c>
+      <c r="E1163">
+        <v>36</v>
+      </c>
+      <c r="F1163">
+        <v>4660</v>
+      </c>
+      <c r="G1163">
+        <v>0</v>
+      </c>
+      <c r="H1163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1164">
+        <v>1162</v>
+      </c>
+      <c r="B1164">
+        <v>1764000</v>
+      </c>
+      <c r="C1164">
+        <v>35</v>
+      </c>
+      <c r="D1164">
+        <v>4772</v>
+      </c>
+      <c r="E1164">
+        <v>36</v>
+      </c>
+      <c r="F1164">
+        <v>4664</v>
+      </c>
+      <c r="G1164">
+        <v>0</v>
+      </c>
+      <c r="H1164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1165">
+        <v>1163</v>
+      </c>
+      <c r="B1165">
+        <v>1765500</v>
+      </c>
+      <c r="C1165">
+        <v>35</v>
+      </c>
+      <c r="D1165">
+        <v>4776</v>
+      </c>
+      <c r="E1165">
+        <v>36</v>
+      </c>
+      <c r="F1165">
+        <v>4668</v>
+      </c>
+      <c r="G1165">
+        <v>0</v>
+      </c>
+      <c r="H1165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1166">
+        <v>1164</v>
+      </c>
+      <c r="B1166">
+        <v>1767000</v>
+      </c>
+      <c r="C1166">
+        <v>35</v>
+      </c>
+      <c r="D1166">
+        <v>4780</v>
+      </c>
+      <c r="E1166">
+        <v>36</v>
+      </c>
+      <c r="F1166">
+        <v>4672</v>
+      </c>
+      <c r="G1166">
+        <v>0</v>
+      </c>
+      <c r="H1166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1167">
+        <v>1165</v>
+      </c>
+      <c r="B1167">
+        <v>1768500</v>
+      </c>
+      <c r="C1167">
+        <v>35</v>
+      </c>
+      <c r="D1167">
+        <v>4784</v>
+      </c>
+      <c r="E1167">
+        <v>36</v>
+      </c>
+      <c r="F1167">
+        <v>4676</v>
+      </c>
+      <c r="G1167">
+        <v>0</v>
+      </c>
+      <c r="H1167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1168">
+        <v>1166</v>
+      </c>
+      <c r="B1168">
+        <v>1770000</v>
+      </c>
+      <c r="C1168">
+        <v>35</v>
+      </c>
+      <c r="D1168">
+        <v>4788</v>
+      </c>
+      <c r="E1168">
+        <v>36</v>
+      </c>
+      <c r="F1168">
+        <v>4680</v>
+      </c>
+      <c r="G1168">
+        <v>0</v>
+      </c>
+      <c r="H1168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1169">
+        <v>1167</v>
+      </c>
+      <c r="B1169">
+        <v>1771500</v>
+      </c>
+      <c r="C1169">
+        <v>35</v>
+      </c>
+      <c r="D1169">
+        <v>4792</v>
+      </c>
+      <c r="E1169">
+        <v>36</v>
+      </c>
+      <c r="F1169">
+        <v>4684</v>
+      </c>
+      <c r="G1169">
+        <v>0</v>
+      </c>
+      <c r="H1169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1170">
+        <v>1168</v>
+      </c>
+      <c r="B1170">
+        <v>1773000</v>
+      </c>
+      <c r="C1170">
+        <v>35</v>
+      </c>
+      <c r="D1170">
+        <v>4796</v>
+      </c>
+      <c r="E1170">
+        <v>36</v>
+      </c>
+      <c r="F1170">
+        <v>4688</v>
+      </c>
+      <c r="G1170">
+        <v>0</v>
+      </c>
+      <c r="H1170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1171">
+        <v>1169</v>
+      </c>
+      <c r="B1171">
+        <v>1774500</v>
+      </c>
+      <c r="C1171">
+        <v>35</v>
+      </c>
+      <c r="D1171">
+        <v>4800</v>
+      </c>
+      <c r="E1171">
+        <v>36</v>
+      </c>
+      <c r="F1171">
+        <v>4692</v>
+      </c>
+      <c r="G1171">
+        <v>0</v>
+      </c>
+      <c r="H1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1172">
+        <v>1170</v>
+      </c>
+      <c r="B1172">
+        <v>1776000</v>
+      </c>
+      <c r="C1172">
+        <v>35</v>
+      </c>
+      <c r="D1172">
+        <v>4804</v>
+      </c>
+      <c r="E1172">
+        <v>36</v>
+      </c>
+      <c r="F1172">
+        <v>4696</v>
+      </c>
+      <c r="G1172">
+        <v>0</v>
+      </c>
+      <c r="H1172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1173">
+        <v>1171</v>
+      </c>
+      <c r="B1173">
+        <v>1777500</v>
+      </c>
+      <c r="C1173">
+        <v>35</v>
+      </c>
+      <c r="D1173">
+        <v>4808</v>
+      </c>
+      <c r="E1173">
+        <v>36</v>
+      </c>
+      <c r="F1173">
+        <v>4700</v>
+      </c>
+      <c r="G1173">
+        <v>0</v>
+      </c>
+      <c r="H1173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1174">
+        <v>1172</v>
+      </c>
+      <c r="B1174">
+        <v>1779000</v>
+      </c>
+      <c r="C1174">
+        <v>35</v>
+      </c>
+      <c r="D1174">
+        <v>4812</v>
+      </c>
+      <c r="E1174">
+        <v>36</v>
+      </c>
+      <c r="F1174">
+        <v>4704</v>
+      </c>
+      <c r="G1174">
+        <v>0</v>
+      </c>
+      <c r="H1174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1175">
+        <v>1173</v>
+      </c>
+      <c r="B1175">
+        <v>1780500</v>
+      </c>
+      <c r="C1175">
+        <v>35</v>
+      </c>
+      <c r="D1175">
+        <v>4816</v>
+      </c>
+      <c r="E1175">
+        <v>36</v>
+      </c>
+      <c r="F1175">
+        <v>4708</v>
+      </c>
+      <c r="G1175">
+        <v>0</v>
+      </c>
+      <c r="H1175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1176">
+        <v>1174</v>
+      </c>
+      <c r="B1176">
+        <v>1782000</v>
+      </c>
+      <c r="C1176">
+        <v>35</v>
+      </c>
+      <c r="D1176">
+        <v>4820</v>
+      </c>
+      <c r="E1176">
+        <v>36</v>
+      </c>
+      <c r="F1176">
+        <v>4712</v>
+      </c>
+      <c r="G1176">
+        <v>0</v>
+      </c>
+      <c r="H1176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1177">
+        <v>1175</v>
+      </c>
+      <c r="B1177">
+        <v>1783500</v>
+      </c>
+      <c r="C1177">
+        <v>35</v>
+      </c>
+      <c r="D1177">
+        <v>4824</v>
+      </c>
+      <c r="E1177">
+        <v>36</v>
+      </c>
+      <c r="F1177">
+        <v>4716</v>
+      </c>
+      <c r="G1177">
+        <v>0</v>
+      </c>
+      <c r="H1177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1178">
+        <v>1176</v>
+      </c>
+      <c r="B1178">
+        <v>1785000</v>
+      </c>
+      <c r="C1178">
+        <v>35</v>
+      </c>
+      <c r="D1178">
+        <v>4828</v>
+      </c>
+      <c r="E1178">
+        <v>36</v>
+      </c>
+      <c r="F1178">
+        <v>4720</v>
+      </c>
+      <c r="G1178">
+        <v>0</v>
+      </c>
+      <c r="H1178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1179">
+        <v>1177</v>
+      </c>
+      <c r="B1179">
+        <v>1786500</v>
+      </c>
+      <c r="C1179">
+        <v>35</v>
+      </c>
+      <c r="D1179">
+        <v>4832</v>
+      </c>
+      <c r="E1179">
+        <v>36</v>
+      </c>
+      <c r="F1179">
+        <v>4724</v>
+      </c>
+      <c r="G1179">
+        <v>0</v>
+      </c>
+      <c r="H1179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1180">
+        <v>1178</v>
+      </c>
+      <c r="B1180">
+        <v>1788000</v>
+      </c>
+      <c r="C1180">
+        <v>35</v>
+      </c>
+      <c r="D1180">
+        <v>4836</v>
+      </c>
+      <c r="E1180">
+        <v>36</v>
+      </c>
+      <c r="F1180">
+        <v>4728</v>
+      </c>
+      <c r="G1180">
+        <v>0</v>
+      </c>
+      <c r="H1180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1181">
+        <v>1179</v>
+      </c>
+      <c r="B1181">
+        <v>1789500</v>
+      </c>
+      <c r="C1181">
+        <v>35</v>
+      </c>
+      <c r="D1181">
+        <v>4840</v>
+      </c>
+      <c r="E1181">
+        <v>36</v>
+      </c>
+      <c r="F1181">
+        <v>4732</v>
+      </c>
+      <c r="G1181">
+        <v>0</v>
+      </c>
+      <c r="H1181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1182">
+        <v>1180</v>
+      </c>
+      <c r="B1182">
+        <v>1791000</v>
+      </c>
+      <c r="C1182">
+        <v>35</v>
+      </c>
+      <c r="D1182">
+        <v>4844</v>
+      </c>
+      <c r="E1182">
+        <v>36</v>
+      </c>
+      <c r="F1182">
+        <v>4736</v>
+      </c>
+      <c r="G1182">
+        <v>0</v>
+      </c>
+      <c r="H1182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1183">
+        <v>1181</v>
+      </c>
+      <c r="B1183">
+        <v>1792500</v>
+      </c>
+      <c r="C1183">
+        <v>35</v>
+      </c>
+      <c r="D1183">
+        <v>4848</v>
+      </c>
+      <c r="E1183">
+        <v>36</v>
+      </c>
+      <c r="F1183">
+        <v>4740</v>
+      </c>
+      <c r="G1183">
+        <v>0</v>
+      </c>
+      <c r="H1183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1184">
+        <v>1182</v>
+      </c>
+      <c r="B1184">
+        <v>1794000</v>
+      </c>
+      <c r="C1184">
+        <v>35</v>
+      </c>
+      <c r="D1184">
+        <v>4852</v>
+      </c>
+      <c r="E1184">
+        <v>36</v>
+      </c>
+      <c r="F1184">
+        <v>4744</v>
+      </c>
+      <c r="G1184">
+        <v>0</v>
+      </c>
+      <c r="H1184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1185">
+        <v>1183</v>
+      </c>
+      <c r="B1185">
+        <v>1795500</v>
+      </c>
+      <c r="C1185">
+        <v>35</v>
+      </c>
+      <c r="D1185">
+        <v>4856</v>
+      </c>
+      <c r="E1185">
+        <v>36</v>
+      </c>
+      <c r="F1185">
+        <v>4748</v>
+      </c>
+      <c r="G1185">
+        <v>0</v>
+      </c>
+      <c r="H1185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1186">
+        <v>1184</v>
+      </c>
+      <c r="B1186">
+        <v>1797000</v>
+      </c>
+      <c r="C1186">
+        <v>35</v>
+      </c>
+      <c r="D1186">
+        <v>4860</v>
+      </c>
+      <c r="E1186">
+        <v>36</v>
+      </c>
+      <c r="F1186">
+        <v>4752</v>
+      </c>
+      <c r="G1186">
+        <v>0</v>
+      </c>
+      <c r="H1186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1187">
+        <v>1185</v>
+      </c>
+      <c r="B1187">
+        <v>1798500</v>
+      </c>
+      <c r="C1187">
+        <v>35</v>
+      </c>
+      <c r="D1187">
+        <v>4864</v>
+      </c>
+      <c r="E1187">
+        <v>36</v>
+      </c>
+      <c r="F1187">
+        <v>4756</v>
+      </c>
+      <c r="G1187">
+        <v>0</v>
+      </c>
+      <c r="H1187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1188">
+        <v>1186</v>
+      </c>
+      <c r="B1188">
+        <v>1800000</v>
+      </c>
+      <c r="C1188">
+        <v>35</v>
+      </c>
+      <c r="D1188">
+        <v>4868</v>
+      </c>
+      <c r="E1188">
+        <v>36</v>
+      </c>
+      <c r="F1188">
+        <v>4760</v>
+      </c>
+      <c r="G1188">
+        <v>0</v>
+      </c>
+      <c r="H1188">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
